--- a/FMoves.xlsx
+++ b/FMoves.xlsx
@@ -1020,10 +1020,14 @@
           <t>0,1,2,3</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0,1,2,3</t>
+        </is>
+      </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>aoe</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -1561,10 +1565,14 @@
           <t>2,3</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr"/>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0,1,2,3</t>
+        </is>
+      </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>all,random3</t>
+          <t>random3</t>
         </is>
       </c>
       <c r="H23" t="inlineStr"/>
@@ -1714,10 +1722,14 @@
           <t>1,2,3</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr"/>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0,1,2,3</t>
+        </is>
+      </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>all,ally</t>
+          <t>aoe,ally</t>
         </is>
       </c>
       <c r="H26" t="inlineStr"/>
@@ -1761,10 +1773,14 @@
           <t>2,3</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr"/>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0,1,2,3</t>
+        </is>
+      </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>all,random</t>
+          <t>random</t>
         </is>
       </c>
       <c r="H27" t="n">
@@ -2606,10 +2622,14 @@
           <t>2,3</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr"/>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>0,1,2,3</t>
+        </is>
+      </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>aoe</t>
         </is>
       </c>
       <c r="H44" t="inlineStr"/>
@@ -2653,10 +2673,14 @@
           <t>2,3</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr"/>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>0,1,2,3</t>
+        </is>
+      </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>aoe</t>
         </is>
       </c>
       <c r="H45" t="n">
@@ -2855,10 +2879,14 @@
           <t>2,3</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr"/>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>0,1,2,3</t>
+        </is>
+      </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>all,aoe</t>
+          <t>aoe</t>
         </is>
       </c>
       <c r="H49" t="inlineStr"/>
@@ -3051,10 +3079,14 @@
           <t>2,3</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr"/>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>0,1,2,3</t>
+        </is>
+      </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>all,aoe</t>
+          <t>aoe</t>
         </is>
       </c>
       <c r="H53" t="inlineStr"/>
@@ -3484,10 +3516,14 @@
           <t>2,3</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr"/>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>0,1,2,3</t>
+        </is>
+      </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>aoe</t>
         </is>
       </c>
       <c r="H62" t="inlineStr"/>
@@ -3717,10 +3753,14 @@
           <t>2,3</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr"/>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>0,1,2,3</t>
+        </is>
+      </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>all,random2</t>
+          <t>random2</t>
         </is>
       </c>
       <c r="H67" t="inlineStr"/>
@@ -3872,10 +3912,14 @@
           <t>2,3</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr"/>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>0,1,2,3</t>
+        </is>
+      </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>all,random3</t>
+          <t>random3</t>
         </is>
       </c>
       <c r="H70" t="n">
@@ -4376,10 +4420,14 @@
           <t>0,1,2,3</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr"/>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>0,1,2,3</t>
+        </is>
+      </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>aoe</t>
         </is>
       </c>
       <c r="H80" t="inlineStr"/>
@@ -4525,10 +4573,14 @@
           <t>0,1,2,3</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr"/>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>0,1,2,3</t>
+        </is>
+      </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>all,random2</t>
+          <t>random2</t>
         </is>
       </c>
       <c r="H83" t="inlineStr"/>
@@ -5029,10 +5081,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr"/>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>0,1,2,3</t>
+        </is>
+      </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>aoe</t>
         </is>
       </c>
       <c r="H93" t="inlineStr"/>
@@ -5415,10 +5471,14 @@
           <t>2,3</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr"/>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>0,1,2,3</t>
+        </is>
+      </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>aoe</t>
         </is>
       </c>
       <c r="H101" t="inlineStr"/>
@@ -7322,10 +7382,14 @@
           <t>0,1,2,3</t>
         </is>
       </c>
-      <c r="F140" t="inlineStr"/>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>0,1,2,3</t>
+        </is>
+      </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>all,ally</t>
+          <t>aoe,ally</t>
         </is>
       </c>
       <c r="H140" t="n">
@@ -7467,10 +7531,14 @@
           <t>1,2,3</t>
         </is>
       </c>
-      <c r="F143" t="inlineStr"/>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>0,1,2,3</t>
+        </is>
+      </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>aoe</t>
         </is>
       </c>
       <c r="H143" t="n">
@@ -7514,10 +7582,14 @@
           <t>0,1,2,3</t>
         </is>
       </c>
-      <c r="F144" t="inlineStr"/>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>0,1,2,3</t>
+        </is>
+      </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>aoe</t>
         </is>
       </c>
       <c r="H144" t="inlineStr"/>
@@ -8241,10 +8313,14 @@
           <t>0,1</t>
         </is>
       </c>
-      <c r="F159" t="inlineStr"/>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>0,1,2,3</t>
+        </is>
+      </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>aoe</t>
         </is>
       </c>
       <c r="H159" t="inlineStr"/>
@@ -9035,10 +9111,14 @@
           <t>2,3</t>
         </is>
       </c>
-      <c r="F175" t="inlineStr"/>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>0,1,2,3</t>
+        </is>
+      </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>all,aoe</t>
+          <t>aoe</t>
         </is>
       </c>
       <c r="H175" t="inlineStr"/>
@@ -9229,10 +9309,14 @@
           <t>2,3</t>
         </is>
       </c>
-      <c r="F179" t="inlineStr"/>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>0,1,2,3</t>
+        </is>
+      </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>all,ally</t>
+          <t>aoe,ally</t>
         </is>
       </c>
       <c r="H179" t="n">
@@ -10651,10 +10735,14 @@
           <t>0,1,2,3</t>
         </is>
       </c>
-      <c r="F211" t="inlineStr"/>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>0,1,2,3</t>
+        </is>
+      </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>aoe</t>
         </is>
       </c>
       <c r="H211" t="n">
@@ -10814,10 +10902,14 @@
           <t>0,1,2,3</t>
         </is>
       </c>
-      <c r="F214" t="inlineStr"/>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>0,1,2,3</t>
+        </is>
+      </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>aoe</t>
         </is>
       </c>
       <c r="H214" t="n">
@@ -11701,10 +11793,14 @@
           <t>1,2,3</t>
         </is>
       </c>
-      <c r="F231" t="inlineStr"/>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>0,1,2,3</t>
+        </is>
+      </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>aoe,all</t>
+          <t>aoe</t>
         </is>
       </c>
       <c r="H231" t="inlineStr"/>
@@ -12064,10 +12160,14 @@
           <t>0,1,2,3</t>
         </is>
       </c>
-      <c r="F238" t="inlineStr"/>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>0,1,2,3</t>
+        </is>
+      </c>
       <c r="G238" t="inlineStr">
         <is>
-          <t>all,ally</t>
+          <t>aoe,ally</t>
         </is>
       </c>
       <c r="H238" t="inlineStr"/>
@@ -12435,10 +12535,14 @@
           <t>2,3</t>
         </is>
       </c>
-      <c r="F245" t="inlineStr"/>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>0,1,2,3</t>
+        </is>
+      </c>
       <c r="G245" t="inlineStr">
         <is>
-          <t>all,aoe</t>
+          <t>aoe</t>
         </is>
       </c>
       <c r="H245" t="inlineStr"/>
@@ -12484,10 +12588,14 @@
           <t>2,3</t>
         </is>
       </c>
-      <c r="F246" t="inlineStr"/>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>0,1,2,3</t>
+        </is>
+      </c>
       <c r="G246" t="inlineStr">
         <is>
-          <t>all,aoe</t>
+          <t>aoe</t>
         </is>
       </c>
       <c r="H246" t="inlineStr"/>
@@ -12535,10 +12643,14 @@
           <t>1,2,3</t>
         </is>
       </c>
-      <c r="F247" t="inlineStr"/>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>0,1,2,3</t>
+        </is>
+      </c>
       <c r="G247" t="inlineStr">
         <is>
-          <t>all,aoe</t>
+          <t>aoe</t>
         </is>
       </c>
       <c r="H247" t="inlineStr"/>
@@ -13061,10 +13173,14 @@
           <t>0,1</t>
         </is>
       </c>
-      <c r="F257" t="inlineStr"/>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>0,1,2,3</t>
+        </is>
+      </c>
       <c r="G257" t="inlineStr">
         <is>
-          <t>all,ally</t>
+          <t>aoe,ally</t>
         </is>
       </c>
       <c r="H257" t="inlineStr"/>
@@ -13108,10 +13224,14 @@
           <t>0,1,2,3</t>
         </is>
       </c>
-      <c r="F258" t="inlineStr"/>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>0,1,2,3</t>
+        </is>
+      </c>
       <c r="G258" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>aoe</t>
         </is>
       </c>
       <c r="H258" t="inlineStr"/>
@@ -13216,10 +13336,14 @@
           <t>0,1,2</t>
         </is>
       </c>
-      <c r="F260" t="inlineStr"/>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>0,1,2,3</t>
+        </is>
+      </c>
       <c r="G260" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>aoe</t>
         </is>
       </c>
       <c r="H260" t="inlineStr"/>

--- a/FMoves.xlsx
+++ b/FMoves.xlsx
@@ -501,7 +501,7 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>delay</t>
+          <t>script</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -558,8 +558,10 @@
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
-        <v>10</v>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>WHEN:move:HIT_TARGETS | add_dot,bleed,4</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -607,8 +609,10 @@
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
-        <v>10</v>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>WHEN:move:MOVE_USER | reduce_token,taunt,2 | move_back,1</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -656,8 +660,10 @@
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
-      <c r="N4" t="n">
-        <v>10</v>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>WHEN:move:MOVE_USER | add_token,riposte,2</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -705,8 +711,10 @@
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
-      <c r="N5" t="n">
-        <v>10</v>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>WHEN:move:HIT_TARGETS | add_dot,bleed,2</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -754,8 +762,10 @@
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
-        <v>10</v>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>WHEN:move:HIT_TARGETS | duplicate_dot,bleed,poison</t>
+        </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -803,8 +813,10 @@
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
-      <c r="N7" t="n">
-        <v>10</v>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>charge,5 | WHEN:move:MOVE_USER | add_token,vuln,3 | move_front,3</t>
+        </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -852,8 +864,10 @@
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
-      <c r="N8" t="n">
-        <v>10</v>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>WHEN:move:HIT_TARGETS | add_dot,bleed,2</t>
+        </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -897,8 +911,10 @@
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
-      <c r="N9" t="n">
-        <v>10</v>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>WHEN:move:HIT_TARGETS | add_token,blind,2 | add_token,weak,2</t>
+        </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -944,8 +960,10 @@
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr"/>
-      <c r="N10" t="n">
-        <v>10</v>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>charge,5 | WHEN:move:HIT_TARGETS | move_front,2 | disrupt</t>
+        </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -989,8 +1007,10 @@
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr"/>
-      <c r="N11" t="n">
-        <v>10</v>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>WHEN:move:MOVE_USER | reduce_token,taunt,2 | add_token,shield,2 | move_back,1</t>
+        </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1040,8 +1060,10 @@
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr"/>
-      <c r="N12" t="n">
-        <v>5</v>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>charge,15 | WHEN:move:HIT_TARGETS | shuffle</t>
+        </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1089,8 +1111,10 @@
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr"/>
-      <c r="N13" t="n">
-        <v>10</v>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>WHEN:move:MOVE_USER | move_back,1 | WHEN:move:HIT_TARGETS | add_dot,bleed,3</t>
+        </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1138,9 +1162,7 @@
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
-      <c r="N14" t="n">
-        <v>10</v>
-      </c>
+      <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr">
         <is>
           <t>iron_swan</t>
@@ -1187,8 +1209,10 @@
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr"/>
-      <c r="N15" t="n">
-        <v>10</v>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>recoil,3</t>
+        </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1236,8 +1260,10 @@
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr"/>
-      <c r="N16" t="n">
-        <v>15</v>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>WHEN:move:HIT_TARGETS | add_delay,10</t>
+        </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1283,8 +1309,10 @@
         <v>1</v>
       </c>
       <c r="M17" t="inlineStr"/>
-      <c r="N17" t="n">
-        <v>10</v>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>WHEN:move:MOVE_USER | add_token,strength,1 | WHEN:move:HIT_TARGETS | add_token,vuln,1</t>
+        </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1330,8 +1358,10 @@
         <v>1</v>
       </c>
       <c r="M18" t="inlineStr"/>
-      <c r="N18" t="n">
-        <v>10</v>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>WHEN:move:HIT_TARGETS | disrupt | lust_damage,10 | reduce_token,confusion,5</t>
+        </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -1381,8 +1411,10 @@
         <v>1</v>
       </c>
       <c r="M19" t="inlineStr"/>
-      <c r="N19" t="n">
-        <v>20</v>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>WHEN:move:HIT_TARGETS | reduce_token,confusion,5 | reduce_token,confusion,4 | reduce_token,confusion,3</t>
+        </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -1432,8 +1464,10 @@
         <v>1</v>
       </c>
       <c r="M20" t="inlineStr"/>
-      <c r="N20" t="n">
-        <v>10</v>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>WHEN:move:HIT_TARGETS | set_token,grovel,1</t>
+        </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -1483,8 +1517,10 @@
         <v>1</v>
       </c>
       <c r="M21" t="inlineStr"/>
-      <c r="N21" t="n">
-        <v>10</v>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>WHEN:move:HIT_TARGETS | remove_random_wearable</t>
+        </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -1534,8 +1570,10 @@
         <v>1</v>
       </c>
       <c r="M22" t="inlineStr"/>
-      <c r="N22" t="n">
-        <v>10</v>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>WHEN:move:HIT_TARGETS | add_token,confusion,5 | IF:is_critical | add_token,confusion,5</t>
+        </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -1585,8 +1623,10 @@
         <v>1</v>
       </c>
       <c r="M23" t="inlineStr"/>
-      <c r="N23" t="n">
-        <v>5</v>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>charge,5 | WHEN:move:HIT_TARGETS | add_token,confusion,3 | IF:is_critical | add_token,confusion,3</t>
+        </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -1640,8 +1680,10 @@
       </c>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr"/>
-      <c r="N24" t="n">
-        <v>10</v>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>leech,50</t>
+        </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -1691,8 +1733,10 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
-      <c r="N25" t="n">
-        <v>5</v>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>WHEN:move:MOVE_USER | add_token,strength,2 | lust_damage,10 | IF:is_critical | add_dot,regen,2 | lust_damage,10</t>
+        </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -1742,8 +1786,10 @@
         <v>1</v>
       </c>
       <c r="M26" t="inlineStr"/>
-      <c r="N26" t="n">
-        <v>2</v>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>charge,8 | heal | WHEN:move:ALLY_TARGETS | add_dot,regen,1</t>
+        </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -1793,8 +1839,10 @@
         <v>1</v>
       </c>
       <c r="M27" t="inlineStr"/>
-      <c r="N27" t="n">
-        <v>10</v>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>charge,10</t>
+        </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -1848,8 +1896,10 @@
         <v>1</v>
       </c>
       <c r="M28" t="inlineStr"/>
-      <c r="N28" t="n">
-        <v>10</v>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>charge,5 | WHEN:move:HIT_TARGETS | add_token,block,3</t>
+        </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -1899,8 +1949,10 @@
         <v>1</v>
       </c>
       <c r="M29" t="inlineStr"/>
-      <c r="N29" t="n">
-        <v>10</v>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>heal</t>
+        </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -1948,8 +2000,10 @@
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr"/>
-      <c r="N30" t="n">
-        <v>10</v>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>WHEN:move:HIT_TARGETS | IF:above_stat,lust,30 | disrupt | ENDIF | lust_damage,10</t>
+        </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -1997,8 +2051,10 @@
         <v>1</v>
       </c>
       <c r="M31" t="inlineStr"/>
-      <c r="N31" t="n">
-        <v>10</v>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>FOR:TARGET:token,petrification | damage_bonus,3</t>
+        </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -2044,8 +2100,10 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
-      <c r="N32" t="n">
-        <v>10</v>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>WHEN:move:HIT_TARGETS | reduce_token,block,1 | add_token,arousal,1 | WHEN:move:MOVE_USER | add_token,block,1</t>
+        </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -2095,8 +2153,10 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
-      <c r="N33" t="n">
-        <v>10</v>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>WHEN:move:HIT_TARGETS | drain_experience,50</t>
+        </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -2146,8 +2206,10 @@
         <v>1</v>
       </c>
       <c r="M34" t="inlineStr"/>
-      <c r="N34" t="n">
-        <v>10</v>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>charge,10 | WHEN:move:HIT_TARGETS | IF:has_token,petrification,5: | add_perk,petrified | ENDIF | add_token,petrification,5</t>
+        </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -2193,8 +2255,10 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
-      <c r="N35" t="n">
-        <v>10</v>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>WHEN:move:HIT_TARGETS | reduce_token,strength,1 | add_token,arousal,1 | WHEN:move:MOVE_USER | add_token,strength,1</t>
+        </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -2250,8 +2314,10 @@
         <v>1</v>
       </c>
       <c r="M36" t="inlineStr"/>
-      <c r="N36" t="n">
-        <v>10</v>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>charge,20 | WHEN:move:ALLY_TARGETS | set_token,block,5</t>
+        </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -2297,8 +2363,10 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
-      <c r="N37" t="n">
-        <v>10</v>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>WHEN:move:HIT_TARGETS | add_lust,20 | IF:is_critical | add_lust,20</t>
+        </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -2342,9 +2410,7 @@
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr"/>
-      <c r="N38" t="n">
-        <v>10</v>
-      </c>
+      <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr">
         <is>
           <t>shatter</t>
@@ -2395,8 +2461,10 @@
         <v>1</v>
       </c>
       <c r="M39" t="inlineStr"/>
-      <c r="N39" t="n">
-        <v>10</v>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>charge,10 | WHEN:move:HIT_TARGETS | equip_wearables,yoke</t>
+        </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -2440,8 +2508,10 @@
         <v>1</v>
       </c>
       <c r="M40" t="inlineStr"/>
-      <c r="N40" t="n">
-        <v>10</v>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>heal | WHEN:move:MOVE_USER | set_token,wildshape,1</t>
+        </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -2491,8 +2561,10 @@
         <v>1</v>
       </c>
       <c r="M41" t="inlineStr"/>
-      <c r="N41" t="n">
-        <v>10</v>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>WHEN:move:HIT_TARGETS | add_token,entangled,2</t>
+        </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -2542,8 +2614,10 @@
         <v>1</v>
       </c>
       <c r="M42" t="inlineStr"/>
-      <c r="N42" t="n">
-        <v>15</v>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>heal | WHEN:move:HIT_TARGETS | add_dot,regen,2</t>
+        </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -2591,8 +2665,10 @@
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr"/>
-      <c r="N43" t="n">
-        <v>10</v>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>IF:below_turns,5 | damage_bonus,1 | ENDIF | IF:below_turns,10 | damage_bonus,1 | ENDIF | IF:below_turns,20 | damage_bonus,1 | ENDIF</t>
+        </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -2642,8 +2718,10 @@
         <v>1</v>
       </c>
       <c r="M44" t="inlineStr"/>
-      <c r="N44" t="n">
-        <v>15</v>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>WHEN:move:HIT_TARGETS | add_token,arousal,1 | IF:is_critical | add_token,vuln,1</t>
+        </is>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -2693,9 +2771,7 @@
         <v>1</v>
       </c>
       <c r="M45" t="inlineStr"/>
-      <c r="N45" t="n">
-        <v>15</v>
-      </c>
+      <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr">
         <is>
           <t>stirring_roots</t>
@@ -2746,8 +2822,10 @@
         <v>1</v>
       </c>
       <c r="M46" t="inlineStr"/>
-      <c r="N46" t="n">
-        <v>15</v>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>WHEN:move:HIT_TARGETS | equip_wearables,vine_rope</t>
+        </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -2799,8 +2877,10 @@
         <v>1</v>
       </c>
       <c r="M47" t="inlineStr"/>
-      <c r="N47" t="n">
-        <v>10</v>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>WHEN:move:HIT_TARGETS | move_front,1</t>
+        </is>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -2848,8 +2928,10 @@
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr"/>
-      <c r="N48" t="n">
-        <v>10</v>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>WHEN:move:SELF | add_token,strength,1</t>
+        </is>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -2899,8 +2981,10 @@
         <v>1</v>
       </c>
       <c r="M49" t="inlineStr"/>
-      <c r="N49" t="n">
-        <v>15</v>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>WHEN:move:HIT_TARGETS | add_delay,2</t>
+        </is>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -2948,8 +3032,10 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
-      <c r="N50" t="n">
-        <v>5</v>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>charge,5 | WHEN:move:HIT_TARGETS | add_lust,20</t>
+        </is>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -2999,8 +3085,10 @@
         <v>1</v>
       </c>
       <c r="M51" t="inlineStr"/>
-      <c r="N51" t="n">
-        <v>5</v>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>charge,5 | WHEN:move:ALLY_TARGETS | reduce_negative_token,4 | add_token,strength,2 | add_lust,-10</t>
+        </is>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -3048,8 +3136,10 @@
         <v>1</v>
       </c>
       <c r="M52" t="inlineStr"/>
-      <c r="N52" t="n">
-        <v>15</v>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>WHEN:move:HIT_TARGETS | add_delay,10</t>
+        </is>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -3099,8 +3189,10 @@
         <v>1</v>
       </c>
       <c r="M53" t="inlineStr"/>
-      <c r="N53" t="n">
-        <v>10</v>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>charge,20</t>
+        </is>
       </c>
       <c r="O53" t="inlineStr">
         <is>
@@ -3144,8 +3236,10 @@
         <v>1</v>
       </c>
       <c r="M54" t="inlineStr"/>
-      <c r="N54" t="n">
-        <v>5</v>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>heal | WHEN:move:MOVE_USER | add_dot,bleed,5</t>
+        </is>
       </c>
       <c r="O54" t="inlineStr">
         <is>
@@ -3197,8 +3291,10 @@
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr"/>
-      <c r="N55" t="n">
-        <v>10</v>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>WHEN:move:HIT_TARGETS | add_token,weak,2</t>
+        </is>
       </c>
       <c r="O55" t="inlineStr">
         <is>
@@ -3246,8 +3342,10 @@
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr"/>
-      <c r="N56" t="n">
-        <v>10</v>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>WHEN:move:HIT_TARGETS | add_token,blind,2</t>
+        </is>
       </c>
       <c r="O56" t="inlineStr">
         <is>
@@ -3293,8 +3391,10 @@
       </c>
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr"/>
-      <c r="N57" t="n">
-        <v>10</v>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>WHEN:move:MOVE_USER | move_front,2</t>
+        </is>
       </c>
       <c r="O57" t="inlineStr">
         <is>
@@ -3346,8 +3446,10 @@
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr"/>
-      <c r="N58" t="n">
-        <v>10</v>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>WHEN:move:HIT_TARGETS | add_token,vuln,2</t>
+        </is>
       </c>
       <c r="O58" t="inlineStr">
         <is>
@@ -3391,8 +3493,10 @@
       </c>
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr"/>
-      <c r="N59" t="n">
-        <v>5</v>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>charge,10 | WHEN:move:HIT_TARGETS | add_token,encore,2</t>
+        </is>
       </c>
       <c r="O59" t="inlineStr">
         <is>
@@ -3436,8 +3540,10 @@
       </c>
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr"/>
-      <c r="N60" t="n">
-        <v>5</v>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>charge,10 | WHEN:move:HIT_TARGETS | add_token,frenzy,2</t>
+        </is>
       </c>
       <c r="O60" t="inlineStr">
         <is>
@@ -3485,8 +3591,10 @@
       </c>
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr"/>
-      <c r="N61" t="n">
-        <v>5</v>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>charge,5 | WHEN:move:HIT_TARGETS | add_token,strength,2</t>
+        </is>
       </c>
       <c r="O61" t="inlineStr">
         <is>
@@ -3534,8 +3642,10 @@
       </c>
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr"/>
-      <c r="N62" t="n">
-        <v>10</v>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>charge,5 | WHEN:move:HIT_TARGETS | add_token,vuln,1</t>
+        </is>
       </c>
       <c r="O62" t="inlineStr">
         <is>
@@ -3579,8 +3689,10 @@
       </c>
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr"/>
-      <c r="N63" t="n">
-        <v>5</v>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>charge,5 | WHEN:move:HIT_TARGETS | move_front,1</t>
+        </is>
       </c>
       <c r="O63" t="inlineStr">
         <is>
@@ -3624,8 +3736,10 @@
       </c>
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr"/>
-      <c r="N64" t="n">
-        <v>10</v>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>ignore_tokens,block</t>
+        </is>
       </c>
       <c r="O64" t="inlineStr">
         <is>
@@ -3673,8 +3787,10 @@
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr"/>
-      <c r="N65" t="n">
-        <v>10</v>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>WHEN:move:HIT_TARGETS | add_dot,bleed,1</t>
+        </is>
       </c>
       <c r="O65" t="inlineStr">
         <is>
@@ -3722,8 +3838,10 @@
         <v>1</v>
       </c>
       <c r="M66" t="inlineStr"/>
-      <c r="N66" t="n">
-        <v>5</v>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>charge,10 | WHEN:move:HIT_TARGETS | add_token,frost,1</t>
+        </is>
       </c>
       <c r="O66" t="inlineStr">
         <is>
@@ -3773,8 +3891,10 @@
         <v>1</v>
       </c>
       <c r="M67" t="inlineStr"/>
-      <c r="N67" t="n">
-        <v>0</v>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>charge,10 | WHEN:move:HIT_TARGETS | unequip_wearable_in_slot,top,bra</t>
+        </is>
       </c>
       <c r="O67" t="inlineStr">
         <is>
@@ -3828,8 +3948,10 @@
         <v>1</v>
       </c>
       <c r="M68" t="inlineStr"/>
-      <c r="N68" t="n">
-        <v>0</v>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>charge,15 | WHEN:move:ALLY_TARGETS | add_token,block,2</t>
+        </is>
       </c>
       <c r="O68" t="inlineStr">
         <is>
@@ -3877,8 +3999,10 @@
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr"/>
-      <c r="N69" t="n">
-        <v>10</v>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>WHEN:move:HIT_TARGETS | IF:no_slot,bra | disrupt | ENDIF | lust_damage,10 | add_token,frost,2</t>
+        </is>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -3932,8 +4056,10 @@
         <v>1</v>
       </c>
       <c r="M70" t="inlineStr"/>
-      <c r="N70" t="n">
-        <v>10</v>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>charge,10 | WHEN:move:HIT_TARGETS | add_token,frost,1</t>
+        </is>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -3985,8 +4111,10 @@
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
       <c r="M71" t="inlineStr"/>
-      <c r="N71" t="n">
-        <v>10</v>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>ignore_tokens,block | WHEN:move:HIT_TARGETS | unequip_wearable_in_slot,panties,bra</t>
+        </is>
       </c>
       <c r="O71" t="inlineStr">
         <is>
@@ -4036,8 +4164,10 @@
         <v>1</v>
       </c>
       <c r="M72" t="inlineStr"/>
-      <c r="N72" t="n">
-        <v>10</v>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>WHEN:move:MOVE_USER | add_token,strength,2</t>
+        </is>
       </c>
       <c r="O72" t="inlineStr">
         <is>
@@ -4083,8 +4213,10 @@
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
       <c r="M73" t="inlineStr"/>
-      <c r="N73" t="n">
-        <v>10</v>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>charge,5 | WHEN:move:MOVE_USER | move_front,3</t>
+        </is>
       </c>
       <c r="O73" t="inlineStr">
         <is>
@@ -4130,8 +4262,10 @@
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
       <c r="M74" t="inlineStr"/>
-      <c r="N74" t="n">
-        <v>10</v>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>WHEN:move:MOVE_USER | move_back,1 | WHEN:move:HIT_TARGETS | IF:above_stat,lust,30 | disrupt | ENDIF | lust_damage,10 | add_token,arousal,1 | IF:is_critical | lust_damage,10</t>
+        </is>
       </c>
       <c r="O74" t="inlineStr">
         <is>
@@ -4179,8 +4313,10 @@
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
       <c r="M75" t="inlineStr"/>
-      <c r="N75" t="n">
-        <v>15</v>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>WHEN:move:MOVE_USER | move_back,1 | WHEN:move:HIT_TARGETS | add_dot,bleed,3 | move_back,2</t>
+        </is>
       </c>
       <c r="O75" t="inlineStr">
         <is>
@@ -4228,8 +4364,10 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
-      <c r="N76" t="n">
-        <v>10</v>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>FOR:token,arousal | damage_bonus,1 | ENDFOR | WHEN:move:MOVE_USER | move_back,1 | WHEN:move:HIT_TARGETS | IF:above_stat,lust,30 | disrupt | ENDIF | lust_damage,10</t>
+        </is>
       </c>
       <c r="O76" t="inlineStr">
         <is>
@@ -4285,8 +4423,10 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
-      <c r="N77" t="n">
-        <v>5</v>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>charge,5 | WHEN:move:HIT_TARGETS | add_token,arousal,3 | add_token,strength,3</t>
+        </is>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -4336,8 +4476,10 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
-      <c r="N78" t="n">
-        <v>10</v>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>WHEN:move:HIT_TARGETS | add_token,arousal,1</t>
+        </is>
       </c>
       <c r="O78" t="inlineStr">
         <is>
@@ -4389,8 +4531,10 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
-      <c r="N79" t="n">
-        <v>20</v>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>heal | WHEN:move:HIT_TARGETS | lust_damage,10 | add_token,arousal,2</t>
+        </is>
       </c>
       <c r="O79" t="inlineStr">
         <is>
@@ -4440,8 +4584,10 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
-      <c r="N80" t="n">
-        <v>10</v>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>charge,10 | WHEN:move:HIT_TARGETS | reduce_token,arousal,4</t>
+        </is>
       </c>
       <c r="O80" t="inlineStr">
         <is>
@@ -4495,8 +4641,10 @@
         <v>1</v>
       </c>
       <c r="M81" t="inlineStr"/>
-      <c r="N81" t="n">
-        <v>5</v>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>charge,5 | WHEN:move:HIT_TARGETS | add_token,block,3</t>
+        </is>
       </c>
       <c r="O81" t="inlineStr">
         <is>
@@ -4546,8 +4694,10 @@
         <v>1</v>
       </c>
       <c r="M82" t="inlineStr"/>
-      <c r="N82" t="n">
-        <v>10</v>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>charge,5 | WHEN:move:HIT_TARGETS | add_token,shield,2</t>
+        </is>
       </c>
       <c r="O82" t="inlineStr">
         <is>
@@ -4595,8 +4745,10 @@
         <v>1</v>
       </c>
       <c r="M83" t="inlineStr"/>
-      <c r="N83" t="n">
-        <v>10</v>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>charge,5 | WHEN:move:HIT_TARGETS | add_dot,fire,2</t>
+        </is>
       </c>
       <c r="O83" t="inlineStr">
         <is>
@@ -4644,8 +4796,10 @@
         <v>1</v>
       </c>
       <c r="M84" t="inlineStr"/>
-      <c r="N84" t="n">
-        <v>5</v>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>charge,5 | WHEN:move:HIT_TARGETS | add_dot,fire,2</t>
+        </is>
       </c>
       <c r="O84" t="inlineStr">
         <is>
@@ -4697,8 +4851,10 @@
         <v>1</v>
       </c>
       <c r="M85" t="inlineStr"/>
-      <c r="N85" t="n">
-        <v>10</v>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>WHEN:move:HIT_TARGETS | add_dot,fire,2</t>
+        </is>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -4746,8 +4902,10 @@
         <v>1</v>
       </c>
       <c r="M86" t="inlineStr"/>
-      <c r="N86" t="n">
-        <v>5</v>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>charge,15 | WHEN:move:HIT_TARGETS | swap_gear,panties,bra</t>
+        </is>
       </c>
       <c r="O86" t="inlineStr">
         <is>
@@ -4793,8 +4951,10 @@
         <v>1</v>
       </c>
       <c r="M87" t="inlineStr"/>
-      <c r="N87" t="n">
-        <v>5</v>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>charge,5 | ignore_tokens,block,shield</t>
+        </is>
       </c>
       <c r="O87" t="inlineStr">
         <is>
@@ -4844,8 +5004,10 @@
         <v>1</v>
       </c>
       <c r="M88" t="inlineStr"/>
-      <c r="N88" t="n">
-        <v>10</v>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>heal | WHEN:move:HIT_TARGETS | IF:above_stat,lust,30 | disrupt | ENDIF | lust_damage,10</t>
+        </is>
       </c>
       <c r="O88" t="inlineStr">
         <is>
@@ -4901,8 +5063,10 @@
         <v>1</v>
       </c>
       <c r="M89" t="inlineStr"/>
-      <c r="N89" t="n">
-        <v>5</v>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>charge,5 | FOR:token,gait | damage_bonus,2</t>
+        </is>
       </c>
       <c r="O89" t="inlineStr">
         <is>
@@ -4950,8 +5114,10 @@
         <v>1</v>
       </c>
       <c r="M90" t="inlineStr"/>
-      <c r="N90" t="n">
-        <v>10</v>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>WHEN:move:MOVE_USER | add_token,block,3 | WHEN:move:ALLY_TARGETS | transfer_negative_dots</t>
+        </is>
       </c>
       <c r="O90" t="inlineStr">
         <is>
@@ -5001,8 +5167,10 @@
         <v>1</v>
       </c>
       <c r="M91" t="inlineStr"/>
-      <c r="N91" t="n">
-        <v>1</v>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>charge,10 | WHEN:move:MOVE_USER | add_token,gait,5</t>
+        </is>
       </c>
       <c r="O91" t="inlineStr">
         <is>
@@ -5046,8 +5214,10 @@
         <v>1</v>
       </c>
       <c r="M92" t="inlineStr"/>
-      <c r="N92" t="n">
-        <v>5</v>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>heal | WHEN:move:MOVE_USER | reduce_token,gait,5 | reduce_negative_dots,2</t>
+        </is>
       </c>
       <c r="O92" t="inlineStr">
         <is>
@@ -5103,8 +5273,10 @@
         <v>1</v>
       </c>
       <c r="M93" t="inlineStr"/>
-      <c r="N93" t="n">
-        <v>5</v>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>charge,5</t>
+        </is>
       </c>
       <c r="O93" t="inlineStr">
         <is>
@@ -5152,8 +5324,10 @@
         <v>1</v>
       </c>
       <c r="M94" t="inlineStr"/>
-      <c r="N94" t="n">
-        <v>10</v>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>WHEN:move:HIT_TARGETS | add_token,guard,1</t>
+        </is>
       </c>
       <c r="O94" t="inlineStr">
         <is>
@@ -5201,8 +5375,10 @@
         <v>1</v>
       </c>
       <c r="M95" t="inlineStr"/>
-      <c r="N95" t="n">
-        <v>5</v>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>charge,5 | WHEN:move:HIT_TARGETS | add_token,taunt,1</t>
+        </is>
       </c>
       <c r="O95" t="inlineStr">
         <is>
@@ -5252,8 +5428,10 @@
         <v>1</v>
       </c>
       <c r="M96" t="inlineStr"/>
-      <c r="N96" t="n">
-        <v>10</v>
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>heal | WHEN:move:HIT_TARGETS | reduce_dot,bleed,2</t>
+        </is>
       </c>
       <c r="O96" t="inlineStr">
         <is>
@@ -5301,8 +5479,10 @@
         <v>1</v>
       </c>
       <c r="M97" t="inlineStr"/>
-      <c r="N97" t="n">
-        <v>1</v>
+      <c r="N97" t="inlineStr">
+        <is>
+          <t>heal | charge,15 | WHEN:move:MOVE_USER | add_token,divine,3</t>
+        </is>
       </c>
       <c r="O97" t="inlineStr">
         <is>
@@ -5350,8 +5530,10 @@
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
       <c r="M98" t="inlineStr"/>
-      <c r="N98" t="n">
-        <v>15</v>
+      <c r="N98" t="inlineStr">
+        <is>
+          <t>FOR:token,divine | damage_bonus,3</t>
+        </is>
       </c>
       <c r="O98" t="inlineStr">
         <is>
@@ -5395,8 +5577,10 @@
       </c>
       <c r="L99" t="inlineStr"/>
       <c r="M99" t="inlineStr"/>
-      <c r="N99" t="n">
-        <v>15</v>
+      <c r="N99" t="inlineStr">
+        <is>
+          <t>WHEN:move:HIT_TARGETS | reduce_token,strength,2</t>
+        </is>
       </c>
       <c r="O99" t="inlineStr">
         <is>
@@ -5440,8 +5624,10 @@
         <v>1</v>
       </c>
       <c r="M100" t="inlineStr"/>
-      <c r="N100" t="n">
-        <v>10</v>
+      <c r="N100" t="inlineStr">
+        <is>
+          <t>WHEN:move:MOVE_USER | add_token,riposte,2</t>
+        </is>
       </c>
       <c r="O100" t="inlineStr">
         <is>
@@ -5491,8 +5677,10 @@
       </c>
       <c r="L101" t="inlineStr"/>
       <c r="M101" t="inlineStr"/>
-      <c r="N101" t="n">
-        <v>10</v>
+      <c r="N101" t="inlineStr">
+        <is>
+          <t>WHEN:move:HIT_TARGETS | add_dot,bleed,2</t>
+        </is>
       </c>
       <c r="O101" t="inlineStr">
         <is>
@@ -5536,8 +5724,10 @@
         <v>1</v>
       </c>
       <c r="M102" t="inlineStr"/>
-      <c r="N102" t="n">
-        <v>15</v>
+      <c r="N102" t="inlineStr">
+        <is>
+          <t>heal | WHEN:move:HIT_TARGETS | add_token,strength,2</t>
+        </is>
       </c>
       <c r="O102" t="inlineStr">
         <is>
@@ -5585,8 +5775,10 @@
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
       <c r="M103" t="inlineStr"/>
-      <c r="N103" t="n">
-        <v>10</v>
+      <c r="N103" t="inlineStr">
+        <is>
+          <t>WHEN:move:HIT_TARGETS | reduce_token,block,2</t>
+        </is>
       </c>
       <c r="O103" t="inlineStr">
         <is>
@@ -5632,9 +5824,7 @@
       </c>
       <c r="L104" t="inlineStr"/>
       <c r="M104" t="inlineStr"/>
-      <c r="N104" t="n">
-        <v>10</v>
-      </c>
+      <c r="N104" t="inlineStr"/>
       <c r="O104" t="inlineStr">
         <is>
           <t>bite</t>
@@ -5683,8 +5873,10 @@
         <v>1</v>
       </c>
       <c r="M105" t="inlineStr"/>
-      <c r="N105" t="n">
-        <v>10</v>
+      <c r="N105" t="inlineStr">
+        <is>
+          <t>heal | WHEN:move:MOVE_USER | reduce_token,arousal,2</t>
+        </is>
       </c>
       <c r="O105" t="inlineStr">
         <is>
@@ -5730,8 +5922,10 @@
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
       <c r="M106" t="inlineStr"/>
-      <c r="N106" t="n">
-        <v>20</v>
+      <c r="N106" t="inlineStr">
+        <is>
+          <t>WHEN:move:MOVE_USER | move_front,3 | WHEN:move:HIT_TARGETS | move_back,1</t>
+        </is>
       </c>
       <c r="O106" t="inlineStr">
         <is>
@@ -5777,9 +5971,7 @@
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
       <c r="M107" t="inlineStr"/>
-      <c r="N107" t="n">
-        <v>10</v>
-      </c>
+      <c r="N107" t="inlineStr"/>
       <c r="O107" t="inlineStr">
         <is>
           <t>headbutt</t>
@@ -5824,8 +6016,10 @@
         <v>1</v>
       </c>
       <c r="M108" t="inlineStr"/>
-      <c r="N108" t="n">
-        <v>10</v>
+      <c r="N108" t="inlineStr">
+        <is>
+          <t>WHEN:move:MOVE_USER | move_back,1 | add_token,block,2</t>
+        </is>
       </c>
       <c r="O108" t="inlineStr">
         <is>
@@ -5873,8 +6067,10 @@
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
       <c r="M109" t="inlineStr"/>
-      <c r="N109" t="n">
-        <v>10</v>
+      <c r="N109" t="inlineStr">
+        <is>
+          <t>WHEN:move:HIT_TARGETS | add_dot,bleed,1</t>
+        </is>
       </c>
       <c r="O109" t="inlineStr">
         <is>
@@ -5920,8 +6116,10 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
-      <c r="N110" t="n">
-        <v>5</v>
+      <c r="N110" t="inlineStr">
+        <is>
+          <t>WHEN:move:MOVE_USER | set_temporary_role,feral | set_token,wildshape,1</t>
+        </is>
       </c>
       <c r="O110" t="inlineStr">
         <is>
@@ -5973,8 +6171,10 @@
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
       <c r="M111" t="inlineStr"/>
-      <c r="N111" t="n">
-        <v>10</v>
+      <c r="N111" t="inlineStr">
+        <is>
+          <t>WHEN:move:HIT_TARGETS | add_dot,bleed,1</t>
+        </is>
       </c>
       <c r="O111" t="inlineStr">
         <is>
@@ -6022,8 +6222,10 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
-      <c r="N112" t="n">
-        <v>10</v>
+      <c r="N112" t="inlineStr">
+        <is>
+          <t>WHEN:move:HIT_TARGETS | drain_experience,25</t>
+        </is>
       </c>
       <c r="O112" t="inlineStr">
         <is>
@@ -6067,8 +6269,10 @@
         <v>1</v>
       </c>
       <c r="M113" t="inlineStr"/>
-      <c r="N113" t="n">
-        <v>10</v>
+      <c r="N113" t="inlineStr">
+        <is>
+          <t>WHEN:move:MOVE_USER | add_token,strength,1</t>
+        </is>
       </c>
       <c r="O113" t="inlineStr">
         <is>
@@ -6114,8 +6318,10 @@
         <v>1</v>
       </c>
       <c r="M114" t="inlineStr"/>
-      <c r="N114" t="n">
-        <v>5</v>
+      <c r="N114" t="inlineStr">
+        <is>
+          <t>charge,10 | WHEN:move:HIT_TARGETS | add_token,petrification,3</t>
+        </is>
       </c>
       <c r="O114" t="inlineStr">
         <is>
@@ -6163,8 +6369,10 @@
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
       <c r="M115" t="inlineStr"/>
-      <c r="N115" t="n">
-        <v>10</v>
+      <c r="N115" t="inlineStr">
+        <is>
+          <t>WHEN:move:HIT_TARGETS | add_dot,poison,1</t>
+        </is>
       </c>
       <c r="O115" t="inlineStr">
         <is>
@@ -6212,8 +6420,10 @@
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
-      <c r="N116" t="n">
-        <v>10</v>
+      <c r="N116" t="inlineStr">
+        <is>
+          <t>WHEN:move:HIT_TARGETS | IF:is_critical | disrupt</t>
+        </is>
       </c>
       <c r="O116" t="inlineStr">
         <is>
@@ -6263,8 +6473,10 @@
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
-      <c r="N117" t="n">
-        <v>10</v>
+      <c r="N117" t="inlineStr">
+        <is>
+          <t>WHEN:move:HIT_TARGETS | add_dot,fire,1</t>
+        </is>
       </c>
       <c r="O117" t="inlineStr">
         <is>
@@ -6314,8 +6526,10 @@
         <v>1</v>
       </c>
       <c r="M118" t="inlineStr"/>
-      <c r="N118" t="n">
-        <v>10</v>
+      <c r="N118" t="inlineStr">
+        <is>
+          <t>heal | WHEN:move:HIT_TARGETS | reduce_dot,poison,3</t>
+        </is>
       </c>
       <c r="O118" t="inlineStr">
         <is>
@@ -6363,8 +6577,10 @@
         <v>1</v>
       </c>
       <c r="M119" t="inlineStr"/>
-      <c r="N119" t="n">
-        <v>5</v>
+      <c r="N119" t="inlineStr">
+        <is>
+          <t>charge,10 | FOR:token,strength | damage_bonus,2</t>
+        </is>
       </c>
       <c r="O119" t="inlineStr">
         <is>
@@ -6414,8 +6630,10 @@
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
       <c r="M120" t="inlineStr"/>
-      <c r="N120" t="n">
-        <v>10</v>
+      <c r="N120" t="inlineStr">
+        <is>
+          <t>WHEN:move:HIT_TARGETS | add_token,taunt,2</t>
+        </is>
       </c>
       <c r="O120" t="inlineStr">
         <is>
@@ -6463,8 +6681,10 @@
         <v>1</v>
       </c>
       <c r="M121" t="inlineStr"/>
-      <c r="N121" t="n">
-        <v>10</v>
+      <c r="N121" t="inlineStr">
+        <is>
+          <t>ignore_tokens,block | WHEN:move:HIT_TARGETS | reduce_token,block,1</t>
+        </is>
       </c>
       <c r="O121" t="inlineStr">
         <is>
@@ -6518,8 +6738,10 @@
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
       <c r="M122" t="inlineStr"/>
-      <c r="N122" t="n">
-        <v>10</v>
+      <c r="N122" t="inlineStr">
+        <is>
+          <t>WHEN:move:HIT_TARGETS | add_token,weak,1 | add_dot,poison,1</t>
+        </is>
       </c>
       <c r="O122" t="inlineStr">
         <is>
@@ -6569,9 +6791,7 @@
         <v>1</v>
       </c>
       <c r="M123" t="inlineStr"/>
-      <c r="N123" t="n">
-        <v>5</v>
-      </c>
+      <c r="N123" t="inlineStr"/>
       <c r="O123" t="inlineStr">
         <is>
           <t>quickshot</t>
@@ -6616,8 +6836,10 @@
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
       <c r="M124" t="inlineStr"/>
-      <c r="N124" t="n">
-        <v>5</v>
+      <c r="N124" t="inlineStr">
+        <is>
+          <t>WHEN:move:MOVE_USER | move_back,1</t>
+        </is>
       </c>
       <c r="O124" t="inlineStr">
         <is>
@@ -6667,9 +6889,7 @@
         <v>1</v>
       </c>
       <c r="M125" t="inlineStr"/>
-      <c r="N125" t="n">
-        <v>10</v>
-      </c>
+      <c r="N125" t="inlineStr"/>
       <c r="O125" t="inlineStr">
         <is>
           <t>suppressing_fire</t>
@@ -6712,8 +6932,10 @@
         <v>1</v>
       </c>
       <c r="M126" t="inlineStr"/>
-      <c r="N126" t="n">
-        <v>10</v>
+      <c r="N126" t="inlineStr">
+        <is>
+          <t>charge,5 | WHEN:move:HIT_TARGETS | add_token,taunt,2 | ENDWHEN | WHEN:move:MOVE_USER | add_token,strength,2</t>
+        </is>
       </c>
       <c r="O126" t="inlineStr">
         <is>
@@ -6759,8 +6981,10 @@
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
       <c r="M127" t="inlineStr"/>
-      <c r="N127" t="n">
-        <v>10</v>
+      <c r="N127" t="inlineStr">
+        <is>
+          <t>recoil,3 | WHEN:move:MOVE_USER | move_front,3</t>
+        </is>
       </c>
       <c r="O127" t="inlineStr">
         <is>
@@ -6814,8 +7038,10 @@
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
       <c r="M128" t="inlineStr"/>
-      <c r="N128" t="n">
-        <v>10</v>
+      <c r="N128" t="inlineStr">
+        <is>
+          <t>recoil,1 | WHEN:move:MOVE_USER | move_front,1</t>
+        </is>
       </c>
       <c r="O128" t="inlineStr">
         <is>
@@ -6871,9 +7097,7 @@
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
       <c r="M129" t="inlineStr"/>
-      <c r="N129" t="n">
-        <v>10</v>
-      </c>
+      <c r="N129" t="inlineStr"/>
       <c r="O129" t="inlineStr">
         <is>
           <t>punch</t>
@@ -6916,8 +7140,10 @@
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
       <c r="M130" t="inlineStr"/>
-      <c r="N130" t="n">
-        <v>5</v>
+      <c r="N130" t="inlineStr">
+        <is>
+          <t>WHEN:move:HIT_TARGETS | add_token,confusion,1</t>
+        </is>
       </c>
       <c r="O130" t="inlineStr">
         <is>
@@ -6961,8 +7187,10 @@
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
       <c r="M131" t="inlineStr"/>
-      <c r="N131" t="n">
-        <v>10</v>
+      <c r="N131" t="inlineStr">
+        <is>
+          <t>WHEN:move:HIT_TARGETS | disrupt</t>
+        </is>
       </c>
       <c r="O131" t="inlineStr">
         <is>
@@ -7006,8 +7234,10 @@
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr"/>
       <c r="M132" t="inlineStr"/>
-      <c r="N132" t="n">
-        <v>10</v>
+      <c r="N132" t="inlineStr">
+        <is>
+          <t>WHEN:move:HIT_TARGETS | move_back,1 | add_token,confusion,2</t>
+        </is>
       </c>
       <c r="O132" t="inlineStr">
         <is>
@@ -7053,8 +7283,10 @@
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
       <c r="M133" t="inlineStr"/>
-      <c r="N133" t="n">
-        <v>10</v>
+      <c r="N133" t="inlineStr">
+        <is>
+          <t>charge,10 | FOR:token,strength | damage_bonus,2 | ENDFOR | WHEN:move:MOVE_USER | clear_tokens,strength | move_front,3 | WHEN:move:HIT_TARGETS | move_back,1</t>
+        </is>
       </c>
       <c r="O133" t="inlineStr">
         <is>
@@ -7104,9 +7336,7 @@
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr"/>
       <c r="M134" t="inlineStr"/>
-      <c r="N134" t="n">
-        <v>10</v>
-      </c>
+      <c r="N134" t="inlineStr"/>
       <c r="O134" t="inlineStr">
         <is>
           <t>countercharge</t>
@@ -7157,8 +7387,10 @@
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr"/>
       <c r="M135" t="inlineStr"/>
-      <c r="N135" t="n">
-        <v>10</v>
+      <c r="N135" t="inlineStr">
+        <is>
+          <t>ignore_tokens,block | WHEN:move:MOVE_USER | reduce_token,strength,3</t>
+        </is>
       </c>
       <c r="O135" t="inlineStr">
         <is>
@@ -7210,8 +7442,10 @@
         <v>1</v>
       </c>
       <c r="M136" t="inlineStr"/>
-      <c r="N136" t="n">
-        <v>2</v>
+      <c r="N136" t="inlineStr">
+        <is>
+          <t>charge,5 | WHEN:move:MOVE_USER | add_token,strength,3</t>
+        </is>
       </c>
       <c r="O136" t="inlineStr">
         <is>
@@ -7255,8 +7489,10 @@
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr"/>
       <c r="M137" t="inlineStr"/>
-      <c r="N137" t="n">
-        <v>5</v>
+      <c r="N137" t="inlineStr">
+        <is>
+          <t>WHEN:move:MOVE_USER | move_back,1</t>
+        </is>
       </c>
       <c r="O137" t="inlineStr">
         <is>
@@ -7300,8 +7536,10 @@
       <c r="M138" t="n">
         <v>1</v>
       </c>
-      <c r="N138" t="n">
-        <v>20</v>
+      <c r="N138" t="inlineStr">
+        <is>
+          <t>heal | WHEN:move:MOVE_USER | add_token,block,3</t>
+        </is>
       </c>
       <c r="O138" t="inlineStr">
         <is>
@@ -7351,8 +7589,10 @@
         <v>1</v>
       </c>
       <c r="M139" t="inlineStr"/>
-      <c r="N139" t="n">
-        <v>10</v>
+      <c r="N139" t="inlineStr">
+        <is>
+          <t>heal | WHEN:move:ALLY_TARGETS | reduce_negative_token,2</t>
+        </is>
       </c>
       <c r="O139" t="inlineStr">
         <is>
@@ -7402,8 +7642,10 @@
         <v>1</v>
       </c>
       <c r="M140" t="inlineStr"/>
-      <c r="N140" t="n">
-        <v>10</v>
+      <c r="N140" t="inlineStr">
+        <is>
+          <t>WHEN:move:ALLY_TARGETS | reduce_token,taunt,2</t>
+        </is>
       </c>
       <c r="O140" t="inlineStr">
         <is>
@@ -7451,8 +7693,10 @@
       <c r="M141" t="n">
         <v>1</v>
       </c>
-      <c r="N141" t="n">
-        <v>5</v>
+      <c r="N141" t="inlineStr">
+        <is>
+          <t>WHEN:move:ALLY_TARGETS | lust_damage,10 | add_token,strength,3 | add_token,arousal,2 | IF:is_critical | add_dot,regen,2</t>
+        </is>
       </c>
       <c r="O141" t="inlineStr">
         <is>
@@ -7500,8 +7744,10 @@
       <c r="M142" t="n">
         <v>1</v>
       </c>
-      <c r="N142" t="n">
-        <v>10</v>
+      <c r="N142" t="inlineStr">
+        <is>
+          <t>heal | WHEN:move:MOVE_USER | move_front,1 | add_token,vuln,2</t>
+        </is>
       </c>
       <c r="O142" t="inlineStr">
         <is>
@@ -7551,8 +7797,10 @@
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr"/>
       <c r="M143" t="inlineStr"/>
-      <c r="N143" t="n">
-        <v>5</v>
+      <c r="N143" t="inlineStr">
+        <is>
+          <t>charge,10 | WHEN:move:HIT_TARGETS | reduce_positive_token,2</t>
+        </is>
       </c>
       <c r="O143" t="inlineStr">
         <is>
@@ -7600,8 +7848,10 @@
       <c r="M144" t="n">
         <v>1</v>
       </c>
-      <c r="N144" t="n">
-        <v>25</v>
+      <c r="N144" t="inlineStr">
+        <is>
+          <t>WHEN:move:HIT_TARGETS | add_token,arousal,5 | WHEN:move:MOVE_USER | add_token,afterglow,5 | add_lust,-80</t>
+        </is>
       </c>
       <c r="O144" t="inlineStr">
         <is>
@@ -7651,8 +7901,10 @@
       <c r="M145" t="n">
         <v>1</v>
       </c>
-      <c r="N145" t="n">
-        <v>10</v>
+      <c r="N145" t="inlineStr">
+        <is>
+          <t>heal | WHEN:move:MOVE_USER | lust_damage,15</t>
+        </is>
       </c>
       <c r="O145" t="inlineStr">
         <is>
@@ -7698,8 +7950,10 @@
       <c r="M146" t="n">
         <v>1</v>
       </c>
-      <c r="N146" t="n">
-        <v>10</v>
+      <c r="N146" t="inlineStr">
+        <is>
+          <t>heal | WHEN:move:MOVE_USER | add_lust,-20</t>
+        </is>
       </c>
       <c r="O146" t="inlineStr">
         <is>
@@ -7743,8 +7997,10 @@
       </c>
       <c r="L147" t="inlineStr"/>
       <c r="M147" t="inlineStr"/>
-      <c r="N147" t="n">
-        <v>10</v>
+      <c r="N147" t="inlineStr">
+        <is>
+          <t>WHEN:move:HIT_TARGETS | add_token,weak,2</t>
+        </is>
       </c>
       <c r="O147" t="inlineStr">
         <is>
@@ -7790,8 +8046,10 @@
         <v>1</v>
       </c>
       <c r="M148" t="inlineStr"/>
-      <c r="N148" t="n">
-        <v>10</v>
+      <c r="N148" t="inlineStr">
+        <is>
+          <t>WHEN:move:MOVE_USER | add_token,block,2 | reduce_token,taunt,2 | move_back,1</t>
+        </is>
       </c>
       <c r="O148" t="inlineStr">
         <is>
@@ -7841,8 +8099,10 @@
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr"/>
       <c r="M149" t="inlineStr"/>
-      <c r="N149" t="n">
-        <v>10</v>
+      <c r="N149" t="inlineStr">
+        <is>
+          <t>FOR:token,vuln | damage_bonus,3</t>
+        </is>
       </c>
       <c r="O149" t="inlineStr">
         <is>
@@ -7890,8 +8150,10 @@
       <c r="M150" t="n">
         <v>1</v>
       </c>
-      <c r="N150" t="n">
-        <v>5</v>
+      <c r="N150" t="inlineStr">
+        <is>
+          <t>charge,5 | FOR:token,arousal | damage_bonus,2</t>
+        </is>
       </c>
       <c r="O150" t="inlineStr">
         <is>
@@ -7939,8 +8201,10 @@
       <c r="M151" t="n">
         <v>1</v>
       </c>
-      <c r="N151" t="n">
-        <v>10</v>
+      <c r="N151" t="inlineStr">
+        <is>
+          <t>WHEN:move:MOVE_USER | add_token,shield,2 | add_token,arousal,2</t>
+        </is>
       </c>
       <c r="O151" t="inlineStr">
         <is>
@@ -7984,8 +8248,10 @@
         <v>1</v>
       </c>
       <c r="M152" t="inlineStr"/>
-      <c r="N152" t="n">
-        <v>5</v>
+      <c r="N152" t="inlineStr">
+        <is>
+          <t>charge,10 | WHEN:move:HIT_TARGETS | equip_wearables,latex_gag</t>
+        </is>
       </c>
       <c r="O152" t="inlineStr">
         <is>
@@ -8033,8 +8299,10 @@
         <v>1</v>
       </c>
       <c r="M153" t="inlineStr"/>
-      <c r="N153" t="n">
-        <v>5</v>
+      <c r="N153" t="inlineStr">
+        <is>
+          <t>charge,10 | WHEN:move:HIT_TARGETS | equip_wearables,latex_bodysuit</t>
+        </is>
       </c>
       <c r="O153" t="inlineStr">
         <is>
@@ -8086,8 +8354,10 @@
         <v>1</v>
       </c>
       <c r="M154" t="inlineStr"/>
-      <c r="N154" t="n">
-        <v>15</v>
+      <c r="N154" t="inlineStr">
+        <is>
+          <t>heal | FOR:TARGET:wearables_with_goods,latex | heal_damage,2 | ENDFOR | WHEN:move:HIT_TARGETS | remove_wearables_with_good,latex</t>
+        </is>
       </c>
       <c r="O154" t="inlineStr">
         <is>
@@ -8137,8 +8407,10 @@
         <v>1</v>
       </c>
       <c r="M155" t="inlineStr"/>
-      <c r="N155" t="n">
-        <v>10</v>
+      <c r="N155" t="inlineStr">
+        <is>
+          <t>WHEN:move:MOVE_USER | add_token,block,2</t>
+        </is>
       </c>
       <c r="O155" t="inlineStr">
         <is>
@@ -8186,8 +8458,10 @@
         <v>1</v>
       </c>
       <c r="M156" t="inlineStr"/>
-      <c r="N156" t="n">
-        <v>15</v>
+      <c r="N156" t="inlineStr">
+        <is>
+          <t>FOR:TARGET:wearables_with_goods,latex | damage_bonus,2</t>
+        </is>
       </c>
       <c r="O156" t="inlineStr">
         <is>
@@ -8235,8 +8509,10 @@
         <v>1</v>
       </c>
       <c r="M157" t="inlineStr"/>
-      <c r="N157" t="n">
-        <v>10</v>
+      <c r="N157" t="inlineStr">
+        <is>
+          <t>charge,5 | WHEN:move:HIT_TARGETS | add_token,latex_entangle,1</t>
+        </is>
       </c>
       <c r="O157" t="inlineStr">
         <is>
@@ -8282,8 +8558,10 @@
       <c r="M158" t="n">
         <v>1</v>
       </c>
-      <c r="N158" t="n">
-        <v>10</v>
+      <c r="N158" t="inlineStr">
+        <is>
+          <t>WHEN:move:HIT_TARGETS | disrupt | lust_damage,10 | IF:is_critical: | lust_damage,10</t>
+        </is>
       </c>
       <c r="O158" t="inlineStr">
         <is>
@@ -8329,8 +8607,10 @@
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr"/>
       <c r="M159" t="inlineStr"/>
-      <c r="N159" t="n">
-        <v>50</v>
+      <c r="N159" t="inlineStr">
+        <is>
+          <t>WHEN:move:MOVE_USER | die</t>
+        </is>
       </c>
       <c r="O159" t="inlineStr">
         <is>
@@ -8382,8 +8662,10 @@
       <c r="M160" t="n">
         <v>1</v>
       </c>
-      <c r="N160" t="n">
-        <v>10</v>
+      <c r="N160" t="inlineStr">
+        <is>
+          <t>WHEN:move:HIT_TARGETS | lust_damage,10 | IF:is_critical | disrupt | ENDIF | WHEN:move:MOVE_USER | add_token,milk,3 | IF:is_critical | add_token,milk,5</t>
+        </is>
       </c>
       <c r="O160" t="inlineStr">
         <is>
@@ -8435,8 +8717,10 @@
       <c r="M161" t="n">
         <v>1</v>
       </c>
-      <c r="N161" t="n">
-        <v>12</v>
+      <c r="N161" t="inlineStr">
+        <is>
+          <t>FOR:token,milk | damage_bonus,2</t>
+        </is>
       </c>
       <c r="O161" t="inlineStr">
         <is>
@@ -8488,8 +8772,10 @@
       <c r="M162" t="n">
         <v>1</v>
       </c>
-      <c r="N162" t="n">
-        <v>5</v>
+      <c r="N162" t="inlineStr">
+        <is>
+          <t>heal | charge,8 | FOR:token,milk | heal_damage,2</t>
+        </is>
       </c>
       <c r="O162" t="inlineStr">
         <is>
@@ -8535,8 +8821,10 @@
       <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr"/>
       <c r="M163" t="inlineStr"/>
-      <c r="N163" t="n">
-        <v>10</v>
+      <c r="N163" t="inlineStr">
+        <is>
+          <t>WHEN:move:HIT_TARGETS | IF:is_critical | reduce_token,block,2</t>
+        </is>
       </c>
       <c r="O163" t="inlineStr">
         <is>
@@ -8580,8 +8868,10 @@
         <v>1</v>
       </c>
       <c r="M164" t="inlineStr"/>
-      <c r="N164" t="n">
-        <v>10</v>
+      <c r="N164" t="inlineStr">
+        <is>
+          <t>WHEN:move:MOVE_USER | add_token,milk,3 | IF:is_critical | add_token,milk,3</t>
+        </is>
       </c>
       <c r="O164" t="inlineStr">
         <is>
@@ -8625,8 +8915,10 @@
         <v>1</v>
       </c>
       <c r="M165" t="inlineStr"/>
-      <c r="N165" t="n">
-        <v>10</v>
+      <c r="N165" t="inlineStr">
+        <is>
+          <t>WHEN:move:MOVE_USER | add_token,block,2</t>
+        </is>
       </c>
       <c r="O165" t="inlineStr">
         <is>
@@ -8674,8 +8966,10 @@
       <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr"/>
       <c r="M166" t="inlineStr"/>
-      <c r="N166" t="n">
-        <v>10</v>
+      <c r="N166" t="inlineStr">
+        <is>
+          <t>WHEN:move:HIT_TARGETS | unequip_wearable_in_slot,top,bottom,corset | reduce_token,block,3 | reduce_token,block,3</t>
+        </is>
       </c>
       <c r="O166" t="inlineStr">
         <is>
@@ -8729,8 +9023,10 @@
       <c r="K167" t="inlineStr"/>
       <c r="L167" t="inlineStr"/>
       <c r="M167" t="inlineStr"/>
-      <c r="N167" t="n">
-        <v>10</v>
+      <c r="N167" t="inlineStr">
+        <is>
+          <t>charge,5 | WHEN:move:MOVE_USER | add_token,block,2</t>
+        </is>
       </c>
       <c r="O167" t="inlineStr">
         <is>
@@ -8778,8 +9074,10 @@
         <v>1</v>
       </c>
       <c r="M168" t="inlineStr"/>
-      <c r="N168" t="n">
-        <v>5</v>
+      <c r="N168" t="inlineStr">
+        <is>
+          <t>charge,10 | WHEN:move:MOVE_USER | add_token,riposte,2</t>
+        </is>
       </c>
       <c r="O168" t="inlineStr">
         <is>
@@ -8827,8 +9125,10 @@
       <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr"/>
       <c r="M169" t="inlineStr"/>
-      <c r="N169" t="n">
-        <v>10</v>
+      <c r="N169" t="inlineStr">
+        <is>
+          <t>WHEN:move:HIT_TARGETS | add_dot,bleed,1</t>
+        </is>
       </c>
       <c r="O169" t="inlineStr">
         <is>
@@ -8878,8 +9178,10 @@
       <c r="M170" t="n">
         <v>1</v>
       </c>
-      <c r="N170" t="n">
-        <v>10</v>
+      <c r="N170" t="inlineStr">
+        <is>
+          <t>charge,5 | WHEN:move:HIT_TARGETS | IF:is_critical | disrupt</t>
+        </is>
       </c>
       <c r="O170" t="inlineStr">
         <is>
@@ -8927,8 +9229,10 @@
       <c r="M171" t="n">
         <v>1</v>
       </c>
-      <c r="N171" t="n">
-        <v>10</v>
+      <c r="N171" t="inlineStr">
+        <is>
+          <t>leech,50 | WHEN:move:HIT_TARGETS | reduce_token,web,5</t>
+        </is>
       </c>
       <c r="O171" t="inlineStr">
         <is>
@@ -8982,8 +9286,10 @@
       <c r="M172" t="n">
         <v>1</v>
       </c>
-      <c r="N172" t="n">
-        <v>5</v>
+      <c r="N172" t="inlineStr">
+        <is>
+          <t>charge,15 | WHEN:move:ALLY_TARGETS | add_token,block,2</t>
+        </is>
       </c>
       <c r="O172" t="inlineStr">
         <is>
@@ -9031,8 +9337,10 @@
       <c r="M173" t="n">
         <v>1</v>
       </c>
-      <c r="N173" t="n">
-        <v>5</v>
+      <c r="N173" t="inlineStr">
+        <is>
+          <t>charge,5 | WHEN:move:HIT_TARGETS | add_token,weak,2</t>
+        </is>
       </c>
       <c r="O173" t="inlineStr">
         <is>
@@ -9080,8 +9388,10 @@
       <c r="M174" t="n">
         <v>1</v>
       </c>
-      <c r="N174" t="n">
-        <v>5</v>
+      <c r="N174" t="inlineStr">
+        <is>
+          <t>charge,10 | WHEN:move:HIT_TARGETS | add_token,web,3</t>
+        </is>
       </c>
       <c r="O174" t="inlineStr">
         <is>
@@ -9131,8 +9441,10 @@
       <c r="M175" t="n">
         <v>1</v>
       </c>
-      <c r="N175" t="n">
-        <v>5</v>
+      <c r="N175" t="inlineStr">
+        <is>
+          <t>charge,20 | WHEN:move:HIT_TARGETS | add_token,web,2</t>
+        </is>
       </c>
       <c r="O175" t="inlineStr">
         <is>
@@ -9180,8 +9492,10 @@
       <c r="K176" t="inlineStr"/>
       <c r="L176" t="inlineStr"/>
       <c r="M176" t="inlineStr"/>
-      <c r="N176" t="n">
-        <v>10</v>
+      <c r="N176" t="inlineStr">
+        <is>
+          <t>WHEN:move:HIT_TARGETS | add_token,arousal,3</t>
+        </is>
       </c>
       <c r="O176" t="inlineStr">
         <is>
@@ -9229,8 +9543,10 @@
       <c r="K177" t="inlineStr"/>
       <c r="L177" t="inlineStr"/>
       <c r="M177" t="inlineStr"/>
-      <c r="N177" t="n">
-        <v>10</v>
+      <c r="N177" t="inlineStr">
+        <is>
+          <t>heal | WHEN:move:HIT_TARGETS | add_token,drunk,3</t>
+        </is>
       </c>
       <c r="O177" t="inlineStr">
         <is>
@@ -9278,8 +9594,10 @@
       <c r="K178" t="inlineStr"/>
       <c r="L178" t="inlineStr"/>
       <c r="M178" t="inlineStr"/>
-      <c r="N178" t="n">
-        <v>5</v>
+      <c r="N178" t="inlineStr">
+        <is>
+          <t>WHEN:move:HIT_TARGETS | reduce_token,arousal,3</t>
+        </is>
       </c>
       <c r="O178" t="inlineStr">
         <is>
@@ -9327,8 +9645,10 @@
       <c r="K179" t="inlineStr"/>
       <c r="L179" t="inlineStr"/>
       <c r="M179" t="inlineStr"/>
-      <c r="N179" t="n">
-        <v>10</v>
+      <c r="N179" t="inlineStr">
+        <is>
+          <t>charge,10 | WHEN:move:HIT_TARGETS | add_token,strength,1</t>
+        </is>
       </c>
       <c r="O179" t="inlineStr">
         <is>
@@ -9376,8 +9696,10 @@
       <c r="K180" t="inlineStr"/>
       <c r="L180" t="inlineStr"/>
       <c r="M180" t="inlineStr"/>
-      <c r="N180" t="n">
-        <v>10</v>
+      <c r="N180" t="inlineStr">
+        <is>
+          <t>heal | WHEN:move:HIT_TARGETS | add_token,drunk,3 | add_token,block,2</t>
+        </is>
       </c>
       <c r="O180" t="inlineStr">
         <is>
@@ -9429,8 +9751,10 @@
       <c r="K181" t="inlineStr"/>
       <c r="L181" t="inlineStr"/>
       <c r="M181" t="inlineStr"/>
-      <c r="N181" t="n">
-        <v>5</v>
+      <c r="N181" t="inlineStr">
+        <is>
+          <t>heal | WHEN:move:ALLY_TARGETS | reduce_dot,bleed,3</t>
+        </is>
       </c>
       <c r="O181" t="inlineStr">
         <is>
@@ -9484,8 +9808,10 @@
         <v>1</v>
       </c>
       <c r="M182" t="inlineStr"/>
-      <c r="N182" t="n">
-        <v>5</v>
+      <c r="N182" t="inlineStr">
+        <is>
+          <t>charge,5 | WHEN:move:HIT_TARGETS | reduce_token,strength,3</t>
+        </is>
       </c>
       <c r="O182" t="inlineStr">
         <is>
@@ -9531,8 +9857,10 @@
         <v>1</v>
       </c>
       <c r="M183" t="inlineStr"/>
-      <c r="N183" t="n">
-        <v>5</v>
+      <c r="N183" t="inlineStr">
+        <is>
+          <t>charge,15 | WHEN:move:HIT_TARGETS | equip_wearables,wool_blindfold</t>
+        </is>
       </c>
       <c r="O183" t="inlineStr">
         <is>
@@ -9578,8 +9906,10 @@
         <v>1</v>
       </c>
       <c r="M184" t="inlineStr"/>
-      <c r="N184" t="n">
-        <v>5</v>
+      <c r="N184" t="inlineStr">
+        <is>
+          <t>charge,10 | WHEN:move:HIT_TARGETS | equip_wearables,mittens_2</t>
+        </is>
       </c>
       <c r="O184" t="inlineStr">
         <is>
@@ -9625,8 +9955,10 @@
         <v>1</v>
       </c>
       <c r="M185" t="inlineStr"/>
-      <c r="N185" t="n">
-        <v>5</v>
+      <c r="N185" t="inlineStr">
+        <is>
+          <t>charge,15 | WHEN:move:HIT_TARGETS | equip_wearables,wool_sweater</t>
+        </is>
       </c>
       <c r="O185" t="inlineStr">
         <is>
@@ -9666,8 +9998,10 @@
         <v>1</v>
       </c>
       <c r="M186" t="inlineStr"/>
-      <c r="N186" t="n">
-        <v>5</v>
+      <c r="N186" t="inlineStr">
+        <is>
+          <t>heal | WHEN:move:SELF | unequip_wearable,apple_gag</t>
+        </is>
       </c>
       <c r="O186" t="inlineStr">
         <is>
@@ -9707,9 +10041,7 @@
       <c r="K187" t="inlineStr"/>
       <c r="L187" t="inlineStr"/>
       <c r="M187" t="inlineStr"/>
-      <c r="N187" t="n">
-        <v>10</v>
-      </c>
+      <c r="N187" t="inlineStr"/>
       <c r="O187" t="inlineStr">
         <is>
           <t>blinded</t>
@@ -9748,8 +10080,10 @@
       <c r="M188" t="n">
         <v>1</v>
       </c>
-      <c r="N188" t="n">
-        <v>15</v>
+      <c r="N188" t="inlineStr">
+        <is>
+          <t>WHEN:move:SELF | add_lust,-20</t>
+        </is>
       </c>
       <c r="O188" t="inlineStr">
         <is>
@@ -9787,8 +10121,10 @@
       <c r="K189" t="inlineStr"/>
       <c r="L189" t="inlineStr"/>
       <c r="M189" t="inlineStr"/>
-      <c r="N189" t="n">
-        <v>10</v>
+      <c r="N189" t="inlineStr">
+        <is>
+          <t>heal | WHEN:move:SELF | lust_damage,10</t>
+        </is>
       </c>
       <c r="O189" t="inlineStr">
         <is>
@@ -9832,8 +10168,10 @@
       <c r="K190" t="inlineStr"/>
       <c r="L190" t="inlineStr"/>
       <c r="M190" t="inlineStr"/>
-      <c r="N190" t="n">
-        <v>10</v>
+      <c r="N190" t="inlineStr">
+        <is>
+          <t>WHEN:move:HIT_TARGETS | add_lust,5</t>
+        </is>
       </c>
       <c r="O190" t="inlineStr">
         <is>
@@ -9871,8 +10209,10 @@
       <c r="K191" t="inlineStr"/>
       <c r="L191" t="inlineStr"/>
       <c r="M191" t="inlineStr"/>
-      <c r="N191" t="n">
-        <v>10</v>
+      <c r="N191" t="inlineStr">
+        <is>
+          <t>WHEN:move | equip_wearables,latex_gag,latex_muzzle,latex_blindfold,latex_hood,latex_bodysuit,latex_pasties,latex_heels,latex_armbinder | IF:chance,40 | reduce_token,latex_entangle,5 | ENDIF | move_back,1</t>
+        </is>
       </c>
       <c r="O191" t="inlineStr">
         <is>
@@ -9910,8 +10250,10 @@
       <c r="K192" t="inlineStr"/>
       <c r="L192" t="inlineStr"/>
       <c r="M192" t="inlineStr"/>
-      <c r="N192" t="n">
-        <v>5</v>
+      <c r="N192" t="inlineStr">
+        <is>
+          <t>WHEN:move:SELF | lust_damage,10</t>
+        </is>
       </c>
       <c r="O192" t="inlineStr">
         <is>
@@ -9949,9 +10291,7 @@
       <c r="K193" t="inlineStr"/>
       <c r="L193" t="inlineStr"/>
       <c r="M193" t="inlineStr"/>
-      <c r="N193" t="n">
-        <v>10</v>
-      </c>
+      <c r="N193" t="inlineStr"/>
       <c r="O193" t="inlineStr">
         <is>
           <t>mumble</t>
@@ -9988,8 +10328,10 @@
       <c r="K194" t="inlineStr"/>
       <c r="L194" t="inlineStr"/>
       <c r="M194" t="inlineStr"/>
-      <c r="N194" t="n">
-        <v>10</v>
+      <c r="N194" t="inlineStr">
+        <is>
+          <t>WHEN:move:SELF | add_lust,-80 | add_token,afterglow,5</t>
+        </is>
       </c>
       <c r="O194" t="inlineStr">
         <is>
@@ -10027,8 +10369,10 @@
       <c r="K195" t="inlineStr"/>
       <c r="L195" t="inlineStr"/>
       <c r="M195" t="inlineStr"/>
-      <c r="N195" t="n">
-        <v>10</v>
+      <c r="N195" t="inlineStr">
+        <is>
+          <t>WHEN:move | move_back,1</t>
+        </is>
       </c>
       <c r="O195" t="inlineStr">
         <is>
@@ -10066,9 +10410,7 @@
       <c r="K196" t="inlineStr"/>
       <c r="L196" t="inlineStr"/>
       <c r="M196" t="inlineStr"/>
-      <c r="N196" t="n">
-        <v>10</v>
-      </c>
+      <c r="N196" t="inlineStr"/>
       <c r="O196" t="inlineStr">
         <is>
           <t>stumble</t>
@@ -10107,8 +10449,10 @@
       </c>
       <c r="L197" t="inlineStr"/>
       <c r="M197" t="inlineStr"/>
-      <c r="N197" t="n">
-        <v>10</v>
+      <c r="N197" t="inlineStr">
+        <is>
+          <t>heal</t>
+        </is>
       </c>
       <c r="O197" t="inlineStr">
         <is>
@@ -10146,9 +10490,7 @@
       <c r="K198" t="inlineStr"/>
       <c r="L198" t="inlineStr"/>
       <c r="M198" t="inlineStr"/>
-      <c r="N198" t="n">
-        <v>10</v>
-      </c>
+      <c r="N198" t="inlineStr"/>
       <c r="O198" t="inlineStr">
         <is>
           <t>disobey</t>
@@ -10185,9 +10527,7 @@
       <c r="K199" t="inlineStr"/>
       <c r="L199" t="inlineStr"/>
       <c r="M199" t="inlineStr"/>
-      <c r="N199" t="n">
-        <v>10</v>
-      </c>
+      <c r="N199" t="inlineStr"/>
       <c r="O199" t="inlineStr">
         <is>
           <t>grovel</t>
@@ -10226,8 +10566,10 @@
       <c r="K200" t="inlineStr"/>
       <c r="L200" t="inlineStr"/>
       <c r="M200" t="inlineStr"/>
-      <c r="N200" t="n">
-        <v>10</v>
+      <c r="N200" t="inlineStr">
+        <is>
+          <t>WHEN:move:MOVE_USER | move_back,1</t>
+        </is>
       </c>
       <c r="O200" t="inlineStr">
         <is>
@@ -10267,8 +10609,10 @@
       <c r="K201" t="inlineStr"/>
       <c r="L201" t="inlineStr"/>
       <c r="M201" t="inlineStr"/>
-      <c r="N201" t="n">
-        <v>10</v>
+      <c r="N201" t="inlineStr">
+        <is>
+          <t>WHEN:move:MOVE_USER | move_front,1</t>
+        </is>
       </c>
       <c r="O201" t="inlineStr">
         <is>
@@ -10310,8 +10654,10 @@
       <c r="K202" t="inlineStr"/>
       <c r="L202" t="inlineStr"/>
       <c r="M202" t="inlineStr"/>
-      <c r="N202" t="n">
-        <v>10</v>
+      <c r="N202" t="inlineStr">
+        <is>
+          <t>base_catch_chance,75 | WHEN:move:HIT_TARGETS | try_capture | WHEN:move:MOVE_USER | remove_rations,leash</t>
+        </is>
       </c>
       <c r="O202" t="inlineStr">
         <is>
@@ -10353,8 +10699,10 @@
       <c r="K203" t="inlineStr"/>
       <c r="L203" t="inlineStr"/>
       <c r="M203" t="inlineStr"/>
-      <c r="N203" t="n">
-        <v>10</v>
+      <c r="N203" t="inlineStr">
+        <is>
+          <t>base_catch_chance,75 | WHEN:move:HIT_TARGETS | try_capture | equip_wearables,yoke | WHEN:move:MOVE_USER | remove_rations,applying_leash</t>
+        </is>
       </c>
       <c r="O203" t="inlineStr">
         <is>
@@ -10396,8 +10744,10 @@
       <c r="K204" t="inlineStr"/>
       <c r="L204" t="inlineStr"/>
       <c r="M204" t="inlineStr"/>
-      <c r="N204" t="n">
-        <v>10</v>
+      <c r="N204" t="inlineStr">
+        <is>
+          <t>WHEN:move:HIT_TARGETS | try_attach_wearable,!error</t>
+        </is>
       </c>
       <c r="O204" t="inlineStr">
         <is>
@@ -10435,9 +10785,7 @@
       <c r="K205" t="inlineStr"/>
       <c r="L205" t="inlineStr"/>
       <c r="M205" t="inlineStr"/>
-      <c r="N205" t="n">
-        <v>10</v>
-      </c>
+      <c r="N205" t="inlineStr"/>
       <c r="O205" t="inlineStr">
         <is>
           <t>wait_move</t>
@@ -10482,8 +10830,10 @@
         <v>1</v>
       </c>
       <c r="M206" t="inlineStr"/>
-      <c r="N206" t="n">
-        <v>3</v>
+      <c r="N206" t="inlineStr">
+        <is>
+          <t>charge,5 | WHEN:move:MOVE_USER | add_token,strength,2</t>
+        </is>
       </c>
       <c r="O206" t="inlineStr">
         <is>
@@ -10537,8 +10887,10 @@
         <v>1</v>
       </c>
       <c r="M207" t="inlineStr"/>
-      <c r="N207" t="n">
-        <v>5</v>
+      <c r="N207" t="inlineStr">
+        <is>
+          <t>charge,10 | WHEN:move:MOVE_USER | reduce_token,stealth,1</t>
+        </is>
       </c>
       <c r="O207" t="inlineStr">
         <is>
@@ -10596,8 +10948,10 @@
       <c r="K208" t="inlineStr"/>
       <c r="L208" t="inlineStr"/>
       <c r="M208" t="inlineStr"/>
-      <c r="N208" t="n">
-        <v>15</v>
+      <c r="N208" t="inlineStr">
+        <is>
+          <t>WHEN:move:MOVE_USER | add_token,vuln,2</t>
+        </is>
       </c>
       <c r="O208" t="inlineStr">
         <is>
@@ -10647,9 +11001,7 @@
       <c r="K209" t="inlineStr"/>
       <c r="L209" t="inlineStr"/>
       <c r="M209" t="inlineStr"/>
-      <c r="N209" t="n">
-        <v>10</v>
-      </c>
+      <c r="N209" t="inlineStr"/>
       <c r="O209" t="inlineStr">
         <is>
           <t>inthefray</t>
@@ -10698,8 +11050,10 @@
         <v>1</v>
       </c>
       <c r="M210" t="inlineStr"/>
-      <c r="N210" t="n">
-        <v>2</v>
+      <c r="N210" t="inlineStr">
+        <is>
+          <t>charge,5 | WHEN:move:MOVE_USER | add_token,stealth,1</t>
+        </is>
       </c>
       <c r="O210" t="inlineStr">
         <is>
@@ -10757,8 +11111,10 @@
       <c r="M211" t="n">
         <v>1</v>
       </c>
-      <c r="N211" t="n">
-        <v>10</v>
+      <c r="N211" t="inlineStr">
+        <is>
+          <t>WHEN:move: | MOVE_USER | add_dot,regen,2 | HIT_TARGETS | IF:above_stat,lust,30 | disrupt | ENDIF | add_token,arousal,1 | add_lust,5 | IF:is_critical | add_token,arousal,3 | add_lust,10 | add_token,weak,2</t>
+        </is>
       </c>
       <c r="O211" t="inlineStr">
         <is>
@@ -10810,8 +11166,10 @@
       <c r="M212" t="n">
         <v>1</v>
       </c>
-      <c r="N212" t="n">
-        <v>10</v>
+      <c r="N212" t="inlineStr">
+        <is>
+          <t>WHEN:move: | MOVE_USER | add_lust,-80 | HIT_TARGETS | unequip_wearable_in_slot,top,bottom,panties,bra | disrupt | add_token,vuln,2 | add_token,arousal,3 | IF:is_critical | add_token,vuln,3 | add_token,afterglow,2</t>
+        </is>
       </c>
       <c r="O212" t="inlineStr">
         <is>
@@ -10865,8 +11223,10 @@
       <c r="M213" t="n">
         <v>1</v>
       </c>
-      <c r="N213" t="n">
-        <v>3</v>
+      <c r="N213" t="inlineStr">
+        <is>
+          <t>charge,5 | WHEN:move: | MOVE_USER | add_lust,10 | IF:is_critical | add_lust,15 | ENDIF | HIT_TARGETS | IF:above_stat,lust,40 | disrupt | ENDIF | add_token,vuln,2 | add_token,taunt,1 | IF:is_critical | add_token,arousal,2</t>
+        </is>
       </c>
       <c r="O213" t="inlineStr">
         <is>
@@ -10924,8 +11284,10 @@
       <c r="M214" t="n">
         <v>1</v>
       </c>
-      <c r="N214" t="n">
-        <v>10</v>
+      <c r="N214" t="inlineStr">
+        <is>
+          <t>WHEN:move: | SELF | add_lust,15 | OTHER_ALLIES: | add_token,arousal,1 | add_lust,5 | IF:above_stat,lust,30 | disrupt | ENDIF | ALL_ENEMIES: | add_token,arousal,1 | add_lust,10 | IF:above_stat,lust,30 | disrupt | ENDIF | IF:is_critical | HIT_TARGETS | add_token,arousal,3</t>
+        </is>
       </c>
       <c r="O214" t="inlineStr">
         <is>
@@ -10981,8 +11343,10 @@
       <c r="M215" t="n">
         <v>1</v>
       </c>
-      <c r="N215" t="n">
-        <v>10</v>
+      <c r="N215" t="inlineStr">
+        <is>
+          <t>WHEN:move:HIT_TARGETS | add_lust,-25 | reduce_token,arousal,2</t>
+        </is>
       </c>
       <c r="O215" t="inlineStr">
         <is>
@@ -11034,8 +11398,10 @@
         <v>1</v>
       </c>
       <c r="M216" t="inlineStr"/>
-      <c r="N216" t="n">
-        <v>10</v>
+      <c r="N216" t="inlineStr">
+        <is>
+          <t>WHEN:move:HIT_TARGETS | add_token,guard,1 | IF:is_critical | add_token,guard,2</t>
+        </is>
       </c>
       <c r="O216" t="inlineStr">
         <is>
@@ -11089,8 +11455,10 @@
       <c r="K217" t="inlineStr"/>
       <c r="L217" t="inlineStr"/>
       <c r="M217" t="inlineStr"/>
-      <c r="N217" t="n">
-        <v>5</v>
+      <c r="N217" t="inlineStr">
+        <is>
+          <t>charge,8 | WHEN:move:MOVE_USER | reduce_token,block,3</t>
+        </is>
       </c>
       <c r="O217" t="inlineStr">
         <is>
@@ -11140,8 +11508,10 @@
       <c r="K218" t="inlineStr"/>
       <c r="L218" t="inlineStr"/>
       <c r="M218" t="inlineStr"/>
-      <c r="N218" t="n">
-        <v>13</v>
+      <c r="N218" t="inlineStr">
+        <is>
+          <t>WHEN:move:HIT_TARGETS | disrupt</t>
+        </is>
       </c>
       <c r="O218" t="inlineStr">
         <is>
@@ -11191,8 +11561,10 @@
       <c r="K219" t="inlineStr"/>
       <c r="L219" t="inlineStr"/>
       <c r="M219" t="inlineStr"/>
-      <c r="N219" t="n">
-        <v>10</v>
+      <c r="N219" t="inlineStr">
+        <is>
+          <t>charge,10 | FOR:token,block | damage_bonus,1 | WHEN:move:HIT_TARGETS | move_back,2 | IF:is_critical | reduce_token,block,4</t>
+        </is>
       </c>
       <c r="O219" t="inlineStr">
         <is>
@@ -11242,8 +11614,10 @@
         <v>1</v>
       </c>
       <c r="M220" t="inlineStr"/>
-      <c r="N220" t="n">
-        <v>13</v>
+      <c r="N220" t="inlineStr">
+        <is>
+          <t>WHEN:move:MOVE_USER | add_token,block,2 | ENDWHEN | WHEN:move:MOVE_USER | IF:is_critical | add_token,block,2</t>
+        </is>
       </c>
       <c r="O220" t="inlineStr">
         <is>
@@ -11297,8 +11671,10 @@
       <c r="K221" t="inlineStr"/>
       <c r="L221" t="inlineStr"/>
       <c r="M221" t="inlineStr"/>
-      <c r="N221" t="n">
-        <v>10</v>
+      <c r="N221" t="inlineStr">
+        <is>
+          <t>WHEN:move:HIT_TARGETS | add_dot,fire,2</t>
+        </is>
       </c>
       <c r="O221" t="inlineStr">
         <is>
@@ -11348,8 +11724,10 @@
       <c r="K222" t="inlineStr"/>
       <c r="L222" t="inlineStr"/>
       <c r="M222" t="inlineStr"/>
-      <c r="N222" t="n">
-        <v>0</v>
+      <c r="N222" t="inlineStr">
+        <is>
+          <t>WHEN:move:HIT_TARGETS | add_token,confusion,2 | disrupt</t>
+        </is>
       </c>
       <c r="O222" t="inlineStr">
         <is>
@@ -11403,8 +11781,10 @@
       <c r="K223" t="inlineStr"/>
       <c r="L223" t="inlineStr"/>
       <c r="M223" t="inlineStr"/>
-      <c r="N223" t="n">
-        <v>10</v>
+      <c r="N223" t="inlineStr">
+        <is>
+          <t>WHEN:move:HIT_TARGETS | add_token,confusion,2 | disrupt | MOVE_USER | perform_move,junk</t>
+        </is>
       </c>
       <c r="O223" t="inlineStr">
         <is>
@@ -11448,8 +11828,10 @@
       <c r="K224" t="inlineStr"/>
       <c r="L224" t="inlineStr"/>
       <c r="M224" t="inlineStr"/>
-      <c r="N224" t="n">
-        <v>25</v>
+      <c r="N224" t="inlineStr">
+        <is>
+          <t>recoil,8</t>
+        </is>
       </c>
       <c r="O224" t="inlineStr">
         <is>
@@ -11497,8 +11879,10 @@
       <c r="K225" t="inlineStr"/>
       <c r="L225" t="inlineStr"/>
       <c r="M225" t="inlineStr"/>
-      <c r="N225" t="n">
-        <v>10</v>
+      <c r="N225" t="inlineStr">
+        <is>
+          <t>WHEN:move:HIT_TARGETS | disrupt</t>
+        </is>
       </c>
       <c r="O225" t="inlineStr">
         <is>
@@ -11544,8 +11928,10 @@
       <c r="K226" t="inlineStr"/>
       <c r="L226" t="inlineStr"/>
       <c r="M226" t="inlineStr"/>
-      <c r="N226" t="n">
-        <v>0</v>
+      <c r="N226" t="inlineStr">
+        <is>
+          <t>WHEN:move:HIT_TARGETS | add_dot,bleed,1 | IF:is_critical | add_dot,bleed,2</t>
+        </is>
       </c>
       <c r="O226" t="inlineStr">
         <is>
@@ -11595,8 +11981,10 @@
       <c r="K227" t="inlineStr"/>
       <c r="L227" t="inlineStr"/>
       <c r="M227" t="inlineStr"/>
-      <c r="N227" t="n">
-        <v>10</v>
+      <c r="N227" t="inlineStr">
+        <is>
+          <t>WHEN:move:HIT_TARGETS | add_dot,bleed,1 | add_token,weak,2 | IF:is_critical | add_dot,bleed,2 | ENDIF | MOVE_USER | perform_move,shrapnel</t>
+        </is>
       </c>
       <c r="O227" t="inlineStr">
         <is>
@@ -11648,8 +12036,10 @@
         <v>1</v>
       </c>
       <c r="M228" t="inlineStr"/>
-      <c r="N228" t="n">
-        <v>5</v>
+      <c r="N228" t="inlineStr">
+        <is>
+          <t>charge,10 | FOR:token,strength | damage_bonus,3 | ENDFOR | TARGETS:FOR:token,vuln | MOVE_USER | damage_bonus,3 | ENDFOR | TARGETS:FOR:token,block | MOVE_USER | damage_bonus,-6</t>
+        </is>
       </c>
       <c r="O228" t="inlineStr">
         <is>
@@ -11707,8 +12097,10 @@
       <c r="K229" t="inlineStr"/>
       <c r="L229" t="inlineStr"/>
       <c r="M229" t="inlineStr"/>
-      <c r="N229" t="n">
-        <v>5</v>
+      <c r="N229" t="inlineStr">
+        <is>
+          <t>charge,5 | WHEN:move:HIT_TARGETS | add_dot,bleed,1 | IF:is_critical | add_dot,bleed,2</t>
+        </is>
       </c>
       <c r="O229" t="inlineStr">
         <is>
@@ -11760,8 +12152,10 @@
         <v>1</v>
       </c>
       <c r="M230" t="inlineStr"/>
-      <c r="N230" t="n">
-        <v>8</v>
+      <c r="N230" t="inlineStr">
+        <is>
+          <t>ignore_tokens,block</t>
+        </is>
       </c>
       <c r="O230" t="inlineStr">
         <is>
@@ -11815,8 +12209,10 @@
         <v>1</v>
       </c>
       <c r="M231" t="inlineStr"/>
-      <c r="N231" t="n">
-        <v>3</v>
+      <c r="N231" t="inlineStr">
+        <is>
+          <t>charge,7 | WHEN:move:HIT_TARGETS | add_token,entangled,1 | add_token,confusion,2 | add_token,vuln,2</t>
+        </is>
       </c>
       <c r="O231" t="inlineStr">
         <is>
@@ -11870,8 +12266,10 @@
         <v>1</v>
       </c>
       <c r="M232" t="inlineStr"/>
-      <c r="N232" t="n">
-        <v>5</v>
+      <c r="N232" t="inlineStr">
+        <is>
+          <t>charge,5 | WHEN:move:HIT_TARGETS | add_token,blind,2 | add_token,confusion,2</t>
+        </is>
       </c>
       <c r="O232" t="inlineStr">
         <is>
@@ -11919,8 +12317,10 @@
       <c r="K233" t="inlineStr"/>
       <c r="L233" t="inlineStr"/>
       <c r="M233" t="inlineStr"/>
-      <c r="N233" t="n">
-        <v>10</v>
+      <c r="N233" t="inlineStr">
+        <is>
+          <t>WHEN:move:MOVE_USER | add_token,riposte,1</t>
+        </is>
       </c>
       <c r="O233" t="inlineStr">
         <is>
@@ -11970,9 +12370,7 @@
       <c r="K234" t="inlineStr"/>
       <c r="L234" t="inlineStr"/>
       <c r="M234" t="inlineStr"/>
-      <c r="N234" t="n">
-        <v>20</v>
-      </c>
+      <c r="N234" t="inlineStr"/>
       <c r="O234" t="inlineStr">
         <is>
           <t>finish_off</t>
@@ -12019,8 +12417,10 @@
       <c r="K235" t="inlineStr"/>
       <c r="L235" t="inlineStr"/>
       <c r="M235" t="inlineStr"/>
-      <c r="N235" t="n">
-        <v>7</v>
+      <c r="N235" t="inlineStr">
+        <is>
+          <t>WHEN:move:HIT_TARGETS | disrupt</t>
+        </is>
       </c>
       <c r="O235" t="inlineStr">
         <is>
@@ -12068,8 +12468,10 @@
       <c r="K236" t="inlineStr"/>
       <c r="L236" t="inlineStr"/>
       <c r="M236" t="inlineStr"/>
-      <c r="N236" t="n">
-        <v>10</v>
+      <c r="N236" t="inlineStr">
+        <is>
+          <t>WHEN:move:HIT_TARGETS | disrupt | add_token,blind,1</t>
+        </is>
       </c>
       <c r="O236" t="inlineStr">
         <is>
@@ -12123,8 +12525,10 @@
       <c r="K237" t="inlineStr"/>
       <c r="L237" t="inlineStr"/>
       <c r="M237" t="inlineStr"/>
-      <c r="N237" t="n">
-        <v>10</v>
+      <c r="N237" t="inlineStr">
+        <is>
+          <t>WHEN:move:HIT_TARGETS | disrupt</t>
+        </is>
       </c>
       <c r="O237" t="inlineStr">
         <is>
@@ -12182,8 +12586,10 @@
         <v>1</v>
       </c>
       <c r="M238" t="inlineStr"/>
-      <c r="N238" t="n">
-        <v>4</v>
+      <c r="N238" t="inlineStr">
+        <is>
+          <t>charge,6 | WHEN:move:ALLY_TARGETS | add_dot,regen,2 | ENDWHEN | IF:is_critical | heal</t>
+        </is>
       </c>
       <c r="O238" t="inlineStr">
         <is>
@@ -12237,8 +12643,10 @@
       <c r="M239" t="n">
         <v>1</v>
       </c>
-      <c r="N239" t="n">
-        <v>10</v>
+      <c r="N239" t="inlineStr">
+        <is>
+          <t>WHEN:move:HIT_TARGETS | add_token,strength,2 | IF:is_critical | add_token,strength,2</t>
+        </is>
       </c>
       <c r="O239" t="inlineStr">
         <is>
@@ -12288,8 +12696,10 @@
         <v>1</v>
       </c>
       <c r="M240" t="inlineStr"/>
-      <c r="N240" t="n">
-        <v>8</v>
+      <c r="N240" t="inlineStr">
+        <is>
+          <t>charge,5 | heal</t>
+        </is>
       </c>
       <c r="O240" t="inlineStr">
         <is>
@@ -12339,9 +12749,7 @@
       <c r="K241" t="inlineStr"/>
       <c r="L241" t="inlineStr"/>
       <c r="M241" t="inlineStr"/>
-      <c r="N241" t="n">
-        <v>10</v>
-      </c>
+      <c r="N241" t="inlineStr"/>
       <c r="O241" t="inlineStr">
         <is>
           <t>lastresort</t>
@@ -12392,8 +12800,10 @@
       <c r="M242" t="n">
         <v>1</v>
       </c>
-      <c r="N242" t="n">
-        <v>5</v>
+      <c r="N242" t="inlineStr">
+        <is>
+          <t>charge,5 | WHEN:move:HIT_TARGETS | add_token,shield,2 | IF:is_critical | add_token,shield,2</t>
+        </is>
       </c>
       <c r="O242" t="inlineStr">
         <is>
@@ -12443,8 +12853,10 @@
       <c r="K243" t="inlineStr"/>
       <c r="L243" t="inlineStr"/>
       <c r="M243" t="inlineStr"/>
-      <c r="N243" t="n">
-        <v>10</v>
+      <c r="N243" t="inlineStr">
+        <is>
+          <t>WHEN:move:HIT_TARGETS | add_dot,bleed,1 | add_token,vuln,1</t>
+        </is>
       </c>
       <c r="O243" t="inlineStr">
         <is>
@@ -12498,8 +12910,10 @@
       <c r="K244" t="inlineStr"/>
       <c r="L244" t="inlineStr"/>
       <c r="M244" t="inlineStr"/>
-      <c r="N244" t="n">
-        <v>10</v>
+      <c r="N244" t="inlineStr">
+        <is>
+          <t>WHEN:move:HIT_TARGETS | add_dot,bleed,1</t>
+        </is>
       </c>
       <c r="O244" t="inlineStr">
         <is>
@@ -12555,8 +12969,10 @@
         <v>1</v>
       </c>
       <c r="M245" t="inlineStr"/>
-      <c r="N245" t="n">
-        <v>10</v>
+      <c r="N245" t="inlineStr">
+        <is>
+          <t>charge,10 | WHEN:move:HIT_TARGETS | add_token,drunk,1</t>
+        </is>
       </c>
       <c r="O245" t="inlineStr">
         <is>
@@ -12610,8 +13026,10 @@
         <v>1</v>
       </c>
       <c r="M246" t="inlineStr"/>
-      <c r="N246" t="n">
-        <v>10</v>
+      <c r="N246" t="inlineStr">
+        <is>
+          <t>charge,10 | WHEN:move:HIT_TARGETS | shuffle</t>
+        </is>
       </c>
       <c r="O246" t="inlineStr">
         <is>
@@ -12665,8 +13083,10 @@
         <v>1</v>
       </c>
       <c r="M247" t="inlineStr"/>
-      <c r="N247" t="n">
-        <v>5</v>
+      <c r="N247" t="inlineStr">
+        <is>
+          <t>charge,10</t>
+        </is>
       </c>
       <c r="O247" t="inlineStr">
         <is>
@@ -12714,8 +13134,10 @@
         <v>1</v>
       </c>
       <c r="M248" t="inlineStr"/>
-      <c r="N248" t="n">
-        <v>10</v>
+      <c r="N248" t="inlineStr">
+        <is>
+          <t>WHEN:move:HIT_TARGETS | add_token,drunk,1</t>
+        </is>
       </c>
       <c r="O248" t="inlineStr">
         <is>
@@ -12765,8 +13187,10 @@
       <c r="M249" t="n">
         <v>1</v>
       </c>
-      <c r="N249" t="n">
-        <v>5</v>
+      <c r="N249" t="inlineStr">
+        <is>
+          <t>WHEN:move:MOVE_USER | unequip_wearable_in_slot,panties | WHEN:move:HIT_TARGETS | add_token,confusion,1</t>
+        </is>
       </c>
       <c r="O249" t="inlineStr">
         <is>
@@ -12820,8 +13244,10 @@
         <v>1</v>
       </c>
       <c r="M250" t="inlineStr"/>
-      <c r="N250" t="n">
-        <v>10</v>
+      <c r="N250" t="inlineStr">
+        <is>
+          <t>WHEN:move:HIT_TARGETS | add_lust,5 | IF:above_stat,lust,35 | disrupt | ENDIF | add_token,confusion,1</t>
+        </is>
       </c>
       <c r="O250" t="inlineStr">
         <is>
@@ -12871,9 +13297,7 @@
       <c r="K251" t="inlineStr"/>
       <c r="L251" t="inlineStr"/>
       <c r="M251" t="inlineStr"/>
-      <c r="N251" t="n">
-        <v>10</v>
-      </c>
+      <c r="N251" t="inlineStr"/>
       <c r="O251" t="inlineStr">
         <is>
           <t>shin_kick</t>
@@ -12924,8 +13348,10 @@
         <v>1</v>
       </c>
       <c r="M252" t="inlineStr"/>
-      <c r="N252" t="n">
-        <v>10</v>
+      <c r="N252" t="inlineStr">
+        <is>
+          <t>WHEN:move:MOVE_USER | reduce_token,taunt,1 | WHEN:move:HIT_TARGETS | add_token,taunt,1</t>
+        </is>
       </c>
       <c r="O252" t="inlineStr">
         <is>
@@ -12981,8 +13407,10 @@
       <c r="M253" t="n">
         <v>1</v>
       </c>
-      <c r="N253" t="n">
-        <v>10</v>
+      <c r="N253" t="inlineStr">
+        <is>
+          <t>WHEN:move:HIT_TARGETS | add_token,arousal,2 | add_lust,10 | IF:above_stat,lust,30 | disrupt | ENDIF | IF:is_critical | add_token,arousal,3</t>
+        </is>
       </c>
       <c r="O253" t="inlineStr">
         <is>
@@ -13032,9 +13460,7 @@
       <c r="K254" t="inlineStr"/>
       <c r="L254" t="inlineStr"/>
       <c r="M254" t="inlineStr"/>
-      <c r="N254" t="n">
-        <v>15</v>
-      </c>
+      <c r="N254" t="inlineStr"/>
       <c r="O254" t="inlineStr">
         <is>
           <t>slice</t>
@@ -13085,8 +13511,10 @@
       <c r="M255" t="n">
         <v>1</v>
       </c>
-      <c r="N255" t="n">
-        <v>10</v>
+      <c r="N255" t="inlineStr">
+        <is>
+          <t>IF:HIT_TARGETS:has_slot,bra | IF:MOVE_USER:no_slot,bra | WHEN:move:HIT_TARGETS | swap_gear,bra | ENDIF | ELSE:IF:MOVE_USER:has_slot,bra | HIT_TARGETS: | unequip_wearable_in_slot,bra | ENDWHEN | ENDIF | ENDIF | WHEN:move:HIT_TARGETS | MOVE_USER | add_token,taunt,1</t>
+        </is>
       </c>
       <c r="O255" t="inlineStr">
         <is>
@@ -13140,8 +13568,10 @@
       <c r="K256" t="inlineStr"/>
       <c r="L256" t="inlineStr"/>
       <c r="M256" t="inlineStr"/>
-      <c r="N256" t="n">
-        <v>10</v>
+      <c r="N256" t="inlineStr">
+        <is>
+          <t>WHEN:move:HIT_TARGETS | add_token,weak,1</t>
+        </is>
       </c>
       <c r="O256" t="inlineStr">
         <is>
@@ -13191,8 +13621,10 @@
       <c r="K257" t="inlineStr"/>
       <c r="L257" t="inlineStr"/>
       <c r="M257" t="inlineStr"/>
-      <c r="N257" t="n">
-        <v>10</v>
+      <c r="N257" t="inlineStr">
+        <is>
+          <t>WHEN:move:HIT_TARGETS | add_token,strength,2</t>
+        </is>
       </c>
       <c r="O257" t="inlineStr">
         <is>
@@ -13244,8 +13676,10 @@
       <c r="K258" t="inlineStr"/>
       <c r="L258" t="inlineStr"/>
       <c r="M258" t="inlineStr"/>
-      <c r="N258" t="n">
-        <v>5</v>
+      <c r="N258" t="inlineStr">
+        <is>
+          <t>WHEN:move: | MOVE_USER | unequip_wearable_in_slot,top,bottom,bra,panties | OTHER_ALLIES | add_token,arousal,2 | add_lust,5 | ALL_ENEMIES | add_lust,10 | IF:above_stat,lust,30 | disrupt | ENDIF | add_token,arousal,2</t>
+        </is>
       </c>
       <c r="O258" t="inlineStr">
         <is>
@@ -13299,8 +13733,10 @@
         <v>1</v>
       </c>
       <c r="M259" t="inlineStr"/>
-      <c r="N259" t="n">
-        <v>3</v>
+      <c r="N259" t="inlineStr">
+        <is>
+          <t>WHEN:move:HIT_TARGETS | swap_gear,top,bottom | add_token,vuln,2 | add_token,vuln,2 | add_token,weak,3 | disrupt | MOVE_USER | clear_tokens,frost</t>
+        </is>
       </c>
       <c r="O259" t="inlineStr">
         <is>
@@ -13356,8 +13792,10 @@
         <v>1</v>
       </c>
       <c r="M260" t="inlineStr"/>
-      <c r="N260" t="n">
-        <v>2</v>
+      <c r="N260" t="inlineStr">
+        <is>
+          <t>WHEN:move:HIT_TARGETS | add_lust,5 | IF:above_stat,lust,30 | disrupt | ENDIF | add_token,vuln,2</t>
+        </is>
       </c>
       <c r="O260" t="inlineStr">
         <is>
@@ -13409,8 +13847,10 @@
       <c r="K261" t="inlineStr"/>
       <c r="L261" t="inlineStr"/>
       <c r="M261" t="inlineStr"/>
-      <c r="N261" t="n">
-        <v>2</v>
+      <c r="N261" t="inlineStr">
+        <is>
+          <t>WHEN:move:MOVE_USER | add_token,frost,5 | add_dot,regen,1</t>
+        </is>
       </c>
       <c r="O261" t="inlineStr">
         <is>
@@ -13464,8 +13904,10 @@
       <c r="K262" t="inlineStr"/>
       <c r="L262" t="inlineStr"/>
       <c r="M262" t="inlineStr"/>
-      <c r="N262" t="n">
-        <v>8</v>
+      <c r="N262" t="inlineStr">
+        <is>
+          <t>WHEN:move:HIT_TARGETS | disrupt</t>
+        </is>
       </c>
       <c r="O262" t="inlineStr">
         <is>
@@ -13515,8 +13957,10 @@
       <c r="K263" t="inlineStr"/>
       <c r="L263" t="inlineStr"/>
       <c r="M263" t="inlineStr"/>
-      <c r="N263" t="n">
-        <v>10</v>
+      <c r="N263" t="inlineStr">
+        <is>
+          <t>ignore_tokens,block | WHEN:move:HIT_TARGETS | reduce_token,block,1</t>
+        </is>
       </c>
       <c r="O263" t="inlineStr">
         <is>
@@ -13570,8 +14014,10 @@
       <c r="K264" t="inlineStr"/>
       <c r="L264" t="inlineStr"/>
       <c r="M264" t="inlineStr"/>
-      <c r="N264" t="n">
-        <v>10</v>
+      <c r="N264" t="inlineStr">
+        <is>
+          <t>WHEN:move:HIT_TARGETS | unequip_wearable_in_slot,top | add_dot,bleed,1</t>
+        </is>
       </c>
       <c r="O264" t="inlineStr">
         <is>
@@ -13627,8 +14073,10 @@
       <c r="K265" t="inlineStr"/>
       <c r="L265" t="inlineStr"/>
       <c r="M265" t="inlineStr"/>
-      <c r="N265" t="n">
-        <v>10</v>
+      <c r="N265" t="inlineStr">
+        <is>
+          <t>WHEN:move:HIT_TARGETS | add_token,strength,2</t>
+        </is>
       </c>
       <c r="O265" t="inlineStr">
         <is>
@@ -13678,8 +14126,10 @@
       <c r="K266" t="inlineStr"/>
       <c r="L266" t="inlineStr"/>
       <c r="M266" t="inlineStr"/>
-      <c r="N266" t="n">
-        <v>15</v>
+      <c r="N266" t="inlineStr">
+        <is>
+          <t>WHEN:move:MOVE_USER | move_front,3 | WHEN:move:HIT_TARGETS | unequip_wearable_in_slot,panties | move_back,1 | disrupt</t>
+        </is>
       </c>
       <c r="O266" t="inlineStr">
         <is>
@@ -13729,8 +14179,10 @@
       <c r="K267" t="inlineStr"/>
       <c r="L267" t="inlineStr"/>
       <c r="M267" t="inlineStr"/>
-      <c r="N267" t="n">
-        <v>8</v>
+      <c r="N267" t="inlineStr">
+        <is>
+          <t>TARGETS:FOR:token,grovel | MOVE_USER | damage_bonus,4 | ENDFOR | TARGETS:FOR:token,vuln | MOVE_USER | damage_bonus,1</t>
+        </is>
       </c>
       <c r="O267" t="inlineStr">
         <is>
@@ -13788,8 +14240,10 @@
       <c r="K268" t="inlineStr"/>
       <c r="L268" t="inlineStr"/>
       <c r="M268" t="inlineStr"/>
-      <c r="N268" t="n">
-        <v>10</v>
+      <c r="N268" t="inlineStr">
+        <is>
+          <t>WHEN:move:HIT_TARGETS | add_token,strength,2</t>
+        </is>
       </c>
       <c r="O268" t="inlineStr">
         <is>
@@ -13839,8 +14293,10 @@
       <c r="K269" t="inlineStr"/>
       <c r="L269" t="inlineStr"/>
       <c r="M269" t="inlineStr"/>
-      <c r="N269" t="n">
-        <v>10</v>
+      <c r="N269" t="inlineStr">
+        <is>
+          <t>WHEN:move:HIT_TARGETS | add_token,guard,1</t>
+        </is>
       </c>
       <c r="O269" t="inlineStr">
         <is>
@@ -13896,8 +14352,10 @@
         <v>1</v>
       </c>
       <c r="M270" t="inlineStr"/>
-      <c r="N270" t="n">
-        <v>5</v>
+      <c r="N270" t="inlineStr">
+        <is>
+          <t>charge,7 | WHEN:move:HIT_TARGETS | reduce_token,confusion,2 | reduce_token,drunk,2 | reduce_token,weak,2 | reduce_token,vuln,2</t>
+        </is>
       </c>
       <c r="O270" t="inlineStr">
         <is>
@@ -13955,8 +14413,10 @@
       <c r="K271" t="inlineStr"/>
       <c r="L271" t="inlineStr"/>
       <c r="M271" t="inlineStr"/>
-      <c r="N271" t="n">
-        <v>10</v>
+      <c r="N271" t="inlineStr">
+        <is>
+          <t>charge,3 | WHEN:move:HIT_TARGETS | add_dot,regen,2</t>
+        </is>
       </c>
       <c r="O271" t="inlineStr">
         <is>

--- a/FMoves.xlsx
+++ b/FMoves.xlsx
@@ -560,7 +560,7 @@
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr">
         <is>
-          <t>WHEN:move:HIT_TARGETS | add_dot,bleed,4</t>
+          <t>add_dot,bleed,4</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -611,7 +611,7 @@
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr">
         <is>
-          <t>WHEN:move:MOVE_USER | reduce_token,taunt,2 | move_back,1</t>
+          <t>reduce_token,taunt,2 | move_back,1</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -662,7 +662,7 @@
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr">
         <is>
-          <t>WHEN:move:MOVE_USER | add_token,riposte,2</t>
+          <t>add_token,riposte,2</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -713,7 +713,7 @@
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr">
         <is>
-          <t>WHEN:move:HIT_TARGETS | add_dot,bleed,2</t>
+          <t>add_dot,bleed,2</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -764,7 +764,7 @@
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr">
         <is>
-          <t>WHEN:move:HIT_TARGETS | duplicate_dot,bleed,poison</t>
+          <t>duplicate_dot,bleed,poison</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -815,7 +815,7 @@
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr">
         <is>
-          <t>charge,5 | WHEN:move:MOVE_USER | add_token,vuln,3 | move_front,3</t>
+          <t>charge,5 | add_token,vuln,3 | move_front,3</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -866,7 +866,7 @@
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr">
         <is>
-          <t>WHEN:move:HIT_TARGETS | add_dot,bleed,2</t>
+          <t>add_dot,bleed,2</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -913,7 +913,7 @@
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr">
         <is>
-          <t>WHEN:move:HIT_TARGETS | add_token,blind,2 | add_token,weak,2</t>
+          <t>add_token,blind,2 | add_token,weak,2</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -962,7 +962,7 @@
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr">
         <is>
-          <t>charge,5 | WHEN:move:HIT_TARGETS | move_front,2 | disrupt</t>
+          <t>charge,5 | move_front,2 | disrupt</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -1009,7 +1009,7 @@
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr">
         <is>
-          <t>WHEN:move:MOVE_USER | reduce_token,taunt,2 | add_token,shield,2 | move_back,1</t>
+          <t>reduce_token,taunt,2 | add_token,shield,2 | move_back,1</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -1062,7 +1062,7 @@
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr">
         <is>
-          <t>charge,15 | WHEN:move:HIT_TARGETS | shuffle</t>
+          <t>charge,15 | shuffle</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -1113,7 +1113,7 @@
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr">
         <is>
-          <t>WHEN:move:MOVE_USER | move_back,1 | WHEN:move:HIT_TARGETS | add_dot,bleed,3</t>
+          <t>move_back,1 | add_dot,bleed,3</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -1262,7 +1262,7 @@
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr">
         <is>
-          <t>WHEN:move:HIT_TARGETS | add_delay,10</t>
+          <t>add_delay,10</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -1311,7 +1311,7 @@
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr">
         <is>
-          <t>WHEN:move:MOVE_USER | add_token,strength,1 | WHEN:move:HIT_TARGETS | add_token,vuln,1</t>
+          <t>add_token,strength,1 | add_token,vuln,1</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -1360,7 +1360,7 @@
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr">
         <is>
-          <t>WHEN:move:HIT_TARGETS | disrupt | lust_damage,10 | reduce_token,confusion,5</t>
+          <t>disrupt | lust_damage,10 | reduce_token,confusion,5</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -1413,7 +1413,7 @@
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr">
         <is>
-          <t>WHEN:move:HIT_TARGETS | reduce_token,confusion,5 | reduce_token,confusion,4 | reduce_token,confusion,3</t>
+          <t>reduce_token,confusion,5 | reduce_token,confusion,4 | reduce_token,confusion,3</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -1466,7 +1466,7 @@
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr">
         <is>
-          <t>WHEN:move:HIT_TARGETS | set_token,grovel,1</t>
+          <t>set_token,grovel,1</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
@@ -1519,7 +1519,7 @@
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr">
         <is>
-          <t>WHEN:move:HIT_TARGETS | remove_random_wearable</t>
+          <t>remove_random_wearable</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -1572,7 +1572,7 @@
       <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr">
         <is>
-          <t>WHEN:move:HIT_TARGETS | add_token,confusion,5 | IF:is_critical | add_token,confusion,5</t>
+          <t>add_token,confusion,5 | IF:is_critical | add_token,confusion,5</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -1625,7 +1625,7 @@
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr">
         <is>
-          <t>charge,5 | WHEN:move:HIT_TARGETS | add_token,confusion,3 | IF:is_critical | add_token,confusion,3</t>
+          <t>charge,5 | add_token,confusion,3 | IF:is_critical | add_token,confusion,3</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -1735,7 +1735,7 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>WHEN:move:MOVE_USER | add_token,strength,2 | lust_damage,10 | IF:is_critical | add_dot,regen,2 | lust_damage,10</t>
+          <t>add_token,strength,2 | lust_damage,10 | IF:is_critical | add_dot,regen,2 | lust_damage,10</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -1788,7 +1788,7 @@
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr">
         <is>
-          <t>charge,8 | heal | WHEN:move:ALLY_TARGETS | add_dot,regen,1</t>
+          <t>charge,8 | heal | add_dot,regen,1</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -1898,7 +1898,7 @@
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr">
         <is>
-          <t>charge,5 | WHEN:move:HIT_TARGETS | add_token,block,3</t>
+          <t>charge,5 | add_token,block,3</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -2002,7 +2002,7 @@
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr">
         <is>
-          <t>WHEN:move:HIT_TARGETS | IF:above_stat,lust,30 | disrupt | ENDIF | lust_damage,10</t>
+          <t>IF:above_stat,lust,30 | disrupt | ENDIF | lust_damage,10</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -2102,7 +2102,7 @@
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>WHEN:move:HIT_TARGETS | reduce_token,block,1 | add_token,arousal,1 | WHEN:move:MOVE_USER | add_token,block,1</t>
+          <t>reduce_token,block,1 | add_token,arousal,1 | add_token,block,1</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -2155,7 +2155,7 @@
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>WHEN:move:HIT_TARGETS | drain_experience,50</t>
+          <t>drain_experience,50</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
@@ -2208,7 +2208,7 @@
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr">
         <is>
-          <t>charge,10 | WHEN:move:HIT_TARGETS | IF:has_token,petrification,5: | add_perk,petrified | ENDIF | add_token,petrification,5</t>
+          <t>charge,10 | IF:has_token,petrification,5: | add_perk,petrified | ENDIF | add_token,petrification,5</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
@@ -2257,7 +2257,7 @@
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>WHEN:move:HIT_TARGETS | reduce_token,strength,1 | add_token,arousal,1 | WHEN:move:MOVE_USER | add_token,strength,1</t>
+          <t>reduce_token,strength,1 | add_token,arousal,1 | add_token,strength,1</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
@@ -2316,7 +2316,7 @@
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr">
         <is>
-          <t>charge,20 | WHEN:move:ALLY_TARGETS | set_token,block,5</t>
+          <t>charge,20 | set_token,block,5</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
@@ -2365,7 +2365,7 @@
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>WHEN:move:HIT_TARGETS | add_lust,20 | IF:is_critical | add_lust,20</t>
+          <t>add_lust,20 | IF:is_critical | add_lust,20</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
@@ -2463,7 +2463,7 @@
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr">
         <is>
-          <t>charge,10 | WHEN:move:HIT_TARGETS | equip_wearables,yoke</t>
+          <t>charge,10 | equip_wearables,yoke</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
@@ -2510,7 +2510,7 @@
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr">
         <is>
-          <t>heal | WHEN:move:MOVE_USER | set_token,wildshape,1</t>
+          <t>heal | set_token,wildshape,1</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
@@ -2563,7 +2563,7 @@
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr">
         <is>
-          <t>WHEN:move:HIT_TARGETS | add_token,entangled,2</t>
+          <t>add_token,entangled,2</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
@@ -2616,7 +2616,7 @@
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr">
         <is>
-          <t>heal | WHEN:move:HIT_TARGETS | add_dot,regen,2</t>
+          <t>heal | add_dot,regen,2</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
@@ -2720,7 +2720,7 @@
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr">
         <is>
-          <t>WHEN:move:HIT_TARGETS | add_token,arousal,1 | IF:is_critical | add_token,vuln,1</t>
+          <t>add_token,arousal,1 | IF:is_critical | add_token,vuln,1</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
@@ -2824,7 +2824,7 @@
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr">
         <is>
-          <t>WHEN:move:HIT_TARGETS | equip_wearables,vine_rope</t>
+          <t>equip_wearables,vine_rope</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
@@ -2879,7 +2879,7 @@
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr">
         <is>
-          <t>WHEN:move:HIT_TARGETS | move_front,1</t>
+          <t>move_front,1</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
@@ -2930,7 +2930,7 @@
       <c r="M48" t="inlineStr"/>
       <c r="N48" t="inlineStr">
         <is>
-          <t>WHEN:move:SELF | add_token,strength,1</t>
+          <t>add_token,strength,1</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
@@ -2983,7 +2983,7 @@
       <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr">
         <is>
-          <t>WHEN:move:HIT_TARGETS | add_delay,2</t>
+          <t>add_delay,2</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
@@ -3034,7 +3034,7 @@
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>charge,5 | WHEN:move:HIT_TARGETS | add_lust,20</t>
+          <t>charge,5 | add_lust,20</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
@@ -3087,7 +3087,7 @@
       <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr">
         <is>
-          <t>charge,5 | WHEN:move:ALLY_TARGETS | reduce_negative_token,4 | add_token,strength,2 | add_lust,-10</t>
+          <t>charge,5 | reduce_negative_token,4 | add_token,strength,2 | add_lust,-10</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
@@ -3138,7 +3138,7 @@
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr">
         <is>
-          <t>WHEN:move:HIT_TARGETS | add_delay,10</t>
+          <t>add_delay,10</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
@@ -3238,7 +3238,7 @@
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr">
         <is>
-          <t>heal | WHEN:move:MOVE_USER | add_dot,bleed,5</t>
+          <t>heal | add_dot,bleed,5</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
@@ -3293,7 +3293,7 @@
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr">
         <is>
-          <t>WHEN:move:HIT_TARGETS | add_token,weak,2</t>
+          <t>add_token,weak,2</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
@@ -3344,7 +3344,7 @@
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr">
         <is>
-          <t>WHEN:move:HIT_TARGETS | add_token,blind,2</t>
+          <t>add_token,blind,2</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
@@ -3393,7 +3393,7 @@
       <c r="M57" t="inlineStr"/>
       <c r="N57" t="inlineStr">
         <is>
-          <t>WHEN:move:MOVE_USER | move_front,2</t>
+          <t>move_front,2</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
@@ -3448,7 +3448,7 @@
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr">
         <is>
-          <t>WHEN:move:HIT_TARGETS | add_token,vuln,2</t>
+          <t>add_token,vuln,2</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
@@ -3495,7 +3495,7 @@
       <c r="M59" t="inlineStr"/>
       <c r="N59" t="inlineStr">
         <is>
-          <t>charge,10 | WHEN:move:HIT_TARGETS | add_token,encore,2</t>
+          <t>charge,10 | add_token,encore,2</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
@@ -3542,7 +3542,7 @@
       <c r="M60" t="inlineStr"/>
       <c r="N60" t="inlineStr">
         <is>
-          <t>charge,10 | WHEN:move:HIT_TARGETS | add_token,frenzy,2</t>
+          <t>charge,10 | add_token,frenzy,2</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
@@ -3593,7 +3593,7 @@
       <c r="M61" t="inlineStr"/>
       <c r="N61" t="inlineStr">
         <is>
-          <t>charge,5 | WHEN:move:HIT_TARGETS | add_token,strength,2</t>
+          <t>charge,5 | add_token,strength,2</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
@@ -3644,7 +3644,7 @@
       <c r="M62" t="inlineStr"/>
       <c r="N62" t="inlineStr">
         <is>
-          <t>charge,5 | WHEN:move:HIT_TARGETS | add_token,vuln,1</t>
+          <t>charge,5 | add_token,vuln,1</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
@@ -3691,7 +3691,7 @@
       <c r="M63" t="inlineStr"/>
       <c r="N63" t="inlineStr">
         <is>
-          <t>charge,5 | WHEN:move:HIT_TARGETS | move_front,1</t>
+          <t>charge,5 | move_front,1</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
@@ -3789,7 +3789,7 @@
       <c r="M65" t="inlineStr"/>
       <c r="N65" t="inlineStr">
         <is>
-          <t>WHEN:move:HIT_TARGETS | add_dot,bleed,1</t>
+          <t>add_dot,bleed,1</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
@@ -3840,7 +3840,7 @@
       <c r="M66" t="inlineStr"/>
       <c r="N66" t="inlineStr">
         <is>
-          <t>charge,10 | WHEN:move:HIT_TARGETS | add_token,frost,1</t>
+          <t>charge,10 | add_token,frost,1</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
@@ -3893,7 +3893,7 @@
       <c r="M67" t="inlineStr"/>
       <c r="N67" t="inlineStr">
         <is>
-          <t>charge,10 | WHEN:move:HIT_TARGETS | unequip_wearable_in_slot,top,bra</t>
+          <t>charge,10 | unequip_wearable_in_slot,top,bra</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
@@ -3950,7 +3950,7 @@
       <c r="M68" t="inlineStr"/>
       <c r="N68" t="inlineStr">
         <is>
-          <t>charge,15 | WHEN:move:ALLY_TARGETS | add_token,block,2</t>
+          <t>charge,15 | add_token,block,2</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
@@ -4001,7 +4001,7 @@
       <c r="M69" t="inlineStr"/>
       <c r="N69" t="inlineStr">
         <is>
-          <t>WHEN:move:HIT_TARGETS | IF:no_slot,bra | disrupt | ENDIF | lust_damage,10 | add_token,frost,2</t>
+          <t>IF:no_slot,bra | disrupt | ENDIF | lust_damage,10 | add_token,frost,2</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
@@ -4058,7 +4058,7 @@
       <c r="M70" t="inlineStr"/>
       <c r="N70" t="inlineStr">
         <is>
-          <t>charge,10 | WHEN:move:HIT_TARGETS | add_token,frost,1</t>
+          <t>charge,10 | add_token,frost,1</t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
@@ -4113,7 +4113,7 @@
       <c r="M71" t="inlineStr"/>
       <c r="N71" t="inlineStr">
         <is>
-          <t>ignore_tokens,block | WHEN:move:HIT_TARGETS | unequip_wearable_in_slot,panties,bra</t>
+          <t>ignore_tokens,block | unequip_wearable_in_slot,panties,bra</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
@@ -4166,7 +4166,7 @@
       <c r="M72" t="inlineStr"/>
       <c r="N72" t="inlineStr">
         <is>
-          <t>WHEN:move:MOVE_USER | add_token,strength,2</t>
+          <t>add_token,strength,2</t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
@@ -4215,7 +4215,7 @@
       <c r="M73" t="inlineStr"/>
       <c r="N73" t="inlineStr">
         <is>
-          <t>charge,5 | WHEN:move:MOVE_USER | move_front,3</t>
+          <t>charge,5 | move_front,3</t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
@@ -4264,7 +4264,7 @@
       <c r="M74" t="inlineStr"/>
       <c r="N74" t="inlineStr">
         <is>
-          <t>WHEN:move:MOVE_USER | move_back,1 | WHEN:move:HIT_TARGETS | IF:above_stat,lust,30 | disrupt | ENDIF | lust_damage,10 | add_token,arousal,1 | IF:is_critical | lust_damage,10</t>
+          <t>move_back,1 | IF:above_stat,lust,30 | disrupt | ENDIF | lust_damage,10 | add_token,arousal,1 | IF:is_critical | lust_damage,10</t>
         </is>
       </c>
       <c r="O74" t="inlineStr">
@@ -4315,7 +4315,7 @@
       <c r="M75" t="inlineStr"/>
       <c r="N75" t="inlineStr">
         <is>
-          <t>WHEN:move:MOVE_USER | move_back,1 | WHEN:move:HIT_TARGETS | add_dot,bleed,3 | move_back,2</t>
+          <t>move_back,1 | add_dot,bleed,3 | move_back,2</t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
@@ -4366,7 +4366,7 @@
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>FOR:token,arousal | damage_bonus,1 | ENDFOR | WHEN:move:MOVE_USER | move_back,1 | WHEN:move:HIT_TARGETS | IF:above_stat,lust,30 | disrupt | ENDIF | lust_damage,10</t>
+          <t>FOR:token,arousal | damage_bonus,1 | ENDFOR | move_back,1 | IF:above_stat,lust,30 | disrupt | ENDIF | lust_damage,10</t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
@@ -4425,7 +4425,7 @@
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>charge,5 | WHEN:move:HIT_TARGETS | add_token,arousal,3 | add_token,strength,3</t>
+          <t>charge,5 | add_token,arousal,3 | add_token,strength,3</t>
         </is>
       </c>
       <c r="O77" t="inlineStr">
@@ -4478,7 +4478,7 @@
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>WHEN:move:HIT_TARGETS | add_token,arousal,1</t>
+          <t>add_token,arousal,1</t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
@@ -4533,7 +4533,7 @@
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>heal | WHEN:move:HIT_TARGETS | lust_damage,10 | add_token,arousal,2</t>
+          <t>heal | lust_damage,10 | add_token,arousal,2</t>
         </is>
       </c>
       <c r="O79" t="inlineStr">
@@ -4586,7 +4586,7 @@
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>charge,10 | WHEN:move:HIT_TARGETS | reduce_token,arousal,4</t>
+          <t>charge,10 | reduce_token,arousal,4</t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
@@ -4643,7 +4643,7 @@
       <c r="M81" t="inlineStr"/>
       <c r="N81" t="inlineStr">
         <is>
-          <t>charge,5 | WHEN:move:HIT_TARGETS | add_token,block,3</t>
+          <t>charge,5 | add_token,block,3</t>
         </is>
       </c>
       <c r="O81" t="inlineStr">
@@ -4696,7 +4696,7 @@
       <c r="M82" t="inlineStr"/>
       <c r="N82" t="inlineStr">
         <is>
-          <t>charge,5 | WHEN:move:HIT_TARGETS | add_token,shield,2</t>
+          <t>charge,5 | add_token,shield,2</t>
         </is>
       </c>
       <c r="O82" t="inlineStr">
@@ -4747,7 +4747,7 @@
       <c r="M83" t="inlineStr"/>
       <c r="N83" t="inlineStr">
         <is>
-          <t>charge,5 | WHEN:move:HIT_TARGETS | add_dot,fire,2</t>
+          <t>charge,5 | add_dot,fire,2</t>
         </is>
       </c>
       <c r="O83" t="inlineStr">
@@ -4798,7 +4798,7 @@
       <c r="M84" t="inlineStr"/>
       <c r="N84" t="inlineStr">
         <is>
-          <t>charge,5 | WHEN:move:HIT_TARGETS | add_dot,fire,2</t>
+          <t>charge,5 | add_dot,fire,2</t>
         </is>
       </c>
       <c r="O84" t="inlineStr">
@@ -4853,7 +4853,7 @@
       <c r="M85" t="inlineStr"/>
       <c r="N85" t="inlineStr">
         <is>
-          <t>WHEN:move:HIT_TARGETS | add_dot,fire,2</t>
+          <t>add_dot,fire,2</t>
         </is>
       </c>
       <c r="O85" t="inlineStr">
@@ -4904,7 +4904,7 @@
       <c r="M86" t="inlineStr"/>
       <c r="N86" t="inlineStr">
         <is>
-          <t>charge,15 | WHEN:move:HIT_TARGETS | swap_gear,panties,bra</t>
+          <t>charge,15 | swap_gear,panties,bra</t>
         </is>
       </c>
       <c r="O86" t="inlineStr">
@@ -5006,7 +5006,7 @@
       <c r="M88" t="inlineStr"/>
       <c r="N88" t="inlineStr">
         <is>
-          <t>heal | WHEN:move:HIT_TARGETS | IF:above_stat,lust,30 | disrupt | ENDIF | lust_damage,10</t>
+          <t>heal | IF:above_stat,lust,30 | disrupt | ENDIF | lust_damage,10</t>
         </is>
       </c>
       <c r="O88" t="inlineStr">
@@ -5116,7 +5116,7 @@
       <c r="M90" t="inlineStr"/>
       <c r="N90" t="inlineStr">
         <is>
-          <t>WHEN:move:MOVE_USER | add_token,block,3 | WHEN:move:ALLY_TARGETS | transfer_negative_dots</t>
+          <t>add_token,block,3 | transfer_negative_dots</t>
         </is>
       </c>
       <c r="O90" t="inlineStr">
@@ -5169,7 +5169,7 @@
       <c r="M91" t="inlineStr"/>
       <c r="N91" t="inlineStr">
         <is>
-          <t>charge,10 | WHEN:move:MOVE_USER | add_token,gait,5</t>
+          <t>charge,10 | add_token,gait,5</t>
         </is>
       </c>
       <c r="O91" t="inlineStr">
@@ -5216,7 +5216,7 @@
       <c r="M92" t="inlineStr"/>
       <c r="N92" t="inlineStr">
         <is>
-          <t>heal | WHEN:move:MOVE_USER | reduce_token,gait,5 | reduce_negative_dots,2</t>
+          <t>heal | reduce_token,gait,5 | reduce_negative_dots,2</t>
         </is>
       </c>
       <c r="O92" t="inlineStr">
@@ -5326,7 +5326,7 @@
       <c r="M94" t="inlineStr"/>
       <c r="N94" t="inlineStr">
         <is>
-          <t>WHEN:move:HIT_TARGETS | add_token,guard,1</t>
+          <t>add_token,guard,1</t>
         </is>
       </c>
       <c r="O94" t="inlineStr">
@@ -5377,7 +5377,7 @@
       <c r="M95" t="inlineStr"/>
       <c r="N95" t="inlineStr">
         <is>
-          <t>charge,5 | WHEN:move:HIT_TARGETS | add_token,taunt,1</t>
+          <t>charge,5 | add_token,taunt,1</t>
         </is>
       </c>
       <c r="O95" t="inlineStr">
@@ -5430,7 +5430,7 @@
       <c r="M96" t="inlineStr"/>
       <c r="N96" t="inlineStr">
         <is>
-          <t>heal | WHEN:move:HIT_TARGETS | reduce_dot,bleed,2</t>
+          <t>heal | reduce_dot,bleed,2</t>
         </is>
       </c>
       <c r="O96" t="inlineStr">
@@ -5481,7 +5481,7 @@
       <c r="M97" t="inlineStr"/>
       <c r="N97" t="inlineStr">
         <is>
-          <t>heal | charge,15 | WHEN:move:MOVE_USER | add_token,divine,3</t>
+          <t>heal | charge,15 | add_token,divine,3</t>
         </is>
       </c>
       <c r="O97" t="inlineStr">
@@ -5579,7 +5579,7 @@
       <c r="M99" t="inlineStr"/>
       <c r="N99" t="inlineStr">
         <is>
-          <t>WHEN:move:HIT_TARGETS | reduce_token,strength,2</t>
+          <t>reduce_token,strength,2</t>
         </is>
       </c>
       <c r="O99" t="inlineStr">
@@ -5626,7 +5626,7 @@
       <c r="M100" t="inlineStr"/>
       <c r="N100" t="inlineStr">
         <is>
-          <t>WHEN:move:MOVE_USER | add_token,riposte,2</t>
+          <t>add_token,riposte,2</t>
         </is>
       </c>
       <c r="O100" t="inlineStr">
@@ -5679,7 +5679,7 @@
       <c r="M101" t="inlineStr"/>
       <c r="N101" t="inlineStr">
         <is>
-          <t>WHEN:move:HIT_TARGETS | add_dot,bleed,2</t>
+          <t>add_dot,bleed,2</t>
         </is>
       </c>
       <c r="O101" t="inlineStr">
@@ -5726,7 +5726,7 @@
       <c r="M102" t="inlineStr"/>
       <c r="N102" t="inlineStr">
         <is>
-          <t>heal | WHEN:move:HIT_TARGETS | add_token,strength,2</t>
+          <t>heal | add_token,strength,2</t>
         </is>
       </c>
       <c r="O102" t="inlineStr">
@@ -5777,7 +5777,7 @@
       <c r="M103" t="inlineStr"/>
       <c r="N103" t="inlineStr">
         <is>
-          <t>WHEN:move:HIT_TARGETS | reduce_token,block,2</t>
+          <t>reduce_token,block,2</t>
         </is>
       </c>
       <c r="O103" t="inlineStr">
@@ -5875,7 +5875,7 @@
       <c r="M105" t="inlineStr"/>
       <c r="N105" t="inlineStr">
         <is>
-          <t>heal | WHEN:move:MOVE_USER | reduce_token,arousal,2</t>
+          <t>heal | reduce_token,arousal,2</t>
         </is>
       </c>
       <c r="O105" t="inlineStr">
@@ -5924,7 +5924,7 @@
       <c r="M106" t="inlineStr"/>
       <c r="N106" t="inlineStr">
         <is>
-          <t>WHEN:move:MOVE_USER | move_front,3 | WHEN:move:HIT_TARGETS | move_back,1</t>
+          <t>move_front,3 | move_back,1</t>
         </is>
       </c>
       <c r="O106" t="inlineStr">
@@ -6018,7 +6018,7 @@
       <c r="M108" t="inlineStr"/>
       <c r="N108" t="inlineStr">
         <is>
-          <t>WHEN:move:MOVE_USER | move_back,1 | add_token,block,2</t>
+          <t>move_back,1 | add_token,block,2</t>
         </is>
       </c>
       <c r="O108" t="inlineStr">
@@ -6069,7 +6069,7 @@
       <c r="M109" t="inlineStr"/>
       <c r="N109" t="inlineStr">
         <is>
-          <t>WHEN:move:HIT_TARGETS | add_dot,bleed,1</t>
+          <t>add_dot,bleed,1</t>
         </is>
       </c>
       <c r="O109" t="inlineStr">
@@ -6118,7 +6118,7 @@
       </c>
       <c r="N110" t="inlineStr">
         <is>
-          <t>WHEN:move:MOVE_USER | set_temporary_role,feral | set_token,wildshape,1</t>
+          <t>set_temporary_role,feral | set_token,wildshape,1</t>
         </is>
       </c>
       <c r="O110" t="inlineStr">
@@ -6173,7 +6173,7 @@
       <c r="M111" t="inlineStr"/>
       <c r="N111" t="inlineStr">
         <is>
-          <t>WHEN:move:HIT_TARGETS | add_dot,bleed,1</t>
+          <t>add_dot,bleed,1</t>
         </is>
       </c>
       <c r="O111" t="inlineStr">
@@ -6224,7 +6224,7 @@
       </c>
       <c r="N112" t="inlineStr">
         <is>
-          <t>WHEN:move:HIT_TARGETS | drain_experience,25</t>
+          <t>drain_experience,25</t>
         </is>
       </c>
       <c r="O112" t="inlineStr">
@@ -6271,7 +6271,7 @@
       <c r="M113" t="inlineStr"/>
       <c r="N113" t="inlineStr">
         <is>
-          <t>WHEN:move:MOVE_USER | add_token,strength,1</t>
+          <t>add_token,strength,1</t>
         </is>
       </c>
       <c r="O113" t="inlineStr">
@@ -6320,7 +6320,7 @@
       <c r="M114" t="inlineStr"/>
       <c r="N114" t="inlineStr">
         <is>
-          <t>charge,10 | WHEN:move:HIT_TARGETS | add_token,petrification,3</t>
+          <t>charge,10 | add_token,petrification,3</t>
         </is>
       </c>
       <c r="O114" t="inlineStr">
@@ -6371,7 +6371,7 @@
       <c r="M115" t="inlineStr"/>
       <c r="N115" t="inlineStr">
         <is>
-          <t>WHEN:move:HIT_TARGETS | add_dot,poison,1</t>
+          <t>add_dot,poison,1</t>
         </is>
       </c>
       <c r="O115" t="inlineStr">
@@ -6422,7 +6422,7 @@
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="inlineStr">
         <is>
-          <t>WHEN:move:HIT_TARGETS | IF:is_critical | disrupt</t>
+          <t>IF:is_critical | disrupt</t>
         </is>
       </c>
       <c r="O116" t="inlineStr">
@@ -6475,7 +6475,7 @@
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="inlineStr">
         <is>
-          <t>WHEN:move:HIT_TARGETS | add_dot,fire,1</t>
+          <t>add_dot,fire,1</t>
         </is>
       </c>
       <c r="O117" t="inlineStr">
@@ -6528,7 +6528,7 @@
       <c r="M118" t="inlineStr"/>
       <c r="N118" t="inlineStr">
         <is>
-          <t>heal | WHEN:move:HIT_TARGETS | reduce_dot,poison,3</t>
+          <t>heal | reduce_dot,poison,3</t>
         </is>
       </c>
       <c r="O118" t="inlineStr">
@@ -6632,7 +6632,7 @@
       <c r="M120" t="inlineStr"/>
       <c r="N120" t="inlineStr">
         <is>
-          <t>WHEN:move:HIT_TARGETS | add_token,taunt,2</t>
+          <t>add_token,taunt,2</t>
         </is>
       </c>
       <c r="O120" t="inlineStr">
@@ -6683,7 +6683,7 @@
       <c r="M121" t="inlineStr"/>
       <c r="N121" t="inlineStr">
         <is>
-          <t>ignore_tokens,block | WHEN:move:HIT_TARGETS | reduce_token,block,1</t>
+          <t>ignore_tokens,block | reduce_token,block,1</t>
         </is>
       </c>
       <c r="O121" t="inlineStr">
@@ -6740,7 +6740,7 @@
       <c r="M122" t="inlineStr"/>
       <c r="N122" t="inlineStr">
         <is>
-          <t>WHEN:move:HIT_TARGETS | add_token,weak,1 | add_dot,poison,1</t>
+          <t>add_token,weak,1 | add_dot,poison,1</t>
         </is>
       </c>
       <c r="O122" t="inlineStr">
@@ -6838,7 +6838,7 @@
       <c r="M124" t="inlineStr"/>
       <c r="N124" t="inlineStr">
         <is>
-          <t>WHEN:move:MOVE_USER | move_back,1</t>
+          <t>move_back,1</t>
         </is>
       </c>
       <c r="O124" t="inlineStr">
@@ -6934,7 +6934,7 @@
       <c r="M126" t="inlineStr"/>
       <c r="N126" t="inlineStr">
         <is>
-          <t>charge,5 | WHEN:move:HIT_TARGETS | add_token,taunt,2 | ENDWHEN | WHEN:move:MOVE_USER | add_token,strength,2</t>
+          <t>charge,5 | add_token,taunt,2 | ENDWHEN | add_token,strength,2</t>
         </is>
       </c>
       <c r="O126" t="inlineStr">
@@ -6983,7 +6983,7 @@
       <c r="M127" t="inlineStr"/>
       <c r="N127" t="inlineStr">
         <is>
-          <t>recoil,3 | WHEN:move:MOVE_USER | move_front,3</t>
+          <t>recoil,3 | move_front,3</t>
         </is>
       </c>
       <c r="O127" t="inlineStr">
@@ -7040,7 +7040,7 @@
       <c r="M128" t="inlineStr"/>
       <c r="N128" t="inlineStr">
         <is>
-          <t>recoil,1 | WHEN:move:MOVE_USER | move_front,1</t>
+          <t>recoil,1 | move_front,1</t>
         </is>
       </c>
       <c r="O128" t="inlineStr">
@@ -7142,7 +7142,7 @@
       <c r="M130" t="inlineStr"/>
       <c r="N130" t="inlineStr">
         <is>
-          <t>WHEN:move:HIT_TARGETS | add_token,confusion,1</t>
+          <t>add_token,confusion,1</t>
         </is>
       </c>
       <c r="O130" t="inlineStr">
@@ -7189,7 +7189,7 @@
       <c r="M131" t="inlineStr"/>
       <c r="N131" t="inlineStr">
         <is>
-          <t>WHEN:move:HIT_TARGETS | disrupt</t>
+          <t>disrupt</t>
         </is>
       </c>
       <c r="O131" t="inlineStr">
@@ -7236,7 +7236,7 @@
       <c r="M132" t="inlineStr"/>
       <c r="N132" t="inlineStr">
         <is>
-          <t>WHEN:move:HIT_TARGETS | move_back,1 | add_token,confusion,2</t>
+          <t>move_back,1 | add_token,confusion,2</t>
         </is>
       </c>
       <c r="O132" t="inlineStr">
@@ -7285,7 +7285,7 @@
       <c r="M133" t="inlineStr"/>
       <c r="N133" t="inlineStr">
         <is>
-          <t>charge,10 | FOR:token,strength | damage_bonus,2 | ENDFOR | WHEN:move:MOVE_USER | clear_tokens,strength | move_front,3 | WHEN:move:HIT_TARGETS | move_back,1</t>
+          <t>charge,10 | FOR:token,strength | damage_bonus,2 | ENDFOR | clear_tokens,strength | move_front,3 | move_back,1</t>
         </is>
       </c>
       <c r="O133" t="inlineStr">
@@ -7389,7 +7389,7 @@
       <c r="M135" t="inlineStr"/>
       <c r="N135" t="inlineStr">
         <is>
-          <t>ignore_tokens,block | WHEN:move:MOVE_USER | reduce_token,strength,3</t>
+          <t>ignore_tokens,block | reduce_token,strength,3</t>
         </is>
       </c>
       <c r="O135" t="inlineStr">
@@ -7444,7 +7444,7 @@
       <c r="M136" t="inlineStr"/>
       <c r="N136" t="inlineStr">
         <is>
-          <t>charge,5 | WHEN:move:MOVE_USER | add_token,strength,3</t>
+          <t>charge,5 | add_token,strength,3</t>
         </is>
       </c>
       <c r="O136" t="inlineStr">
@@ -7491,7 +7491,7 @@
       <c r="M137" t="inlineStr"/>
       <c r="N137" t="inlineStr">
         <is>
-          <t>WHEN:move:MOVE_USER | move_back,1</t>
+          <t>move_back,1</t>
         </is>
       </c>
       <c r="O137" t="inlineStr">
@@ -7538,7 +7538,7 @@
       </c>
       <c r="N138" t="inlineStr">
         <is>
-          <t>heal | WHEN:move:MOVE_USER | add_token,block,3</t>
+          <t>heal | add_token,block,3</t>
         </is>
       </c>
       <c r="O138" t="inlineStr">
@@ -7591,7 +7591,7 @@
       <c r="M139" t="inlineStr"/>
       <c r="N139" t="inlineStr">
         <is>
-          <t>heal | WHEN:move:ALLY_TARGETS | reduce_negative_token,2</t>
+          <t>heal | reduce_negative_token,2</t>
         </is>
       </c>
       <c r="O139" t="inlineStr">
@@ -7644,7 +7644,7 @@
       <c r="M140" t="inlineStr"/>
       <c r="N140" t="inlineStr">
         <is>
-          <t>WHEN:move:ALLY_TARGETS | reduce_token,taunt,2</t>
+          <t>reduce_token,taunt,2</t>
         </is>
       </c>
       <c r="O140" t="inlineStr">
@@ -7695,7 +7695,7 @@
       </c>
       <c r="N141" t="inlineStr">
         <is>
-          <t>WHEN:move:ALLY_TARGETS | lust_damage,10 | add_token,strength,3 | add_token,arousal,2 | IF:is_critical | add_dot,regen,2</t>
+          <t>lust_damage,10 | add_token,strength,3 | add_token,arousal,2 | IF:is_critical | add_dot,regen,2</t>
         </is>
       </c>
       <c r="O141" t="inlineStr">
@@ -7746,7 +7746,7 @@
       </c>
       <c r="N142" t="inlineStr">
         <is>
-          <t>heal | WHEN:move:MOVE_USER | move_front,1 | add_token,vuln,2</t>
+          <t>heal | move_front,1 | add_token,vuln,2</t>
         </is>
       </c>
       <c r="O142" t="inlineStr">
@@ -7799,7 +7799,7 @@
       <c r="M143" t="inlineStr"/>
       <c r="N143" t="inlineStr">
         <is>
-          <t>charge,10 | WHEN:move:HIT_TARGETS | reduce_positive_token,2</t>
+          <t>charge,10 | reduce_positive_token,2</t>
         </is>
       </c>
       <c r="O143" t="inlineStr">
@@ -7850,7 +7850,7 @@
       </c>
       <c r="N144" t="inlineStr">
         <is>
-          <t>WHEN:move:HIT_TARGETS | add_token,arousal,5 | WHEN:move:MOVE_USER | add_token,afterglow,5 | add_lust,-80</t>
+          <t>add_token,arousal,5 | add_token,afterglow,5 | add_lust,-80</t>
         </is>
       </c>
       <c r="O144" t="inlineStr">
@@ -7903,7 +7903,7 @@
       </c>
       <c r="N145" t="inlineStr">
         <is>
-          <t>heal | WHEN:move:MOVE_USER | lust_damage,15</t>
+          <t>heal | lust_damage,15</t>
         </is>
       </c>
       <c r="O145" t="inlineStr">
@@ -7952,7 +7952,7 @@
       </c>
       <c r="N146" t="inlineStr">
         <is>
-          <t>heal | WHEN:move:MOVE_USER | add_lust,-20</t>
+          <t>heal | add_lust,-20</t>
         </is>
       </c>
       <c r="O146" t="inlineStr">
@@ -7999,7 +7999,7 @@
       <c r="M147" t="inlineStr"/>
       <c r="N147" t="inlineStr">
         <is>
-          <t>WHEN:move:HIT_TARGETS | add_token,weak,2</t>
+          <t>add_token,weak,2</t>
         </is>
       </c>
       <c r="O147" t="inlineStr">
@@ -8048,7 +8048,7 @@
       <c r="M148" t="inlineStr"/>
       <c r="N148" t="inlineStr">
         <is>
-          <t>WHEN:move:MOVE_USER | add_token,block,2 | reduce_token,taunt,2 | move_back,1</t>
+          <t>add_token,block,2 | reduce_token,taunt,2 | move_back,1</t>
         </is>
       </c>
       <c r="O148" t="inlineStr">
@@ -8203,7 +8203,7 @@
       </c>
       <c r="N151" t="inlineStr">
         <is>
-          <t>WHEN:move:MOVE_USER | add_token,shield,2 | add_token,arousal,2</t>
+          <t>add_token,shield,2 | add_token,arousal,2</t>
         </is>
       </c>
       <c r="O151" t="inlineStr">
@@ -8250,7 +8250,7 @@
       <c r="M152" t="inlineStr"/>
       <c r="N152" t="inlineStr">
         <is>
-          <t>charge,10 | WHEN:move:HIT_TARGETS | equip_wearables,latex_gag</t>
+          <t>charge,10 | equip_wearables,latex_gag</t>
         </is>
       </c>
       <c r="O152" t="inlineStr">
@@ -8301,7 +8301,7 @@
       <c r="M153" t="inlineStr"/>
       <c r="N153" t="inlineStr">
         <is>
-          <t>charge,10 | WHEN:move:HIT_TARGETS | equip_wearables,latex_bodysuit</t>
+          <t>charge,10 | equip_wearables,latex_bodysuit</t>
         </is>
       </c>
       <c r="O153" t="inlineStr">
@@ -8356,7 +8356,7 @@
       <c r="M154" t="inlineStr"/>
       <c r="N154" t="inlineStr">
         <is>
-          <t>heal | FOR:TARGET:wearables_with_goods,latex | heal_damage,2 | ENDFOR | WHEN:move:HIT_TARGETS | remove_wearables_with_good,latex</t>
+          <t>heal | FOR:TARGET:wearables_with_goods,latex | heal_damage,2 | ENDFOR | remove_wearables_with_good,latex</t>
         </is>
       </c>
       <c r="O154" t="inlineStr">
@@ -8409,7 +8409,7 @@
       <c r="M155" t="inlineStr"/>
       <c r="N155" t="inlineStr">
         <is>
-          <t>WHEN:move:MOVE_USER | add_token,block,2</t>
+          <t>add_token,block,2</t>
         </is>
       </c>
       <c r="O155" t="inlineStr">
@@ -8511,7 +8511,7 @@
       <c r="M157" t="inlineStr"/>
       <c r="N157" t="inlineStr">
         <is>
-          <t>charge,5 | WHEN:move:HIT_TARGETS | add_token,latex_entangle,1</t>
+          <t>charge,5 | add_token,latex_entangle,1</t>
         </is>
       </c>
       <c r="O157" t="inlineStr">
@@ -8560,7 +8560,7 @@
       </c>
       <c r="N158" t="inlineStr">
         <is>
-          <t>WHEN:move:HIT_TARGETS | disrupt | lust_damage,10 | IF:is_critical: | lust_damage,10</t>
+          <t>disrupt | lust_damage,10 | IF:is_critical: | lust_damage,10</t>
         </is>
       </c>
       <c r="O158" t="inlineStr">
@@ -8609,7 +8609,7 @@
       <c r="M159" t="inlineStr"/>
       <c r="N159" t="inlineStr">
         <is>
-          <t>WHEN:move:MOVE_USER | die</t>
+          <t>die</t>
         </is>
       </c>
       <c r="O159" t="inlineStr">
@@ -8664,7 +8664,7 @@
       </c>
       <c r="N160" t="inlineStr">
         <is>
-          <t>WHEN:move:HIT_TARGETS | lust_damage,10 | IF:is_critical | disrupt | ENDIF | WHEN:move:MOVE_USER | add_token,milk,3 | IF:is_critical | add_token,milk,5</t>
+          <t>lust_damage,10 | IF:is_critical | disrupt | ENDIF | add_token,milk,3 | IF:is_critical | add_token,milk,5</t>
         </is>
       </c>
       <c r="O160" t="inlineStr">
@@ -8823,7 +8823,7 @@
       <c r="M163" t="inlineStr"/>
       <c r="N163" t="inlineStr">
         <is>
-          <t>WHEN:move:HIT_TARGETS | IF:is_critical | reduce_token,block,2</t>
+          <t>IF:is_critical | reduce_token,block,2</t>
         </is>
       </c>
       <c r="O163" t="inlineStr">
@@ -8870,7 +8870,7 @@
       <c r="M164" t="inlineStr"/>
       <c r="N164" t="inlineStr">
         <is>
-          <t>WHEN:move:MOVE_USER | add_token,milk,3 | IF:is_critical | add_token,milk,3</t>
+          <t>add_token,milk,3 | IF:is_critical | add_token,milk,3</t>
         </is>
       </c>
       <c r="O164" t="inlineStr">
@@ -8917,7 +8917,7 @@
       <c r="M165" t="inlineStr"/>
       <c r="N165" t="inlineStr">
         <is>
-          <t>WHEN:move:MOVE_USER | add_token,block,2</t>
+          <t>add_token,block,2</t>
         </is>
       </c>
       <c r="O165" t="inlineStr">
@@ -8968,7 +8968,7 @@
       <c r="M166" t="inlineStr"/>
       <c r="N166" t="inlineStr">
         <is>
-          <t>WHEN:move:HIT_TARGETS | unequip_wearable_in_slot,top,bottom,corset | reduce_token,block,3 | reduce_token,block,3</t>
+          <t>unequip_wearable_in_slot,top,bottom,corset | reduce_token,block,3 | reduce_token,block,3</t>
         </is>
       </c>
       <c r="O166" t="inlineStr">
@@ -9025,7 +9025,7 @@
       <c r="M167" t="inlineStr"/>
       <c r="N167" t="inlineStr">
         <is>
-          <t>charge,5 | WHEN:move:MOVE_USER | add_token,block,2</t>
+          <t>charge,5 | add_token,block,2</t>
         </is>
       </c>
       <c r="O167" t="inlineStr">
@@ -9076,7 +9076,7 @@
       <c r="M168" t="inlineStr"/>
       <c r="N168" t="inlineStr">
         <is>
-          <t>charge,10 | WHEN:move:MOVE_USER | add_token,riposte,2</t>
+          <t>charge,10 | add_token,riposte,2</t>
         </is>
       </c>
       <c r="O168" t="inlineStr">
@@ -9127,7 +9127,7 @@
       <c r="M169" t="inlineStr"/>
       <c r="N169" t="inlineStr">
         <is>
-          <t>WHEN:move:HIT_TARGETS | add_dot,bleed,1</t>
+          <t>add_dot,bleed,1</t>
         </is>
       </c>
       <c r="O169" t="inlineStr">
@@ -9180,7 +9180,7 @@
       </c>
       <c r="N170" t="inlineStr">
         <is>
-          <t>charge,5 | WHEN:move:HIT_TARGETS | IF:is_critical | disrupt</t>
+          <t>charge,5 | IF:is_critical | disrupt</t>
         </is>
       </c>
       <c r="O170" t="inlineStr">
@@ -9231,7 +9231,7 @@
       </c>
       <c r="N171" t="inlineStr">
         <is>
-          <t>leech,50 | WHEN:move:HIT_TARGETS | reduce_token,web,5</t>
+          <t>leech,50 | reduce_token,web,5</t>
         </is>
       </c>
       <c r="O171" t="inlineStr">
@@ -9288,7 +9288,7 @@
       </c>
       <c r="N172" t="inlineStr">
         <is>
-          <t>charge,15 | WHEN:move:ALLY_TARGETS | add_token,block,2</t>
+          <t>charge,15 | add_token,block,2</t>
         </is>
       </c>
       <c r="O172" t="inlineStr">
@@ -9339,7 +9339,7 @@
       </c>
       <c r="N173" t="inlineStr">
         <is>
-          <t>charge,5 | WHEN:move:HIT_TARGETS | add_token,weak,2</t>
+          <t>charge,5 | add_token,weak,2</t>
         </is>
       </c>
       <c r="O173" t="inlineStr">
@@ -9390,7 +9390,7 @@
       </c>
       <c r="N174" t="inlineStr">
         <is>
-          <t>charge,10 | WHEN:move:HIT_TARGETS | add_token,web,3</t>
+          <t>charge,10 | add_token,web,3</t>
         </is>
       </c>
       <c r="O174" t="inlineStr">
@@ -9443,7 +9443,7 @@
       </c>
       <c r="N175" t="inlineStr">
         <is>
-          <t>charge,20 | WHEN:move:HIT_TARGETS | add_token,web,2</t>
+          <t>charge,20 | add_token,web,2</t>
         </is>
       </c>
       <c r="O175" t="inlineStr">
@@ -9494,7 +9494,7 @@
       <c r="M176" t="inlineStr"/>
       <c r="N176" t="inlineStr">
         <is>
-          <t>WHEN:move:HIT_TARGETS | add_token,arousal,3</t>
+          <t>add_token,arousal,3</t>
         </is>
       </c>
       <c r="O176" t="inlineStr">
@@ -9545,7 +9545,7 @@
       <c r="M177" t="inlineStr"/>
       <c r="N177" t="inlineStr">
         <is>
-          <t>heal | WHEN:move:HIT_TARGETS | add_token,drunk,3</t>
+          <t>heal | add_token,drunk,3</t>
         </is>
       </c>
       <c r="O177" t="inlineStr">
@@ -9596,7 +9596,7 @@
       <c r="M178" t="inlineStr"/>
       <c r="N178" t="inlineStr">
         <is>
-          <t>WHEN:move:HIT_TARGETS | reduce_token,arousal,3</t>
+          <t>reduce_token,arousal,3</t>
         </is>
       </c>
       <c r="O178" t="inlineStr">
@@ -9647,7 +9647,7 @@
       <c r="M179" t="inlineStr"/>
       <c r="N179" t="inlineStr">
         <is>
-          <t>charge,10 | WHEN:move:HIT_TARGETS | add_token,strength,1</t>
+          <t>charge,10 | add_token,strength,1</t>
         </is>
       </c>
       <c r="O179" t="inlineStr">
@@ -9698,7 +9698,7 @@
       <c r="M180" t="inlineStr"/>
       <c r="N180" t="inlineStr">
         <is>
-          <t>heal | WHEN:move:HIT_TARGETS | add_token,drunk,3 | add_token,block,2</t>
+          <t>heal | add_token,drunk,3 | add_token,block,2</t>
         </is>
       </c>
       <c r="O180" t="inlineStr">
@@ -9753,7 +9753,7 @@
       <c r="M181" t="inlineStr"/>
       <c r="N181" t="inlineStr">
         <is>
-          <t>heal | WHEN:move:ALLY_TARGETS | reduce_dot,bleed,3</t>
+          <t>heal | reduce_dot,bleed,3</t>
         </is>
       </c>
       <c r="O181" t="inlineStr">
@@ -9810,7 +9810,7 @@
       <c r="M182" t="inlineStr"/>
       <c r="N182" t="inlineStr">
         <is>
-          <t>charge,5 | WHEN:move:HIT_TARGETS | reduce_token,strength,3</t>
+          <t>charge,5 | reduce_token,strength,3</t>
         </is>
       </c>
       <c r="O182" t="inlineStr">
@@ -9859,7 +9859,7 @@
       <c r="M183" t="inlineStr"/>
       <c r="N183" t="inlineStr">
         <is>
-          <t>charge,15 | WHEN:move:HIT_TARGETS | equip_wearables,wool_blindfold</t>
+          <t>charge,15 | equip_wearables,wool_blindfold</t>
         </is>
       </c>
       <c r="O183" t="inlineStr">
@@ -9908,7 +9908,7 @@
       <c r="M184" t="inlineStr"/>
       <c r="N184" t="inlineStr">
         <is>
-          <t>charge,10 | WHEN:move:HIT_TARGETS | equip_wearables,mittens_2</t>
+          <t>charge,10 | equip_wearables,mittens_2</t>
         </is>
       </c>
       <c r="O184" t="inlineStr">
@@ -9957,7 +9957,7 @@
       <c r="M185" t="inlineStr"/>
       <c r="N185" t="inlineStr">
         <is>
-          <t>charge,15 | WHEN:move:HIT_TARGETS | equip_wearables,wool_sweater</t>
+          <t>charge,15 | equip_wearables,wool_sweater</t>
         </is>
       </c>
       <c r="O185" t="inlineStr">
@@ -10000,7 +10000,7 @@
       <c r="M186" t="inlineStr"/>
       <c r="N186" t="inlineStr">
         <is>
-          <t>heal | WHEN:move:SELF | unequip_wearable,apple_gag</t>
+          <t>heal | unequip_wearable,apple_gag</t>
         </is>
       </c>
       <c r="O186" t="inlineStr">
@@ -10082,7 +10082,7 @@
       </c>
       <c r="N188" t="inlineStr">
         <is>
-          <t>WHEN:move:SELF | add_lust,-20</t>
+          <t>add_lust,-20</t>
         </is>
       </c>
       <c r="O188" t="inlineStr">
@@ -10123,7 +10123,7 @@
       <c r="M189" t="inlineStr"/>
       <c r="N189" t="inlineStr">
         <is>
-          <t>heal | WHEN:move:SELF | lust_damage,10</t>
+          <t>heal | lust_damage,10</t>
         </is>
       </c>
       <c r="O189" t="inlineStr">
@@ -10170,7 +10170,7 @@
       <c r="M190" t="inlineStr"/>
       <c r="N190" t="inlineStr">
         <is>
-          <t>WHEN:move:HIT_TARGETS | add_lust,5</t>
+          <t>add_lust,5</t>
         </is>
       </c>
       <c r="O190" t="inlineStr">
@@ -10252,7 +10252,7 @@
       <c r="M192" t="inlineStr"/>
       <c r="N192" t="inlineStr">
         <is>
-          <t>WHEN:move:SELF | lust_damage,10</t>
+          <t>lust_damage,10</t>
         </is>
       </c>
       <c r="O192" t="inlineStr">
@@ -10330,7 +10330,7 @@
       <c r="M194" t="inlineStr"/>
       <c r="N194" t="inlineStr">
         <is>
-          <t>WHEN:move:SELF | add_lust,-80 | add_token,afterglow,5</t>
+          <t>add_lust,-80 | add_token,afterglow,5</t>
         </is>
       </c>
       <c r="O194" t="inlineStr">
@@ -10568,7 +10568,7 @@
       <c r="M200" t="inlineStr"/>
       <c r="N200" t="inlineStr">
         <is>
-          <t>WHEN:move:MOVE_USER | move_back,1</t>
+          <t>move_back,1</t>
         </is>
       </c>
       <c r="O200" t="inlineStr">
@@ -10611,7 +10611,7 @@
       <c r="M201" t="inlineStr"/>
       <c r="N201" t="inlineStr">
         <is>
-          <t>WHEN:move:MOVE_USER | move_front,1</t>
+          <t>move_front,1</t>
         </is>
       </c>
       <c r="O201" t="inlineStr">
@@ -10656,7 +10656,7 @@
       <c r="M202" t="inlineStr"/>
       <c r="N202" t="inlineStr">
         <is>
-          <t>base_catch_chance,75 | WHEN:move:HIT_TARGETS | try_capture | WHEN:move:MOVE_USER | remove_rations,leash</t>
+          <t>base_catch_chance,75 | try_capture | remove_rations,leash</t>
         </is>
       </c>
       <c r="O202" t="inlineStr">
@@ -10701,7 +10701,7 @@
       <c r="M203" t="inlineStr"/>
       <c r="N203" t="inlineStr">
         <is>
-          <t>base_catch_chance,75 | WHEN:move:HIT_TARGETS | try_capture | equip_wearables,yoke | WHEN:move:MOVE_USER | remove_rations,applying_leash</t>
+          <t>base_catch_chance,75 | try_capture | equip_wearables,yoke | remove_rations,applying_leash</t>
         </is>
       </c>
       <c r="O203" t="inlineStr">
@@ -10746,7 +10746,7 @@
       <c r="M204" t="inlineStr"/>
       <c r="N204" t="inlineStr">
         <is>
-          <t>WHEN:move:HIT_TARGETS | try_attach_wearable,!error</t>
+          <t>try_attach_wearable,!error</t>
         </is>
       </c>
       <c r="O204" t="inlineStr">
@@ -10832,7 +10832,7 @@
       <c r="M206" t="inlineStr"/>
       <c r="N206" t="inlineStr">
         <is>
-          <t>charge,5 | WHEN:move:MOVE_USER | add_token,strength,2</t>
+          <t>charge,5 | add_token,strength,2</t>
         </is>
       </c>
       <c r="O206" t="inlineStr">
@@ -10889,7 +10889,7 @@
       <c r="M207" t="inlineStr"/>
       <c r="N207" t="inlineStr">
         <is>
-          <t>charge,10 | WHEN:move:MOVE_USER | reduce_token,stealth,1</t>
+          <t>charge,10 | reduce_token,stealth,1</t>
         </is>
       </c>
       <c r="O207" t="inlineStr">
@@ -10950,7 +10950,7 @@
       <c r="M208" t="inlineStr"/>
       <c r="N208" t="inlineStr">
         <is>
-          <t>WHEN:move:MOVE_USER | add_token,vuln,2</t>
+          <t>add_token,vuln,2</t>
         </is>
       </c>
       <c r="O208" t="inlineStr">
@@ -11052,7 +11052,7 @@
       <c r="M210" t="inlineStr"/>
       <c r="N210" t="inlineStr">
         <is>
-          <t>charge,5 | WHEN:move:MOVE_USER | add_token,stealth,1</t>
+          <t>charge,5 | add_token,stealth,1</t>
         </is>
       </c>
       <c r="O210" t="inlineStr">
@@ -11345,7 +11345,7 @@
       </c>
       <c r="N215" t="inlineStr">
         <is>
-          <t>WHEN:move:HIT_TARGETS | add_lust,-25 | reduce_token,arousal,2</t>
+          <t>add_lust,-25 | reduce_token,arousal,2</t>
         </is>
       </c>
       <c r="O215" t="inlineStr">
@@ -11400,7 +11400,7 @@
       <c r="M216" t="inlineStr"/>
       <c r="N216" t="inlineStr">
         <is>
-          <t>WHEN:move:HIT_TARGETS | add_token,guard,1 | IF:is_critical | add_token,guard,2</t>
+          <t>add_token,guard,1 | IF:is_critical | add_token,guard,2</t>
         </is>
       </c>
       <c r="O216" t="inlineStr">
@@ -11457,7 +11457,7 @@
       <c r="M217" t="inlineStr"/>
       <c r="N217" t="inlineStr">
         <is>
-          <t>charge,8 | WHEN:move:MOVE_USER | reduce_token,block,3</t>
+          <t>charge,8 | reduce_token,block,3</t>
         </is>
       </c>
       <c r="O217" t="inlineStr">
@@ -11510,7 +11510,7 @@
       <c r="M218" t="inlineStr"/>
       <c r="N218" t="inlineStr">
         <is>
-          <t>WHEN:move:HIT_TARGETS | disrupt</t>
+          <t>disrupt</t>
         </is>
       </c>
       <c r="O218" t="inlineStr">
@@ -11563,7 +11563,7 @@
       <c r="M219" t="inlineStr"/>
       <c r="N219" t="inlineStr">
         <is>
-          <t>charge,10 | FOR:token,block | damage_bonus,1 | WHEN:move:HIT_TARGETS | move_back,2 | IF:is_critical | reduce_token,block,4</t>
+          <t>charge,10 | FOR:token,block | damage_bonus,1 | move_back,2 | IF:is_critical | reduce_token,block,4</t>
         </is>
       </c>
       <c r="O219" t="inlineStr">
@@ -11616,7 +11616,7 @@
       <c r="M220" t="inlineStr"/>
       <c r="N220" t="inlineStr">
         <is>
-          <t>WHEN:move:MOVE_USER | add_token,block,2 | ENDWHEN | WHEN:move:MOVE_USER | IF:is_critical | add_token,block,2</t>
+          <t>add_token,block,2 | ENDWHEN | IF:is_critical | add_token,block,2</t>
         </is>
       </c>
       <c r="O220" t="inlineStr">
@@ -11673,7 +11673,7 @@
       <c r="M221" t="inlineStr"/>
       <c r="N221" t="inlineStr">
         <is>
-          <t>WHEN:move:HIT_TARGETS | add_dot,fire,2</t>
+          <t>add_dot,fire,2</t>
         </is>
       </c>
       <c r="O221" t="inlineStr">
@@ -11726,7 +11726,7 @@
       <c r="M222" t="inlineStr"/>
       <c r="N222" t="inlineStr">
         <is>
-          <t>WHEN:move:HIT_TARGETS | add_token,confusion,2 | disrupt</t>
+          <t>add_token,confusion,2 | disrupt</t>
         </is>
       </c>
       <c r="O222" t="inlineStr">
@@ -11783,7 +11783,7 @@
       <c r="M223" t="inlineStr"/>
       <c r="N223" t="inlineStr">
         <is>
-          <t>WHEN:move:HIT_TARGETS | add_token,confusion,2 | disrupt | MOVE_USER | perform_move,junk</t>
+          <t>add_token,confusion,2 | disrupt | MOVE_USER | perform_move,junk</t>
         </is>
       </c>
       <c r="O223" t="inlineStr">
@@ -11881,7 +11881,7 @@
       <c r="M225" t="inlineStr"/>
       <c r="N225" t="inlineStr">
         <is>
-          <t>WHEN:move:HIT_TARGETS | disrupt</t>
+          <t>disrupt</t>
         </is>
       </c>
       <c r="O225" t="inlineStr">
@@ -11930,7 +11930,7 @@
       <c r="M226" t="inlineStr"/>
       <c r="N226" t="inlineStr">
         <is>
-          <t>WHEN:move:HIT_TARGETS | add_dot,bleed,1 | IF:is_critical | add_dot,bleed,2</t>
+          <t>add_dot,bleed,1 | IF:is_critical | add_dot,bleed,2</t>
         </is>
       </c>
       <c r="O226" t="inlineStr">
@@ -11983,7 +11983,7 @@
       <c r="M227" t="inlineStr"/>
       <c r="N227" t="inlineStr">
         <is>
-          <t>WHEN:move:HIT_TARGETS | add_dot,bleed,1 | add_token,weak,2 | IF:is_critical | add_dot,bleed,2 | ENDIF | MOVE_USER | perform_move,shrapnel</t>
+          <t>add_dot,bleed,1 | add_token,weak,2 | IF:is_critical | add_dot,bleed,2 | ENDIF | MOVE_USER | perform_move,shrapnel</t>
         </is>
       </c>
       <c r="O227" t="inlineStr">
@@ -12099,7 +12099,7 @@
       <c r="M229" t="inlineStr"/>
       <c r="N229" t="inlineStr">
         <is>
-          <t>charge,5 | WHEN:move:HIT_TARGETS | add_dot,bleed,1 | IF:is_critical | add_dot,bleed,2</t>
+          <t>charge,5 | add_dot,bleed,1 | IF:is_critical | add_dot,bleed,2</t>
         </is>
       </c>
       <c r="O229" t="inlineStr">
@@ -12211,7 +12211,7 @@
       <c r="M231" t="inlineStr"/>
       <c r="N231" t="inlineStr">
         <is>
-          <t>charge,7 | WHEN:move:HIT_TARGETS | add_token,entangled,1 | add_token,confusion,2 | add_token,vuln,2</t>
+          <t>charge,7 | add_token,entangled,1 | add_token,confusion,2 | add_token,vuln,2</t>
         </is>
       </c>
       <c r="O231" t="inlineStr">
@@ -12268,7 +12268,7 @@
       <c r="M232" t="inlineStr"/>
       <c r="N232" t="inlineStr">
         <is>
-          <t>charge,5 | WHEN:move:HIT_TARGETS | add_token,blind,2 | add_token,confusion,2</t>
+          <t>charge,5 | add_token,blind,2 | add_token,confusion,2</t>
         </is>
       </c>
       <c r="O232" t="inlineStr">
@@ -12319,7 +12319,7 @@
       <c r="M233" t="inlineStr"/>
       <c r="N233" t="inlineStr">
         <is>
-          <t>WHEN:move:MOVE_USER | add_token,riposte,1</t>
+          <t>add_token,riposte,1</t>
         </is>
       </c>
       <c r="O233" t="inlineStr">
@@ -12419,7 +12419,7 @@
       <c r="M235" t="inlineStr"/>
       <c r="N235" t="inlineStr">
         <is>
-          <t>WHEN:move:HIT_TARGETS | disrupt</t>
+          <t>disrupt</t>
         </is>
       </c>
       <c r="O235" t="inlineStr">
@@ -12470,7 +12470,7 @@
       <c r="M236" t="inlineStr"/>
       <c r="N236" t="inlineStr">
         <is>
-          <t>WHEN:move:HIT_TARGETS | disrupt | add_token,blind,1</t>
+          <t>disrupt | add_token,blind,1</t>
         </is>
       </c>
       <c r="O236" t="inlineStr">
@@ -12527,7 +12527,7 @@
       <c r="M237" t="inlineStr"/>
       <c r="N237" t="inlineStr">
         <is>
-          <t>WHEN:move:HIT_TARGETS | disrupt</t>
+          <t>disrupt</t>
         </is>
       </c>
       <c r="O237" t="inlineStr">
@@ -12588,7 +12588,7 @@
       <c r="M238" t="inlineStr"/>
       <c r="N238" t="inlineStr">
         <is>
-          <t>charge,6 | WHEN:move:ALLY_TARGETS | add_dot,regen,2 | ENDWHEN | IF:is_critical | heal</t>
+          <t>charge,6 | add_dot,regen,2 | ENDWHEN | IF:is_critical | heal</t>
         </is>
       </c>
       <c r="O238" t="inlineStr">
@@ -12645,7 +12645,7 @@
       </c>
       <c r="N239" t="inlineStr">
         <is>
-          <t>WHEN:move:HIT_TARGETS | add_token,strength,2 | IF:is_critical | add_token,strength,2</t>
+          <t>add_token,strength,2 | IF:is_critical | add_token,strength,2</t>
         </is>
       </c>
       <c r="O239" t="inlineStr">
@@ -12802,7 +12802,7 @@
       </c>
       <c r="N242" t="inlineStr">
         <is>
-          <t>charge,5 | WHEN:move:HIT_TARGETS | add_token,shield,2 | IF:is_critical | add_token,shield,2</t>
+          <t>charge,5 | add_token,shield,2 | IF:is_critical | add_token,shield,2</t>
         </is>
       </c>
       <c r="O242" t="inlineStr">
@@ -12855,7 +12855,7 @@
       <c r="M243" t="inlineStr"/>
       <c r="N243" t="inlineStr">
         <is>
-          <t>WHEN:move:HIT_TARGETS | add_dot,bleed,1 | add_token,vuln,1</t>
+          <t>add_dot,bleed,1 | add_token,vuln,1</t>
         </is>
       </c>
       <c r="O243" t="inlineStr">
@@ -12912,7 +12912,7 @@
       <c r="M244" t="inlineStr"/>
       <c r="N244" t="inlineStr">
         <is>
-          <t>WHEN:move:HIT_TARGETS | add_dot,bleed,1</t>
+          <t>add_dot,bleed,1</t>
         </is>
       </c>
       <c r="O244" t="inlineStr">
@@ -12971,7 +12971,7 @@
       <c r="M245" t="inlineStr"/>
       <c r="N245" t="inlineStr">
         <is>
-          <t>charge,10 | WHEN:move:HIT_TARGETS | add_token,drunk,1</t>
+          <t>charge,10 | add_token,drunk,1</t>
         </is>
       </c>
       <c r="O245" t="inlineStr">
@@ -13028,7 +13028,7 @@
       <c r="M246" t="inlineStr"/>
       <c r="N246" t="inlineStr">
         <is>
-          <t>charge,10 | WHEN:move:HIT_TARGETS | shuffle</t>
+          <t>charge,10 | shuffle</t>
         </is>
       </c>
       <c r="O246" t="inlineStr">
@@ -13136,7 +13136,7 @@
       <c r="M248" t="inlineStr"/>
       <c r="N248" t="inlineStr">
         <is>
-          <t>WHEN:move:HIT_TARGETS | add_token,drunk,1</t>
+          <t>add_token,drunk,1</t>
         </is>
       </c>
       <c r="O248" t="inlineStr">
@@ -13189,7 +13189,7 @@
       </c>
       <c r="N249" t="inlineStr">
         <is>
-          <t>WHEN:move:MOVE_USER | unequip_wearable_in_slot,panties | WHEN:move:HIT_TARGETS | add_token,confusion,1</t>
+          <t>unequip_wearable_in_slot,panties | add_token,confusion,1</t>
         </is>
       </c>
       <c r="O249" t="inlineStr">
@@ -13246,7 +13246,7 @@
       <c r="M250" t="inlineStr"/>
       <c r="N250" t="inlineStr">
         <is>
-          <t>WHEN:move:HIT_TARGETS | add_lust,5 | IF:above_stat,lust,35 | disrupt | ENDIF | add_token,confusion,1</t>
+          <t>add_lust,5 | IF:above_stat,lust,35 | disrupt | ENDIF | add_token,confusion,1</t>
         </is>
       </c>
       <c r="O250" t="inlineStr">
@@ -13350,7 +13350,7 @@
       <c r="M252" t="inlineStr"/>
       <c r="N252" t="inlineStr">
         <is>
-          <t>WHEN:move:MOVE_USER | reduce_token,taunt,1 | WHEN:move:HIT_TARGETS | add_token,taunt,1</t>
+          <t>reduce_token,taunt,1 | add_token,taunt,1</t>
         </is>
       </c>
       <c r="O252" t="inlineStr">
@@ -13409,7 +13409,7 @@
       </c>
       <c r="N253" t="inlineStr">
         <is>
-          <t>WHEN:move:HIT_TARGETS | add_token,arousal,2 | add_lust,10 | IF:above_stat,lust,30 | disrupt | ENDIF | IF:is_critical | add_token,arousal,3</t>
+          <t>add_token,arousal,2 | add_lust,10 | IF:above_stat,lust,30 | disrupt | ENDIF | IF:is_critical | add_token,arousal,3</t>
         </is>
       </c>
       <c r="O253" t="inlineStr">
@@ -13513,7 +13513,7 @@
       </c>
       <c r="N255" t="inlineStr">
         <is>
-          <t>IF:HIT_TARGETS:has_slot,bra | IF:MOVE_USER:no_slot,bra | WHEN:move:HIT_TARGETS | swap_gear,bra | ENDIF | ELSE:IF:MOVE_USER:has_slot,bra | HIT_TARGETS: | unequip_wearable_in_slot,bra | ENDWHEN | ENDIF | ENDIF | WHEN:move:HIT_TARGETS | MOVE_USER | add_token,taunt,1</t>
+          <t>IF:HIT_TARGETS:has_slot,bra | IF:MOVE_USER:no_slot,bra | swap_gear,bra | ENDIF | ELSE:IF:MOVE_USER:has_slot,bra | HIT_TARGETS: | unequip_wearable_in_slot,bra | ENDWHEN | ENDIF | ENDIF | MOVE_USER | add_token,taunt,1</t>
         </is>
       </c>
       <c r="O255" t="inlineStr">
@@ -13570,7 +13570,7 @@
       <c r="M256" t="inlineStr"/>
       <c r="N256" t="inlineStr">
         <is>
-          <t>WHEN:move:HIT_TARGETS | add_token,weak,1</t>
+          <t>add_token,weak,1</t>
         </is>
       </c>
       <c r="O256" t="inlineStr">
@@ -13623,7 +13623,7 @@
       <c r="M257" t="inlineStr"/>
       <c r="N257" t="inlineStr">
         <is>
-          <t>WHEN:move:HIT_TARGETS | add_token,strength,2</t>
+          <t>add_token,strength,2</t>
         </is>
       </c>
       <c r="O257" t="inlineStr">
@@ -13735,7 +13735,7 @@
       <c r="M259" t="inlineStr"/>
       <c r="N259" t="inlineStr">
         <is>
-          <t>WHEN:move:HIT_TARGETS | swap_gear,top,bottom | add_token,vuln,2 | add_token,vuln,2 | add_token,weak,3 | disrupt | MOVE_USER | clear_tokens,frost</t>
+          <t>swap_gear,top,bottom | add_token,vuln,2 | add_token,vuln,2 | add_token,weak,3 | disrupt | MOVE_USER | clear_tokens,frost</t>
         </is>
       </c>
       <c r="O259" t="inlineStr">
@@ -13794,7 +13794,7 @@
       <c r="M260" t="inlineStr"/>
       <c r="N260" t="inlineStr">
         <is>
-          <t>WHEN:move:HIT_TARGETS | add_lust,5 | IF:above_stat,lust,30 | disrupt | ENDIF | add_token,vuln,2</t>
+          <t>add_lust,5 | IF:above_stat,lust,30 | disrupt | ENDIF | add_token,vuln,2</t>
         </is>
       </c>
       <c r="O260" t="inlineStr">
@@ -13849,7 +13849,7 @@
       <c r="M261" t="inlineStr"/>
       <c r="N261" t="inlineStr">
         <is>
-          <t>WHEN:move:MOVE_USER | add_token,frost,5 | add_dot,regen,1</t>
+          <t>add_token,frost,5 | add_dot,regen,1</t>
         </is>
       </c>
       <c r="O261" t="inlineStr">
@@ -13906,7 +13906,7 @@
       <c r="M262" t="inlineStr"/>
       <c r="N262" t="inlineStr">
         <is>
-          <t>WHEN:move:HIT_TARGETS | disrupt</t>
+          <t>disrupt</t>
         </is>
       </c>
       <c r="O262" t="inlineStr">
@@ -13959,7 +13959,7 @@
       <c r="M263" t="inlineStr"/>
       <c r="N263" t="inlineStr">
         <is>
-          <t>ignore_tokens,block | WHEN:move:HIT_TARGETS | reduce_token,block,1</t>
+          <t>ignore_tokens,block | reduce_token,block,1</t>
         </is>
       </c>
       <c r="O263" t="inlineStr">
@@ -14016,7 +14016,7 @@
       <c r="M264" t="inlineStr"/>
       <c r="N264" t="inlineStr">
         <is>
-          <t>WHEN:move:HIT_TARGETS | unequip_wearable_in_slot,top | add_dot,bleed,1</t>
+          <t>unequip_wearable_in_slot,top | add_dot,bleed,1</t>
         </is>
       </c>
       <c r="O264" t="inlineStr">
@@ -14075,7 +14075,7 @@
       <c r="M265" t="inlineStr"/>
       <c r="N265" t="inlineStr">
         <is>
-          <t>WHEN:move:HIT_TARGETS | add_token,strength,2</t>
+          <t>add_token,strength,2</t>
         </is>
       </c>
       <c r="O265" t="inlineStr">
@@ -14128,7 +14128,7 @@
       <c r="M266" t="inlineStr"/>
       <c r="N266" t="inlineStr">
         <is>
-          <t>WHEN:move:MOVE_USER | move_front,3 | WHEN:move:HIT_TARGETS | unequip_wearable_in_slot,panties | move_back,1 | disrupt</t>
+          <t>move_front,3 | unequip_wearable_in_slot,panties | move_back,1 | disrupt</t>
         </is>
       </c>
       <c r="O266" t="inlineStr">
@@ -14242,7 +14242,7 @@
       <c r="M268" t="inlineStr"/>
       <c r="N268" t="inlineStr">
         <is>
-          <t>WHEN:move:HIT_TARGETS | add_token,strength,2</t>
+          <t>add_token,strength,2</t>
         </is>
       </c>
       <c r="O268" t="inlineStr">
@@ -14295,7 +14295,7 @@
       <c r="M269" t="inlineStr"/>
       <c r="N269" t="inlineStr">
         <is>
-          <t>WHEN:move:HIT_TARGETS | add_token,guard,1</t>
+          <t>add_token,guard,1</t>
         </is>
       </c>
       <c r="O269" t="inlineStr">
@@ -14354,7 +14354,7 @@
       <c r="M270" t="inlineStr"/>
       <c r="N270" t="inlineStr">
         <is>
-          <t>charge,7 | WHEN:move:HIT_TARGETS | reduce_token,confusion,2 | reduce_token,drunk,2 | reduce_token,weak,2 | reduce_token,vuln,2</t>
+          <t>charge,7 | reduce_token,confusion,2 | reduce_token,drunk,2 | reduce_token,weak,2 | reduce_token,vuln,2</t>
         </is>
       </c>
       <c r="O270" t="inlineStr">
@@ -14415,7 +14415,7 @@
       <c r="M271" t="inlineStr"/>
       <c r="N271" t="inlineStr">
         <is>
-          <t>charge,3 | WHEN:move:HIT_TARGETS | add_dot,regen,2</t>
+          <t>charge,3 | add_dot,regen,2</t>
         </is>
       </c>
       <c r="O271" t="inlineStr">

--- a/FMoves.xlsx
+++ b/FMoves.xlsx
@@ -506,12 +506,12 @@
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
+          <t>requirements</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
           <t>ID</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>requirements</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
@@ -563,12 +563,12 @@
           <t>add_dot,bleed,4</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr">
         <is>
           <t>arterial_pinch</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr"/>
     </row>
     <row r="3">
@@ -614,12 +614,12 @@
           <t>reduce_token,taunt,2 | move_back,1</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr">
         <is>
           <t>create_distance</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
     </row>
     <row r="4">
@@ -665,12 +665,12 @@
           <t>add_token,riposte,2</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr">
         <is>
           <t>duelist_advance</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
     </row>
     <row r="5">
@@ -716,12 +716,12 @@
           <t>add_dot,bleed,2</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr">
         <is>
           <t>incision</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
     </row>
     <row r="6">
@@ -767,12 +767,12 @@
           <t>duplicate_dot,bleed,poison</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr">
         <is>
           <t>infection</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
     </row>
     <row r="7">
@@ -818,12 +818,12 @@
           <t>charge,5 | add_token,vuln,3 | move_front,3</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr">
         <is>
           <t>lunge</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
     </row>
     <row r="8">
@@ -869,12 +869,12 @@
           <t>add_dot,bleed,2</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr">
         <is>
           <t>open_vein</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
     </row>
     <row r="9">
@@ -916,12 +916,12 @@
           <t>add_token,blind,2 | add_token,weak,2</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr">
         <is>
           <t>pocket_sand</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
     </row>
     <row r="10">
@@ -965,12 +965,12 @@
           <t>charge,5 | move_front,2 | disrupt</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr">
         <is>
           <t>rope_grab</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
     </row>
     <row r="11">
@@ -1012,12 +1012,12 @@
           <t>reduce_token,taunt,2 | add_token,shield,2 | move_back,1</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr">
         <is>
           <t>shadow_fade</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
     </row>
     <row r="12">
@@ -1065,12 +1065,12 @@
           <t>charge,15 | shuffle</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr">
         <is>
           <t>smoke_bomb</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr"/>
     </row>
     <row r="13">
@@ -1116,12 +1116,12 @@
           <t>move_back,1 | add_dot,bleed,3</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr">
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr">
         <is>
           <t>upperslice</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr"/>
     </row>
     <row r="14">
@@ -1163,12 +1163,12 @@
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr">
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr">
         <is>
           <t>iron_swan</t>
         </is>
       </c>
-      <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr"/>
     </row>
     <row r="15">
@@ -1214,12 +1214,12 @@
           <t>recoil,3</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr">
+      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="inlineStr">
         <is>
           <t>rupture</t>
         </is>
       </c>
-      <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr"/>
     </row>
     <row r="16">
@@ -1265,12 +1265,12 @@
           <t>add_delay,10</t>
         </is>
       </c>
-      <c r="O16" t="inlineStr">
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr">
         <is>
           <t>stunning_blow</t>
         </is>
       </c>
-      <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr"/>
     </row>
     <row r="17">
@@ -1314,12 +1314,12 @@
           <t>add_token,strength,1 | add_token,vuln,1</t>
         </is>
       </c>
-      <c r="O17" t="inlineStr">
+      <c r="O17" t="inlineStr"/>
+      <c r="P17" t="inlineStr">
         <is>
           <t>warcry</t>
         </is>
       </c>
-      <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr"/>
     </row>
     <row r="18">
@@ -1365,12 +1365,12 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
+          <t>TARGET:has_token,confusion,3</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
           <t>command_cum</t>
-        </is>
-      </c>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>TARGET:has_token,confusion,3</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr"/>
@@ -1418,12 +1418,12 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
+          <t>TARGET:has_token,confusion,5</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
           <t>command_die</t>
-        </is>
-      </c>
-      <c r="P19" t="inlineStr">
-        <is>
-          <t>TARGET:has_token,confusion,5</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr"/>
@@ -1471,12 +1471,12 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
+          <t>TARGET:has_token,confusion,1</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
           <t>command_grovel</t>
-        </is>
-      </c>
-      <c r="P20" t="inlineStr">
-        <is>
-          <t>TARGET:has_token,confusion,1</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr"/>
@@ -1524,12 +1524,12 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
+          <t>TARGET:has_token,confusion,2</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
           <t>command_strip</t>
-        </is>
-      </c>
-      <c r="P21" t="inlineStr">
-        <is>
-          <t>TARGET:has_token,confusion,2</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr"/>
@@ -1575,12 +1575,12 @@
           <t>add_token,confusion,5 | IF:is_critical | add_token,confusion,5</t>
         </is>
       </c>
-      <c r="O22" t="inlineStr">
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr">
         <is>
           <t>hypnoburst</t>
         </is>
       </c>
-      <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr"/>
     </row>
     <row r="23">
@@ -1628,12 +1628,12 @@
           <t>charge,5 | add_token,confusion,3 | IF:is_critical | add_token,confusion,3</t>
         </is>
       </c>
-      <c r="O23" t="inlineStr">
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr">
         <is>
           <t>hypnowave</t>
         </is>
       </c>
-      <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr"/>
     </row>
     <row r="24">
@@ -1687,12 +1687,12 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
+          <t>NOT:has_slot,gag</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
           <t>leech_life</t>
-        </is>
-      </c>
-      <c r="P24" t="inlineStr">
-        <is>
-          <t>NOT:has_slot,gag</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr"/>
@@ -1738,12 +1738,12 @@
           <t>add_token,strength,2 | lust_damage,10 | IF:is_critical | add_dot,regen,2 | lust_damage,10</t>
         </is>
       </c>
-      <c r="O25" t="inlineStr">
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr">
         <is>
           <t>charge_staff</t>
         </is>
       </c>
-      <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr"/>
     </row>
     <row r="26">
@@ -1791,12 +1791,12 @@
           <t>charge,8 | heal | add_dot,regen,1</t>
         </is>
       </c>
-      <c r="O26" t="inlineStr">
+      <c r="O26" t="inlineStr"/>
+      <c r="P26" t="inlineStr">
         <is>
           <t>group_heal</t>
         </is>
       </c>
-      <c r="P26" t="inlineStr"/>
       <c r="Q26" t="inlineStr"/>
     </row>
     <row r="27">
@@ -1846,12 +1846,12 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
+          <t>TARGET:has_highest_lust</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
           <t>holy_bolt</t>
-        </is>
-      </c>
-      <c r="P27" t="inlineStr">
-        <is>
-          <t>TARGET:has_highest_lust</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr"/>
@@ -1901,12 +1901,12 @@
           <t>charge,5 | add_token,block,3</t>
         </is>
       </c>
-      <c r="O28" t="inlineStr">
+      <c r="O28" t="inlineStr"/>
+      <c r="P28" t="inlineStr">
         <is>
           <t>shield_of_faith</t>
         </is>
       </c>
-      <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr"/>
     </row>
     <row r="29">
@@ -1954,12 +1954,12 @@
           <t>heal</t>
         </is>
       </c>
-      <c r="O29" t="inlineStr">
+      <c r="O29" t="inlineStr"/>
+      <c r="P29" t="inlineStr">
         <is>
           <t>single_heal</t>
         </is>
       </c>
-      <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr"/>
     </row>
     <row r="30">
@@ -2005,12 +2005,12 @@
           <t>IF:above_stat,lust,30 | disrupt | ENDIF | lust_damage,10</t>
         </is>
       </c>
-      <c r="O30" t="inlineStr">
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr">
         <is>
           <t>vibrating_staff</t>
         </is>
       </c>
-      <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr"/>
     </row>
     <row r="31">
@@ -2056,12 +2056,12 @@
           <t>FOR:TARGET:token,petrification | damage_bonus,3</t>
         </is>
       </c>
-      <c r="O31" t="inlineStr">
+      <c r="O31" t="inlineStr"/>
+      <c r="P31" t="inlineStr">
         <is>
           <t>chisel</t>
         </is>
       </c>
-      <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr"/>
     </row>
     <row r="32">
@@ -2107,12 +2107,12 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
+          <t>TARGET:above_stat,lust,25</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
           <t>distract</t>
-        </is>
-      </c>
-      <c r="P32" t="inlineStr">
-        <is>
-          <t>TARGET:above_stat,lust,25</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr"/>
@@ -2160,12 +2160,12 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
+          <t>TARGET:above_stat,lust,50</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
           <t>drain_life</t>
-        </is>
-      </c>
-      <c r="P33" t="inlineStr">
-        <is>
-          <t>TARGET:above_stat,lust,50</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr"/>
@@ -2211,12 +2211,12 @@
           <t>charge,10 | IF:has_token,petrification,5: | add_perk,petrified | ENDIF | add_token,petrification,5</t>
         </is>
       </c>
-      <c r="O34" t="inlineStr">
+      <c r="O34" t="inlineStr"/>
+      <c r="P34" t="inlineStr">
         <is>
           <t>petrify</t>
         </is>
       </c>
-      <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr"/>
     </row>
     <row r="35">
@@ -2262,12 +2262,12 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
+          <t>TARGET:above_stat,lust,25</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
           <t>sap_strength</t>
-        </is>
-      </c>
-      <c r="P35" t="inlineStr">
-        <is>
-          <t>TARGET:above_stat,lust,25</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr"/>
@@ -2319,12 +2319,12 @@
           <t>charge,20 | set_token,block,5</t>
         </is>
       </c>
-      <c r="O36" t="inlineStr">
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr">
         <is>
           <t>sculpt_armor</t>
         </is>
       </c>
-      <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr"/>
     </row>
     <row r="37">
@@ -2368,12 +2368,12 @@
           <t>add_lust,20 | IF:is_critical | add_lust,20</t>
         </is>
       </c>
-      <c r="O37" t="inlineStr">
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr">
         <is>
           <t>seduce</t>
         </is>
       </c>
-      <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr"/>
     </row>
     <row r="38">
@@ -2413,12 +2413,12 @@
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr">
         <is>
+          <t>TARGET:has_token,petrification,5</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
           <t>shatter</t>
-        </is>
-      </c>
-      <c r="P38" t="inlineStr">
-        <is>
-          <t>TARGET:has_token,petrification,5</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr"/>
@@ -2466,12 +2466,12 @@
           <t>charge,10 | equip_wearables,yoke</t>
         </is>
       </c>
-      <c r="O39" t="inlineStr">
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr">
         <is>
           <t>apply_yoke</t>
         </is>
       </c>
-      <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr"/>
     </row>
     <row r="40">
@@ -2515,12 +2515,12 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
+          <t>NOT:has_token,wildshape,1</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
           <t>druid_transform</t>
-        </is>
-      </c>
-      <c r="P40" t="inlineStr">
-        <is>
-          <t>NOT:has_token,wildshape,1</t>
         </is>
       </c>
       <c r="Q40" t="inlineStr"/>
@@ -2566,12 +2566,12 @@
           <t>add_token,entangled,2</t>
         </is>
       </c>
-      <c r="O41" t="inlineStr">
+      <c r="O41" t="inlineStr"/>
+      <c r="P41" t="inlineStr">
         <is>
           <t>entangle</t>
         </is>
       </c>
-      <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr"/>
     </row>
     <row r="42">
@@ -2619,12 +2619,12 @@
           <t>heal | add_dot,regen,2</t>
         </is>
       </c>
-      <c r="O42" t="inlineStr">
+      <c r="O42" t="inlineStr"/>
+      <c r="P42" t="inlineStr">
         <is>
           <t>ingrain</t>
         </is>
       </c>
-      <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr"/>
     </row>
     <row r="43">
@@ -2670,12 +2670,12 @@
           <t>IF:below_turns,5 | damage_bonus,1 | ENDIF | IF:below_turns,10 | damage_bonus,1 | ENDIF | IF:below_turns,20 | damage_bonus,1 | ENDIF</t>
         </is>
       </c>
-      <c r="O43" t="inlineStr">
+      <c r="O43" t="inlineStr"/>
+      <c r="P43" t="inlineStr">
         <is>
           <t>morning_wood</t>
         </is>
       </c>
-      <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr"/>
     </row>
     <row r="44">
@@ -2723,12 +2723,12 @@
           <t>add_token,arousal,1 | IF:is_critical | add_token,vuln,1</t>
         </is>
       </c>
-      <c r="O44" t="inlineStr">
+      <c r="O44" t="inlineStr"/>
+      <c r="P44" t="inlineStr">
         <is>
           <t>pheromones</t>
         </is>
       </c>
-      <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr"/>
     </row>
     <row r="45">
@@ -2774,12 +2774,12 @@
       <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr">
         <is>
+          <t>TARGET:not_race,bat,harpy</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
           <t>stirring_roots</t>
-        </is>
-      </c>
-      <c r="P45" t="inlineStr">
-        <is>
-          <t>TARGET:not_race,bat,harpy</t>
         </is>
       </c>
       <c r="Q45" t="inlineStr"/>
@@ -2827,12 +2827,12 @@
           <t>equip_wearables,vine_rope</t>
         </is>
       </c>
-      <c r="O46" t="inlineStr">
+      <c r="O46" t="inlineStr"/>
+      <c r="P46" t="inlineStr">
         <is>
           <t>vine_rope</t>
         </is>
       </c>
-      <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr"/>
     </row>
     <row r="47">
@@ -2882,12 +2882,12 @@
           <t>move_front,1</t>
         </is>
       </c>
-      <c r="O47" t="inlineStr">
+      <c r="O47" t="inlineStr"/>
+      <c r="P47" t="inlineStr">
         <is>
           <t>vine_whip</t>
         </is>
       </c>
-      <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr"/>
     </row>
     <row r="48">
@@ -2933,12 +2933,12 @@
           <t>add_token,strength,1</t>
         </is>
       </c>
-      <c r="O48" t="inlineStr">
+      <c r="O48" t="inlineStr"/>
+      <c r="P48" t="inlineStr">
         <is>
           <t>wooden_fists</t>
         </is>
       </c>
-      <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr"/>
     </row>
     <row r="49">
@@ -2986,12 +2986,12 @@
           <t>add_delay,2</t>
         </is>
       </c>
-      <c r="O49" t="inlineStr">
+      <c r="O49" t="inlineStr"/>
+      <c r="P49" t="inlineStr">
         <is>
           <t>electric_field</t>
         </is>
       </c>
-      <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr"/>
     </row>
     <row r="50">
@@ -3037,12 +3037,12 @@
           <t>charge,5 | add_lust,20</t>
         </is>
       </c>
-      <c r="O50" t="inlineStr">
+      <c r="O50" t="inlineStr"/>
+      <c r="P50" t="inlineStr">
         <is>
           <t>electrostimulation</t>
         </is>
       </c>
-      <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr"/>
     </row>
     <row r="51">
@@ -3090,12 +3090,12 @@
           <t>charge,5 | reduce_negative_token,4 | add_token,strength,2 | add_lust,-10</t>
         </is>
       </c>
-      <c r="O51" t="inlineStr">
+      <c r="O51" t="inlineStr"/>
+      <c r="P51" t="inlineStr">
         <is>
           <t>shock_therapy</t>
         </is>
       </c>
-      <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr"/>
     </row>
     <row r="52">
@@ -3141,12 +3141,12 @@
           <t>add_delay,10</t>
         </is>
       </c>
-      <c r="O52" t="inlineStr">
+      <c r="O52" t="inlineStr"/>
+      <c r="P52" t="inlineStr">
         <is>
           <t>stun</t>
         </is>
       </c>
-      <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr"/>
     </row>
     <row r="53">
@@ -3194,12 +3194,12 @@
           <t>charge,20</t>
         </is>
       </c>
-      <c r="O53" t="inlineStr">
+      <c r="O53" t="inlineStr"/>
+      <c r="P53" t="inlineStr">
         <is>
           <t>thunder</t>
         </is>
       </c>
-      <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr"/>
     </row>
     <row r="54">
@@ -3243,12 +3243,12 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
+          <t>SELF:can_stack_dot,bleed,5</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
           <t>adrenaline</t>
-        </is>
-      </c>
-      <c r="P54" t="inlineStr">
-        <is>
-          <t>SELF:can_stack_dot,bleed,5</t>
         </is>
       </c>
       <c r="Q54" t="inlineStr"/>
@@ -3296,12 +3296,12 @@
           <t>add_token,weak,2</t>
         </is>
       </c>
-      <c r="O55" t="inlineStr">
+      <c r="O55" t="inlineStr"/>
+      <c r="P55" t="inlineStr">
         <is>
           <t>crippling_strike</t>
         </is>
       </c>
-      <c r="P55" t="inlineStr"/>
       <c r="Q55" t="inlineStr"/>
     </row>
     <row r="56">
@@ -3347,12 +3347,12 @@
           <t>add_token,blind,2</t>
         </is>
       </c>
-      <c r="O56" t="inlineStr">
+      <c r="O56" t="inlineStr"/>
+      <c r="P56" t="inlineStr">
         <is>
           <t>eye_scratch</t>
         </is>
       </c>
-      <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr"/>
     </row>
     <row r="57">
@@ -3396,12 +3396,12 @@
           <t>move_front,2</t>
         </is>
       </c>
-      <c r="O57" t="inlineStr">
+      <c r="O57" t="inlineStr"/>
+      <c r="P57" t="inlineStr">
         <is>
           <t>rabid_rush</t>
         </is>
       </c>
-      <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr"/>
     </row>
     <row r="58">
@@ -3451,12 +3451,12 @@
           <t>add_token,vuln,2</t>
         </is>
       </c>
-      <c r="O58" t="inlineStr">
+      <c r="O58" t="inlineStr"/>
+      <c r="P58" t="inlineStr">
         <is>
           <t>vicious_strike</t>
         </is>
       </c>
-      <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr"/>
     </row>
     <row r="59">
@@ -3498,12 +3498,12 @@
           <t>charge,10 | add_token,encore,2</t>
         </is>
       </c>
-      <c r="O59" t="inlineStr">
+      <c r="O59" t="inlineStr"/>
+      <c r="P59" t="inlineStr">
         <is>
           <t>encore</t>
         </is>
       </c>
-      <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr"/>
     </row>
     <row r="60">
@@ -3545,12 +3545,12 @@
           <t>charge,10 | add_token,frenzy,2</t>
         </is>
       </c>
-      <c r="O60" t="inlineStr">
+      <c r="O60" t="inlineStr"/>
+      <c r="P60" t="inlineStr">
         <is>
           <t>frenzy</t>
         </is>
       </c>
-      <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr"/>
     </row>
     <row r="61">
@@ -3596,12 +3596,12 @@
           <t>charge,5 | add_token,strength,2</t>
         </is>
       </c>
-      <c r="O61" t="inlineStr">
+      <c r="O61" t="inlineStr"/>
+      <c r="P61" t="inlineStr">
         <is>
           <t>inspire</t>
         </is>
       </c>
-      <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr"/>
     </row>
     <row r="62">
@@ -3647,12 +3647,12 @@
           <t>charge,5 | add_token,vuln,1</t>
         </is>
       </c>
-      <c r="O62" t="inlineStr">
+      <c r="O62" t="inlineStr"/>
+      <c r="P62" t="inlineStr">
         <is>
           <t>lullaby</t>
         </is>
       </c>
-      <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr"/>
     </row>
     <row r="63">
@@ -3694,12 +3694,12 @@
           <t>charge,5 | move_front,1</t>
         </is>
       </c>
-      <c r="O63" t="inlineStr">
+      <c r="O63" t="inlineStr"/>
+      <c r="P63" t="inlineStr">
         <is>
           <t>lure</t>
         </is>
       </c>
-      <c r="P63" t="inlineStr"/>
       <c r="Q63" t="inlineStr"/>
     </row>
     <row r="64">
@@ -3741,12 +3741,12 @@
           <t>ignore_tokens,block</t>
         </is>
       </c>
-      <c r="O64" t="inlineStr">
+      <c r="O64" t="inlineStr"/>
+      <c r="P64" t="inlineStr">
         <is>
           <t>shriek</t>
         </is>
       </c>
-      <c r="P64" t="inlineStr"/>
       <c r="Q64" t="inlineStr"/>
     </row>
     <row r="65">
@@ -3792,12 +3792,12 @@
           <t>add_dot,bleed,1</t>
         </is>
       </c>
-      <c r="O65" t="inlineStr">
+      <c r="O65" t="inlineStr"/>
+      <c r="P65" t="inlineStr">
         <is>
           <t>talonstrike</t>
         </is>
       </c>
-      <c r="P65" t="inlineStr"/>
       <c r="Q65" t="inlineStr"/>
     </row>
     <row r="66">
@@ -3843,12 +3843,12 @@
           <t>charge,10 | add_token,frost,1</t>
         </is>
       </c>
-      <c r="O66" t="inlineStr">
+      <c r="O66" t="inlineStr"/>
+      <c r="P66" t="inlineStr">
         <is>
           <t>ice_blade</t>
         </is>
       </c>
-      <c r="P66" t="inlineStr"/>
       <c r="Q66" t="inlineStr"/>
     </row>
     <row r="67">
@@ -3898,12 +3898,12 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
+          <t>TARGET:has_slot,top,bra</t>
+        </is>
+      </c>
+      <c r="P67" t="inlineStr">
+        <is>
           <t>ice_brittle</t>
-        </is>
-      </c>
-      <c r="P67" t="inlineStr">
-        <is>
-          <t>TARGET:has_slot,top,bra</t>
         </is>
       </c>
       <c r="Q67" t="inlineStr"/>
@@ -3953,12 +3953,12 @@
           <t>charge,15 | add_token,block,2</t>
         </is>
       </c>
-      <c r="O68" t="inlineStr">
+      <c r="O68" t="inlineStr"/>
+      <c r="P68" t="inlineStr">
         <is>
           <t>ice_fortress</t>
         </is>
       </c>
-      <c r="P68" t="inlineStr"/>
       <c r="Q68" t="inlineStr"/>
     </row>
     <row r="69">
@@ -4006,12 +4006,12 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
+          <t>TARGET:no_slot,top</t>
+        </is>
+      </c>
+      <c r="P69" t="inlineStr">
+        <is>
           <t>ice_nipples</t>
-        </is>
-      </c>
-      <c r="P69" t="inlineStr">
-        <is>
-          <t>TARGET:no_slot,top</t>
         </is>
       </c>
       <c r="Q69" t="inlineStr"/>
@@ -4061,12 +4061,12 @@
           <t>charge,10 | add_token,frost,1</t>
         </is>
       </c>
-      <c r="O70" t="inlineStr">
+      <c r="O70" t="inlineStr"/>
+      <c r="P70" t="inlineStr">
         <is>
           <t>ice_rain</t>
         </is>
       </c>
-      <c r="P70" t="inlineStr"/>
       <c r="Q70" t="inlineStr"/>
     </row>
     <row r="71">
@@ -4118,12 +4118,12 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
+          <t>TARGET:has_slot,panties,bra</t>
+        </is>
+      </c>
+      <c r="P71" t="inlineStr">
+        <is>
           <t>fabric_piercer</t>
-        </is>
-      </c>
-      <c r="P71" t="inlineStr">
-        <is>
-          <t>TARGET:has_slot,panties,bra</t>
         </is>
       </c>
       <c r="Q71" t="inlineStr"/>
@@ -4169,12 +4169,12 @@
           <t>add_token,strength,2</t>
         </is>
       </c>
-      <c r="O72" t="inlineStr">
+      <c r="O72" t="inlineStr"/>
+      <c r="P72" t="inlineStr">
         <is>
           <t>hone_spear</t>
         </is>
       </c>
-      <c r="P72" t="inlineStr"/>
       <c r="Q72" t="inlineStr"/>
     </row>
     <row r="73">
@@ -4218,12 +4218,12 @@
           <t>charge,5 | move_front,3</t>
         </is>
       </c>
-      <c r="O73" t="inlineStr">
+      <c r="O73" t="inlineStr"/>
+      <c r="P73" t="inlineStr">
         <is>
           <t>lance_charge</t>
         </is>
       </c>
-      <c r="P73" t="inlineStr"/>
       <c r="Q73" t="inlineStr"/>
     </row>
     <row r="74">
@@ -4267,12 +4267,12 @@
           <t>move_back,1 | IF:above_stat,lust,30 | disrupt | ENDIF | lust_damage,10 | add_token,arousal,1 | IF:is_critical | lust_damage,10</t>
         </is>
       </c>
-      <c r="O74" t="inlineStr">
+      <c r="O74" t="inlineStr"/>
+      <c r="P74" t="inlineStr">
         <is>
           <t>sneaky_poke</t>
         </is>
       </c>
-      <c r="P74" t="inlineStr"/>
       <c r="Q74" t="inlineStr"/>
     </row>
     <row r="75">
@@ -4318,12 +4318,12 @@
           <t>move_back,1 | add_dot,bleed,3 | move_back,2</t>
         </is>
       </c>
-      <c r="O75" t="inlineStr">
+      <c r="O75" t="inlineStr"/>
+      <c r="P75" t="inlineStr">
         <is>
           <t>upwards_piercer</t>
         </is>
       </c>
-      <c r="P75" t="inlineStr"/>
       <c r="Q75" t="inlineStr"/>
     </row>
     <row r="76">
@@ -4371,12 +4371,12 @@
       </c>
       <c r="O76" t="inlineStr">
         <is>
+          <t>TARGET:has_highest_lust</t>
+        </is>
+      </c>
+      <c r="P76" t="inlineStr">
+        <is>
           <t>love_blast</t>
-        </is>
-      </c>
-      <c r="P76" t="inlineStr">
-        <is>
-          <t>TARGET:has_highest_lust</t>
         </is>
       </c>
       <c r="Q76" t="inlineStr"/>
@@ -4428,12 +4428,12 @@
           <t>charge,5 | add_token,arousal,3 | add_token,strength,3</t>
         </is>
       </c>
-      <c r="O77" t="inlineStr">
+      <c r="O77" t="inlineStr"/>
+      <c r="P77" t="inlineStr">
         <is>
           <t>love_buff</t>
         </is>
       </c>
-      <c r="P77" t="inlineStr"/>
       <c r="Q77" t="inlineStr"/>
     </row>
     <row r="78">
@@ -4481,12 +4481,12 @@
           <t>add_token,arousal,1</t>
         </is>
       </c>
-      <c r="O78" t="inlineStr">
+      <c r="O78" t="inlineStr"/>
+      <c r="P78" t="inlineStr">
         <is>
           <t>love_cloud</t>
         </is>
       </c>
-      <c r="P78" t="inlineStr"/>
       <c r="Q78" t="inlineStr"/>
     </row>
     <row r="79">
@@ -4536,12 +4536,12 @@
           <t>heal | lust_damage,10 | add_token,arousal,2</t>
         </is>
       </c>
-      <c r="O79" t="inlineStr">
+      <c r="O79" t="inlineStr"/>
+      <c r="P79" t="inlineStr">
         <is>
           <t>love_heal</t>
         </is>
       </c>
-      <c r="P79" t="inlineStr"/>
       <c r="Q79" t="inlineStr"/>
     </row>
     <row r="80">
@@ -4591,12 +4591,12 @@
       </c>
       <c r="O80" t="inlineStr">
         <is>
+          <t>TARGET:has_token,arousal,2</t>
+        </is>
+      </c>
+      <c r="P80" t="inlineStr">
+        <is>
           <t>love_missiles</t>
-        </is>
-      </c>
-      <c r="P80" t="inlineStr">
-        <is>
-          <t>TARGET:has_token,arousal,2</t>
         </is>
       </c>
       <c r="Q80" t="inlineStr"/>
@@ -4646,12 +4646,12 @@
           <t>charge,5 | add_token,block,3</t>
         </is>
       </c>
-      <c r="O81" t="inlineStr">
+      <c r="O81" t="inlineStr"/>
+      <c r="P81" t="inlineStr">
         <is>
           <t>arcane_barrier</t>
         </is>
       </c>
-      <c r="P81" t="inlineStr"/>
       <c r="Q81" t="inlineStr"/>
     </row>
     <row r="82">
@@ -4699,12 +4699,12 @@
           <t>charge,5 | add_token,shield,2</t>
         </is>
       </c>
-      <c r="O82" t="inlineStr">
+      <c r="O82" t="inlineStr"/>
+      <c r="P82" t="inlineStr">
         <is>
           <t>arcane_shield</t>
         </is>
       </c>
-      <c r="P82" t="inlineStr"/>
       <c r="Q82" t="inlineStr"/>
     </row>
     <row r="83">
@@ -4750,12 +4750,12 @@
           <t>charge,5 | add_dot,fire,2</t>
         </is>
       </c>
-      <c r="O83" t="inlineStr">
+      <c r="O83" t="inlineStr"/>
+      <c r="P83" t="inlineStr">
         <is>
           <t>fireball</t>
         </is>
       </c>
-      <c r="P83" t="inlineStr"/>
       <c r="Q83" t="inlineStr"/>
     </row>
     <row r="84">
@@ -4801,12 +4801,12 @@
           <t>charge,5 | add_dot,fire,2</t>
         </is>
       </c>
-      <c r="O84" t="inlineStr">
+      <c r="O84" t="inlineStr"/>
+      <c r="P84" t="inlineStr">
         <is>
           <t>firebolt</t>
         </is>
       </c>
-      <c r="P84" t="inlineStr"/>
       <c r="Q84" t="inlineStr"/>
     </row>
     <row r="85">
@@ -4856,12 +4856,12 @@
           <t>add_dot,fire,2</t>
         </is>
       </c>
-      <c r="O85" t="inlineStr">
+      <c r="O85" t="inlineStr"/>
+      <c r="P85" t="inlineStr">
         <is>
           <t>flashfire</t>
         </is>
       </c>
-      <c r="P85" t="inlineStr"/>
       <c r="Q85" t="inlineStr"/>
     </row>
     <row r="86">
@@ -4907,12 +4907,12 @@
           <t>charge,15 | swap_gear,panties,bra</t>
         </is>
       </c>
-      <c r="O86" t="inlineStr">
+      <c r="O86" t="inlineStr"/>
+      <c r="P86" t="inlineStr">
         <is>
           <t>gear_teleportation</t>
         </is>
       </c>
-      <c r="P86" t="inlineStr"/>
       <c r="Q86" t="inlineStr"/>
     </row>
     <row r="87">
@@ -4956,12 +4956,12 @@
           <t>charge,5 | ignore_tokens,block,shield</t>
         </is>
       </c>
-      <c r="O87" t="inlineStr">
+      <c r="O87" t="inlineStr"/>
+      <c r="P87" t="inlineStr">
         <is>
           <t>magic_missile</t>
         </is>
       </c>
-      <c r="P87" t="inlineStr"/>
       <c r="Q87" t="inlineStr"/>
     </row>
     <row r="88">
@@ -5011,12 +5011,12 @@
       </c>
       <c r="O88" t="inlineStr">
         <is>
+          <t>TARGET:is_charging</t>
+        </is>
+      </c>
+      <c r="P88" t="inlineStr">
+        <is>
           <t>vine_reconstruction</t>
-        </is>
-      </c>
-      <c r="P88" t="inlineStr">
-        <is>
-          <t>TARGET:is_charging</t>
         </is>
       </c>
       <c r="Q88" t="inlineStr"/>
@@ -5068,12 +5068,12 @@
           <t>charge,5 | FOR:token,gait | damage_bonus,2</t>
         </is>
       </c>
-      <c r="O89" t="inlineStr">
+      <c r="O89" t="inlineStr"/>
+      <c r="P89" t="inlineStr">
         <is>
           <t>backstomp</t>
         </is>
       </c>
-      <c r="P89" t="inlineStr"/>
       <c r="Q89" t="inlineStr"/>
     </row>
     <row r="90">
@@ -5121,12 +5121,12 @@
       </c>
       <c r="O90" t="inlineStr">
         <is>
+          <t>TARGET:has_negative_dot,1</t>
+        </is>
+      </c>
+      <c r="P90" t="inlineStr">
+        <is>
           <t>burden</t>
-        </is>
-      </c>
-      <c r="P90" t="inlineStr">
-        <is>
-          <t>TARGET:has_negative_dot,1</t>
         </is>
       </c>
       <c r="Q90" t="inlineStr"/>
@@ -5172,12 +5172,12 @@
           <t>charge,10 | add_token,gait,5</t>
         </is>
       </c>
-      <c r="O91" t="inlineStr">
+      <c r="O91" t="inlineStr"/>
+      <c r="P91" t="inlineStr">
         <is>
           <t>speedup</t>
         </is>
       </c>
-      <c r="P91" t="inlineStr"/>
       <c r="Q91" t="inlineStr"/>
     </row>
     <row r="92">
@@ -5221,12 +5221,12 @@
       </c>
       <c r="O92" t="inlineStr">
         <is>
+          <t>SELF:has_token,gait,1</t>
+        </is>
+      </c>
+      <c r="P92" t="inlineStr">
+        <is>
           <t>steady</t>
-        </is>
-      </c>
-      <c r="P92" t="inlineStr">
-        <is>
-          <t>SELF:has_token,gait,1</t>
         </is>
       </c>
       <c r="Q92" t="inlineStr"/>
@@ -5280,12 +5280,12 @@
       </c>
       <c r="O93" t="inlineStr">
         <is>
+          <t>SELF:has_token,gait,5</t>
+        </is>
+      </c>
+      <c r="P93" t="inlineStr">
+        <is>
           <t>trample</t>
-        </is>
-      </c>
-      <c r="P93" t="inlineStr">
-        <is>
-          <t>SELF:has_token,gait,5</t>
         </is>
       </c>
       <c r="Q93" t="inlineStr"/>
@@ -5329,12 +5329,12 @@
           <t>add_token,guard,1</t>
         </is>
       </c>
-      <c r="O94" t="inlineStr">
+      <c r="O94" t="inlineStr"/>
+      <c r="P94" t="inlineStr">
         <is>
           <t>guard</t>
         </is>
       </c>
-      <c r="P94" t="inlineStr"/>
       <c r="Q94" t="inlineStr"/>
     </row>
     <row r="95">
@@ -5380,12 +5380,12 @@
           <t>charge,5 | add_token,taunt,1</t>
         </is>
       </c>
-      <c r="O95" t="inlineStr">
+      <c r="O95" t="inlineStr"/>
+      <c r="P95" t="inlineStr">
         <is>
           <t>illuminate</t>
         </is>
       </c>
-      <c r="P95" t="inlineStr"/>
       <c r="Q95" t="inlineStr"/>
     </row>
     <row r="96">
@@ -5435,12 +5435,12 @@
       </c>
       <c r="O96" t="inlineStr">
         <is>
+          <t>TARGET:has_dot,bleed,1</t>
+        </is>
+      </c>
+      <c r="P96" t="inlineStr">
+        <is>
           <t>lay_on_hands</t>
-        </is>
-      </c>
-      <c r="P96" t="inlineStr">
-        <is>
-          <t>TARGET:has_dot,bleed,1</t>
         </is>
       </c>
       <c r="Q96" t="inlineStr"/>
@@ -5484,12 +5484,12 @@
           <t>heal | charge,15 | add_token,divine,3</t>
         </is>
       </c>
-      <c r="O97" t="inlineStr">
+      <c r="O97" t="inlineStr"/>
+      <c r="P97" t="inlineStr">
         <is>
           <t>pray</t>
         </is>
       </c>
-      <c r="P97" t="inlineStr"/>
       <c r="Q97" t="inlineStr"/>
     </row>
     <row r="98">
@@ -5535,12 +5535,12 @@
           <t>FOR:token,divine | damage_bonus,3</t>
         </is>
       </c>
-      <c r="O98" t="inlineStr">
+      <c r="O98" t="inlineStr"/>
+      <c r="P98" t="inlineStr">
         <is>
           <t>smite</t>
         </is>
       </c>
-      <c r="P98" t="inlineStr"/>
       <c r="Q98" t="inlineStr"/>
     </row>
     <row r="99">
@@ -5582,12 +5582,12 @@
           <t>reduce_token,strength,2</t>
         </is>
       </c>
-      <c r="O99" t="inlineStr">
+      <c r="O99" t="inlineStr"/>
+      <c r="P99" t="inlineStr">
         <is>
           <t>bark</t>
         </is>
       </c>
-      <c r="P99" t="inlineStr"/>
       <c r="Q99" t="inlineStr"/>
     </row>
     <row r="100">
@@ -5629,12 +5629,12 @@
           <t>add_token,riposte,2</t>
         </is>
       </c>
-      <c r="O100" t="inlineStr">
+      <c r="O100" t="inlineStr"/>
+      <c r="P100" t="inlineStr">
         <is>
           <t>guard_dog</t>
         </is>
       </c>
-      <c r="P100" t="inlineStr"/>
       <c r="Q100" t="inlineStr"/>
     </row>
     <row r="101">
@@ -5682,12 +5682,12 @@
           <t>add_dot,bleed,2</t>
         </is>
       </c>
-      <c r="O101" t="inlineStr">
+      <c r="O101" t="inlineStr"/>
+      <c r="P101" t="inlineStr">
         <is>
           <t>hounds_harry</t>
         </is>
       </c>
-      <c r="P101" t="inlineStr"/>
       <c r="Q101" t="inlineStr"/>
     </row>
     <row r="102">
@@ -5729,12 +5729,12 @@
           <t>heal | add_token,strength,2</t>
         </is>
       </c>
-      <c r="O102" t="inlineStr">
+      <c r="O102" t="inlineStr"/>
+      <c r="P102" t="inlineStr">
         <is>
           <t>support_dog</t>
         </is>
       </c>
-      <c r="P102" t="inlineStr"/>
       <c r="Q102" t="inlineStr"/>
     </row>
     <row r="103">
@@ -5780,12 +5780,12 @@
           <t>reduce_token,block,2</t>
         </is>
       </c>
-      <c r="O103" t="inlineStr">
+      <c r="O103" t="inlineStr"/>
+      <c r="P103" t="inlineStr">
         <is>
           <t>tail_whip</t>
         </is>
       </c>
-      <c r="P103" t="inlineStr"/>
       <c r="Q103" t="inlineStr"/>
     </row>
     <row r="104">
@@ -5827,12 +5827,12 @@
       <c r="N104" t="inlineStr"/>
       <c r="O104" t="inlineStr">
         <is>
+          <t>NOT:has_slot,gag</t>
+        </is>
+      </c>
+      <c r="P104" t="inlineStr">
+        <is>
           <t>bite</t>
-        </is>
-      </c>
-      <c r="P104" t="inlineStr">
-        <is>
-          <t>NOT:has_slot,gag</t>
         </is>
       </c>
       <c r="Q104" t="inlineStr"/>
@@ -5878,12 +5878,12 @@
           <t>heal | reduce_token,arousal,2</t>
         </is>
       </c>
-      <c r="O105" t="inlineStr">
+      <c r="O105" t="inlineStr"/>
+      <c r="P105" t="inlineStr">
         <is>
           <t>breathe</t>
         </is>
       </c>
-      <c r="P105" t="inlineStr"/>
       <c r="Q105" t="inlineStr"/>
     </row>
     <row r="106">
@@ -5927,12 +5927,12 @@
           <t>move_front,3 | move_back,1</t>
         </is>
       </c>
-      <c r="O106" t="inlineStr">
+      <c r="O106" t="inlineStr"/>
+      <c r="P106" t="inlineStr">
         <is>
           <t>charge</t>
         </is>
       </c>
-      <c r="P106" t="inlineStr"/>
       <c r="Q106" t="inlineStr"/>
     </row>
     <row r="107">
@@ -5972,12 +5972,12 @@
       <c r="L107" t="inlineStr"/>
       <c r="M107" t="inlineStr"/>
       <c r="N107" t="inlineStr"/>
-      <c r="O107" t="inlineStr">
+      <c r="O107" t="inlineStr"/>
+      <c r="P107" t="inlineStr">
         <is>
           <t>headbutt</t>
         </is>
       </c>
-      <c r="P107" t="inlineStr"/>
       <c r="Q107" t="inlineStr"/>
     </row>
     <row r="108">
@@ -6021,12 +6021,12 @@
           <t>move_back,1 | add_token,block,2</t>
         </is>
       </c>
-      <c r="O108" t="inlineStr">
+      <c r="O108" t="inlineStr"/>
+      <c r="P108" t="inlineStr">
         <is>
           <t>hopback</t>
         </is>
       </c>
-      <c r="P108" t="inlineStr"/>
       <c r="Q108" t="inlineStr"/>
     </row>
     <row r="109">
@@ -6072,12 +6072,12 @@
           <t>add_dot,bleed,1</t>
         </is>
       </c>
-      <c r="O109" t="inlineStr">
+      <c r="O109" t="inlineStr"/>
+      <c r="P109" t="inlineStr">
         <is>
           <t>slash</t>
         </is>
       </c>
-      <c r="P109" t="inlineStr"/>
       <c r="Q109" t="inlineStr"/>
     </row>
     <row r="110">
@@ -6123,12 +6123,12 @@
       </c>
       <c r="O110" t="inlineStr">
         <is>
+          <t>NOT:has_token,wildshape,1</t>
+        </is>
+      </c>
+      <c r="P110" t="inlineStr">
+        <is>
           <t>wildshape</t>
-        </is>
-      </c>
-      <c r="P110" t="inlineStr">
-        <is>
-          <t>NOT:has_token,wildshape,1</t>
         </is>
       </c>
       <c r="Q110" t="inlineStr"/>
@@ -6176,12 +6176,12 @@
           <t>add_dot,bleed,1</t>
         </is>
       </c>
-      <c r="O111" t="inlineStr">
+      <c r="O111" t="inlineStr"/>
+      <c r="P111" t="inlineStr">
         <is>
           <t>claw</t>
         </is>
       </c>
-      <c r="P111" t="inlineStr"/>
       <c r="Q111" t="inlineStr"/>
     </row>
     <row r="112">
@@ -6227,12 +6227,12 @@
           <t>drain_experience,25</t>
         </is>
       </c>
-      <c r="O112" t="inlineStr">
+      <c r="O112" t="inlineStr"/>
+      <c r="P112" t="inlineStr">
         <is>
           <t>drain_kiss</t>
         </is>
       </c>
-      <c r="P112" t="inlineStr"/>
       <c r="Q112" t="inlineStr"/>
     </row>
     <row r="113">
@@ -6274,12 +6274,12 @@
           <t>add_token,strength,1</t>
         </is>
       </c>
-      <c r="O113" t="inlineStr">
+      <c r="O113" t="inlineStr"/>
+      <c r="P113" t="inlineStr">
         <is>
           <t>focus</t>
         </is>
       </c>
-      <c r="P113" t="inlineStr"/>
       <c r="Q113" t="inlineStr"/>
     </row>
     <row r="114">
@@ -6323,12 +6323,12 @@
           <t>charge,10 | add_token,petrification,3</t>
         </is>
       </c>
-      <c r="O114" t="inlineStr">
+      <c r="O114" t="inlineStr"/>
+      <c r="P114" t="inlineStr">
         <is>
           <t>gaze</t>
         </is>
       </c>
-      <c r="P114" t="inlineStr"/>
       <c r="Q114" t="inlineStr"/>
     </row>
     <row r="115">
@@ -6374,12 +6374,12 @@
           <t>add_dot,poison,1</t>
         </is>
       </c>
-      <c r="O115" t="inlineStr">
+      <c r="O115" t="inlineStr"/>
+      <c r="P115" t="inlineStr">
         <is>
           <t>poison_sting</t>
         </is>
       </c>
-      <c r="P115" t="inlineStr"/>
       <c r="Q115" t="inlineStr"/>
     </row>
     <row r="116">
@@ -6425,12 +6425,12 @@
           <t>IF:is_critical | disrupt</t>
         </is>
       </c>
-      <c r="O116" t="inlineStr">
+      <c r="O116" t="inlineStr"/>
+      <c r="P116" t="inlineStr">
         <is>
           <t>zap</t>
         </is>
       </c>
-      <c r="P116" t="inlineStr"/>
       <c r="Q116" t="inlineStr"/>
     </row>
     <row r="117">
@@ -6478,12 +6478,12 @@
           <t>add_dot,fire,1</t>
         </is>
       </c>
-      <c r="O117" t="inlineStr">
+      <c r="O117" t="inlineStr"/>
+      <c r="P117" t="inlineStr">
         <is>
           <t>exploding_arrows</t>
         </is>
       </c>
-      <c r="P117" t="inlineStr"/>
       <c r="Q117" t="inlineStr"/>
     </row>
     <row r="118">
@@ -6531,12 +6531,12 @@
           <t>heal | reduce_dot,poison,3</t>
         </is>
       </c>
-      <c r="O118" t="inlineStr">
+      <c r="O118" t="inlineStr"/>
+      <c r="P118" t="inlineStr">
         <is>
           <t>field_medicine</t>
         </is>
       </c>
-      <c r="P118" t="inlineStr"/>
       <c r="Q118" t="inlineStr"/>
     </row>
     <row r="119">
@@ -6584,12 +6584,12 @@
       </c>
       <c r="O119" t="inlineStr">
         <is>
+          <t>TARGET:has_token,taunt,3</t>
+        </is>
+      </c>
+      <c r="P119" t="inlineStr">
+        <is>
           <t>headshot</t>
-        </is>
-      </c>
-      <c r="P119" t="inlineStr">
-        <is>
-          <t>TARGET:has_token,taunt,3</t>
         </is>
       </c>
       <c r="Q119" t="inlineStr"/>
@@ -6635,12 +6635,12 @@
           <t>add_token,taunt,2</t>
         </is>
       </c>
-      <c r="O120" t="inlineStr">
+      <c r="O120" t="inlineStr"/>
+      <c r="P120" t="inlineStr">
         <is>
           <t>marking_flare</t>
         </is>
       </c>
-      <c r="P120" t="inlineStr"/>
       <c r="Q120" t="inlineStr"/>
     </row>
     <row r="121">
@@ -6688,12 +6688,12 @@
       </c>
       <c r="O121" t="inlineStr">
         <is>
+          <t>TARGET:has_token,block,1</t>
+        </is>
+      </c>
+      <c r="P121" t="inlineStr">
+        <is>
           <t>penetrating_shot</t>
-        </is>
-      </c>
-      <c r="P121" t="inlineStr">
-        <is>
-          <t>TARGET:has_token,block,1</t>
         </is>
       </c>
       <c r="Q121" t="inlineStr"/>
@@ -6743,12 +6743,12 @@
           <t>add_token,weak,1 | add_dot,poison,1</t>
         </is>
       </c>
-      <c r="O122" t="inlineStr">
+      <c r="O122" t="inlineStr"/>
+      <c r="P122" t="inlineStr">
         <is>
           <t>poison_arrows</t>
         </is>
       </c>
-      <c r="P122" t="inlineStr"/>
       <c r="Q122" t="inlineStr"/>
     </row>
     <row r="123">
@@ -6792,12 +6792,12 @@
       </c>
       <c r="M123" t="inlineStr"/>
       <c r="N123" t="inlineStr"/>
-      <c r="O123" t="inlineStr">
+      <c r="O123" t="inlineStr"/>
+      <c r="P123" t="inlineStr">
         <is>
           <t>quickshot</t>
         </is>
       </c>
-      <c r="P123" t="inlineStr"/>
       <c r="Q123" t="inlineStr"/>
     </row>
     <row r="124">
@@ -6841,12 +6841,12 @@
           <t>move_back,1</t>
         </is>
       </c>
-      <c r="O124" t="inlineStr">
+      <c r="O124" t="inlineStr"/>
+      <c r="P124" t="inlineStr">
         <is>
           <t>rushed_shot</t>
         </is>
       </c>
-      <c r="P124" t="inlineStr"/>
       <c r="Q124" t="inlineStr"/>
     </row>
     <row r="125">
@@ -6890,12 +6890,12 @@
       </c>
       <c r="M125" t="inlineStr"/>
       <c r="N125" t="inlineStr"/>
-      <c r="O125" t="inlineStr">
+      <c r="O125" t="inlineStr"/>
+      <c r="P125" t="inlineStr">
         <is>
           <t>suppressing_fire</t>
         </is>
       </c>
-      <c r="P125" t="inlineStr"/>
       <c r="Q125" t="inlineStr"/>
     </row>
     <row r="126">
@@ -6937,12 +6937,12 @@
           <t>charge,5 | add_token,taunt,2 | ENDWHEN | add_token,strength,2</t>
         </is>
       </c>
-      <c r="O126" t="inlineStr">
+      <c r="O126" t="inlineStr"/>
+      <c r="P126" t="inlineStr">
         <is>
           <t>take_aim</t>
         </is>
       </c>
-      <c r="P126" t="inlineStr"/>
       <c r="Q126" t="inlineStr"/>
     </row>
     <row r="127">
@@ -6988,12 +6988,12 @@
       </c>
       <c r="O127" t="inlineStr">
         <is>
+          <t>NOT:has_slot,ankle_cuffs</t>
+        </is>
+      </c>
+      <c r="P127" t="inlineStr">
+        <is>
           <t>high_jump_kick</t>
-        </is>
-      </c>
-      <c r="P127" t="inlineStr">
-        <is>
-          <t>NOT:has_slot,ankle_cuffs</t>
         </is>
       </c>
       <c r="Q127" t="inlineStr"/>
@@ -7045,12 +7045,12 @@
       </c>
       <c r="O128" t="inlineStr">
         <is>
+          <t>NOT:has_slot,ankle_cuffs</t>
+        </is>
+      </c>
+      <c r="P128" t="inlineStr">
+        <is>
           <t>kick</t>
-        </is>
-      </c>
-      <c r="P128" t="inlineStr">
-        <is>
-          <t>NOT:has_slot,ankle_cuffs</t>
         </is>
       </c>
       <c r="Q128" t="inlineStr"/>
@@ -7098,12 +7098,12 @@
       <c r="L129" t="inlineStr"/>
       <c r="M129" t="inlineStr"/>
       <c r="N129" t="inlineStr"/>
-      <c r="O129" t="inlineStr">
+      <c r="O129" t="inlineStr"/>
+      <c r="P129" t="inlineStr">
         <is>
           <t>punch</t>
         </is>
       </c>
-      <c r="P129" t="inlineStr"/>
       <c r="Q129" t="inlineStr"/>
     </row>
     <row r="130">
@@ -7145,12 +7145,12 @@
           <t>add_token,confusion,1</t>
         </is>
       </c>
-      <c r="O130" t="inlineStr">
+      <c r="O130" t="inlineStr"/>
+      <c r="P130" t="inlineStr">
         <is>
           <t>quick_jab</t>
         </is>
       </c>
-      <c r="P130" t="inlineStr"/>
       <c r="Q130" t="inlineStr"/>
     </row>
     <row r="131">
@@ -7192,12 +7192,12 @@
           <t>disrupt</t>
         </is>
       </c>
-      <c r="O131" t="inlineStr">
+      <c r="O131" t="inlineStr"/>
+      <c r="P131" t="inlineStr">
         <is>
           <t>stomach_punch</t>
         </is>
       </c>
-      <c r="P131" t="inlineStr"/>
       <c r="Q131" t="inlineStr"/>
     </row>
     <row r="132">
@@ -7239,12 +7239,12 @@
           <t>move_back,1 | add_token,confusion,2</t>
         </is>
       </c>
-      <c r="O132" t="inlineStr">
+      <c r="O132" t="inlineStr"/>
+      <c r="P132" t="inlineStr">
         <is>
           <t>uppercut</t>
         </is>
       </c>
-      <c r="P132" t="inlineStr"/>
       <c r="Q132" t="inlineStr"/>
     </row>
     <row r="133">
@@ -7290,12 +7290,12 @@
       </c>
       <c r="O133" t="inlineStr">
         <is>
+          <t>SELF:has_token,strength,1</t>
+        </is>
+      </c>
+      <c r="P133" t="inlineStr">
+        <is>
           <t>battering_ram</t>
-        </is>
-      </c>
-      <c r="P133" t="inlineStr">
-        <is>
-          <t>SELF:has_token,strength,1</t>
         </is>
       </c>
       <c r="Q133" t="inlineStr"/>
@@ -7339,12 +7339,12 @@
       <c r="N134" t="inlineStr"/>
       <c r="O134" t="inlineStr">
         <is>
+          <t>TARGET:is_charging</t>
+        </is>
+      </c>
+      <c r="P134" t="inlineStr">
+        <is>
           <t>countercharge</t>
-        </is>
-      </c>
-      <c r="P134" t="inlineStr">
-        <is>
-          <t>TARGET:is_charging</t>
         </is>
       </c>
       <c r="Q134" t="inlineStr"/>
@@ -7394,12 +7394,12 @@
       </c>
       <c r="O135" t="inlineStr">
         <is>
+          <t>SELF:has_token,strength,1</t>
+        </is>
+      </c>
+      <c r="P135" t="inlineStr">
+        <is>
           <t>crush</t>
-        </is>
-      </c>
-      <c r="P135" t="inlineStr">
-        <is>
-          <t>SELF:has_token,strength,1</t>
         </is>
       </c>
       <c r="Q135" t="inlineStr"/>
@@ -7447,12 +7447,12 @@
           <t>charge,5 | add_token,strength,3</t>
         </is>
       </c>
-      <c r="O136" t="inlineStr">
+      <c r="O136" t="inlineStr"/>
+      <c r="P136" t="inlineStr">
         <is>
           <t>gather_speed</t>
         </is>
       </c>
-      <c r="P136" t="inlineStr"/>
       <c r="Q136" t="inlineStr"/>
     </row>
     <row r="137">
@@ -7494,12 +7494,12 @@
           <t>move_back,1</t>
         </is>
       </c>
-      <c r="O137" t="inlineStr">
+      <c r="O137" t="inlineStr"/>
+      <c r="P137" t="inlineStr">
         <is>
           <t>trot_retreat</t>
         </is>
       </c>
-      <c r="P137" t="inlineStr"/>
       <c r="Q137" t="inlineStr"/>
     </row>
     <row r="138">
@@ -7541,12 +7541,12 @@
           <t>heal | add_token,block,3</t>
         </is>
       </c>
-      <c r="O138" t="inlineStr">
+      <c r="O138" t="inlineStr"/>
+      <c r="P138" t="inlineStr">
         <is>
           <t>blank_stare</t>
         </is>
       </c>
-      <c r="P138" t="inlineStr"/>
       <c r="Q138" t="inlineStr"/>
     </row>
     <row r="139">
@@ -7594,12 +7594,12 @@
           <t>heal | reduce_negative_token,2</t>
         </is>
       </c>
-      <c r="O139" t="inlineStr">
+      <c r="O139" t="inlineStr"/>
+      <c r="P139" t="inlineStr">
         <is>
           <t>cleanup</t>
         </is>
       </c>
-      <c r="P139" t="inlineStr"/>
       <c r="Q139" t="inlineStr"/>
     </row>
     <row r="140">
@@ -7647,12 +7647,12 @@
           <t>reduce_token,taunt,2</t>
         </is>
       </c>
-      <c r="O140" t="inlineStr">
+      <c r="O140" t="inlineStr"/>
+      <c r="P140" t="inlineStr">
         <is>
           <t>dust_screen</t>
         </is>
       </c>
-      <c r="P140" t="inlineStr"/>
       <c r="Q140" t="inlineStr"/>
     </row>
     <row r="141">
@@ -7698,12 +7698,12 @@
           <t>lust_damage,10 | add_token,strength,3 | add_token,arousal,2 | IF:is_critical | add_dot,regen,2</t>
         </is>
       </c>
-      <c r="O141" t="inlineStr">
+      <c r="O141" t="inlineStr"/>
+      <c r="P141" t="inlineStr">
         <is>
           <t>encourage</t>
         </is>
       </c>
-      <c r="P141" t="inlineStr"/>
       <c r="Q141" t="inlineStr"/>
     </row>
     <row r="142">
@@ -7749,12 +7749,12 @@
           <t>heal | move_front,1 | add_token,vuln,2</t>
         </is>
       </c>
-      <c r="O142" t="inlineStr">
+      <c r="O142" t="inlineStr"/>
+      <c r="P142" t="inlineStr">
         <is>
           <t>expose</t>
         </is>
       </c>
-      <c r="P142" t="inlineStr"/>
       <c r="Q142" t="inlineStr"/>
     </row>
     <row r="143">
@@ -7802,12 +7802,12 @@
           <t>charge,10 | reduce_positive_token,2</t>
         </is>
       </c>
-      <c r="O143" t="inlineStr">
+      <c r="O143" t="inlineStr"/>
+      <c r="P143" t="inlineStr">
         <is>
           <t>featherduster</t>
         </is>
       </c>
-      <c r="P143" t="inlineStr"/>
       <c r="Q143" t="inlineStr"/>
     </row>
     <row r="144">
@@ -7855,12 +7855,12 @@
       </c>
       <c r="O144" t="inlineStr">
         <is>
+          <t>above_stat,lust,90</t>
+        </is>
+      </c>
+      <c r="P144" t="inlineStr">
+        <is>
           <t>lust_explosion</t>
-        </is>
-      </c>
-      <c r="P144" t="inlineStr">
-        <is>
-          <t>above_stat,lust,90</t>
         </is>
       </c>
       <c r="Q144" t="inlineStr"/>
@@ -7906,12 +7906,12 @@
           <t>heal | lust_damage,15</t>
         </is>
       </c>
-      <c r="O145" t="inlineStr">
+      <c r="O145" t="inlineStr"/>
+      <c r="P145" t="inlineStr">
         <is>
           <t>masochism</t>
         </is>
       </c>
-      <c r="P145" t="inlineStr"/>
       <c r="Q145" t="inlineStr"/>
     </row>
     <row r="146">
@@ -7955,12 +7955,12 @@
           <t>heal | add_lust,-20</t>
         </is>
       </c>
-      <c r="O146" t="inlineStr">
+      <c r="O146" t="inlineStr"/>
+      <c r="P146" t="inlineStr">
         <is>
           <t>massage</t>
         </is>
       </c>
-      <c r="P146" t="inlineStr"/>
       <c r="Q146" t="inlineStr"/>
     </row>
     <row r="147">
@@ -8002,12 +8002,12 @@
           <t>add_token,weak,2</t>
         </is>
       </c>
-      <c r="O147" t="inlineStr">
+      <c r="O147" t="inlineStr"/>
+      <c r="P147" t="inlineStr">
         <is>
           <t>moo</t>
         </is>
       </c>
-      <c r="P147" t="inlineStr"/>
       <c r="Q147" t="inlineStr"/>
     </row>
     <row r="148">
@@ -8051,12 +8051,12 @@
           <t>add_token,block,2 | reduce_token,taunt,2 | move_back,1</t>
         </is>
       </c>
-      <c r="O148" t="inlineStr">
+      <c r="O148" t="inlineStr"/>
+      <c r="P148" t="inlineStr">
         <is>
           <t>perfect_maid</t>
         </is>
       </c>
-      <c r="P148" t="inlineStr"/>
       <c r="Q148" t="inlineStr"/>
     </row>
     <row r="149">
@@ -8104,12 +8104,12 @@
           <t>FOR:token,vuln | damage_bonus,3</t>
         </is>
       </c>
-      <c r="O149" t="inlineStr">
+      <c r="O149" t="inlineStr"/>
+      <c r="P149" t="inlineStr">
         <is>
           <t>tackle</t>
         </is>
       </c>
-      <c r="P149" t="inlineStr"/>
       <c r="Q149" t="inlineStr"/>
     </row>
     <row r="150">
@@ -8155,12 +8155,12 @@
           <t>charge,5 | FOR:token,arousal | damage_bonus,2</t>
         </is>
       </c>
-      <c r="O150" t="inlineStr">
+      <c r="O150" t="inlineStr"/>
+      <c r="P150" t="inlineStr">
         <is>
           <t>arousal_burst</t>
         </is>
       </c>
-      <c r="P150" t="inlineStr"/>
       <c r="Q150" t="inlineStr"/>
     </row>
     <row r="151">
@@ -8206,12 +8206,12 @@
           <t>add_token,shield,2 | add_token,arousal,2</t>
         </is>
       </c>
-      <c r="O151" t="inlineStr">
+      <c r="O151" t="inlineStr"/>
+      <c r="P151" t="inlineStr">
         <is>
           <t>arousal_shielding</t>
         </is>
       </c>
-      <c r="P151" t="inlineStr"/>
       <c r="Q151" t="inlineStr"/>
     </row>
     <row r="152">
@@ -8253,12 +8253,12 @@
           <t>charge,10 | equip_wearables,latex_gag</t>
         </is>
       </c>
-      <c r="O152" t="inlineStr">
+      <c r="O152" t="inlineStr"/>
+      <c r="P152" t="inlineStr">
         <is>
           <t>equip_latex_gear</t>
         </is>
       </c>
-      <c r="P152" t="inlineStr"/>
       <c r="Q152" t="inlineStr"/>
     </row>
     <row r="153">
@@ -8304,12 +8304,12 @@
           <t>charge,10 | equip_wearables,latex_bodysuit</t>
         </is>
       </c>
-      <c r="O153" t="inlineStr">
+      <c r="O153" t="inlineStr"/>
+      <c r="P153" t="inlineStr">
         <is>
           <t>equip_latex_headwear</t>
         </is>
       </c>
-      <c r="P153" t="inlineStr"/>
       <c r="Q153" t="inlineStr"/>
     </row>
     <row r="154">
@@ -8359,12 +8359,12 @@
           <t>heal | FOR:TARGET:wearables_with_goods,latex | heal_damage,2 | ENDFOR | remove_wearables_with_good,latex</t>
         </is>
       </c>
-      <c r="O154" t="inlineStr">
+      <c r="O154" t="inlineStr"/>
+      <c r="P154" t="inlineStr">
         <is>
           <t>full_latex_collapse</t>
         </is>
       </c>
-      <c r="P154" t="inlineStr"/>
       <c r="Q154" t="inlineStr"/>
     </row>
     <row r="155">
@@ -8412,12 +8412,12 @@
           <t>add_token,block,2</t>
         </is>
       </c>
-      <c r="O155" t="inlineStr">
+      <c r="O155" t="inlineStr"/>
+      <c r="P155" t="inlineStr">
         <is>
           <t>harden</t>
         </is>
       </c>
-      <c r="P155" t="inlineStr"/>
       <c r="Q155" t="inlineStr"/>
     </row>
     <row r="156">
@@ -8463,12 +8463,12 @@
           <t>FOR:TARGET:wearables_with_goods,latex | damage_bonus,2</t>
         </is>
       </c>
-      <c r="O156" t="inlineStr">
+      <c r="O156" t="inlineStr"/>
+      <c r="P156" t="inlineStr">
         <is>
           <t>latex_collapse</t>
         </is>
       </c>
-      <c r="P156" t="inlineStr"/>
       <c r="Q156" t="inlineStr"/>
     </row>
     <row r="157">
@@ -8514,12 +8514,12 @@
           <t>charge,5 | add_token,latex_entangle,1</t>
         </is>
       </c>
-      <c r="O157" t="inlineStr">
+      <c r="O157" t="inlineStr"/>
+      <c r="P157" t="inlineStr">
         <is>
           <t>latex_pool</t>
         </is>
       </c>
-      <c r="P157" t="inlineStr"/>
       <c r="Q157" t="inlineStr"/>
     </row>
     <row r="158">
@@ -8563,12 +8563,12 @@
           <t>disrupt | lust_damage,10 | IF:is_critical: | lust_damage,10</t>
         </is>
       </c>
-      <c r="O158" t="inlineStr">
+      <c r="O158" t="inlineStr"/>
+      <c r="P158" t="inlineStr">
         <is>
           <t>lovely_liquid</t>
         </is>
       </c>
-      <c r="P158" t="inlineStr"/>
       <c r="Q158" t="inlineStr"/>
     </row>
     <row r="159">
@@ -8614,12 +8614,12 @@
       </c>
       <c r="O159" t="inlineStr">
         <is>
+          <t>SELF:has_token,milk,5</t>
+        </is>
+      </c>
+      <c r="P159" t="inlineStr">
+        <is>
           <t>milk_explosion</t>
-        </is>
-      </c>
-      <c r="P159" t="inlineStr">
-        <is>
-          <t>SELF:has_token,milk,5</t>
         </is>
       </c>
       <c r="Q159" t="inlineStr"/>
@@ -8667,12 +8667,12 @@
           <t>lust_damage,10 | IF:is_critical | disrupt | ENDIF | add_token,milk,3 | IF:is_critical | add_token,milk,5</t>
         </is>
       </c>
-      <c r="O160" t="inlineStr">
+      <c r="O160" t="inlineStr"/>
+      <c r="P160" t="inlineStr">
         <is>
           <t>milk_extraction</t>
         </is>
       </c>
-      <c r="P160" t="inlineStr"/>
       <c r="Q160" t="inlineStr"/>
     </row>
     <row r="161">
@@ -8722,12 +8722,12 @@
           <t>FOR:token,milk | damage_bonus,2</t>
         </is>
       </c>
-      <c r="O161" t="inlineStr">
+      <c r="O161" t="inlineStr"/>
+      <c r="P161" t="inlineStr">
         <is>
           <t>milkshot</t>
         </is>
       </c>
-      <c r="P161" t="inlineStr"/>
       <c r="Q161" t="inlineStr"/>
     </row>
     <row r="162">
@@ -8777,12 +8777,12 @@
           <t>heal | charge,8 | FOR:token,milk | heal_damage,2</t>
         </is>
       </c>
-      <c r="O162" t="inlineStr">
+      <c r="O162" t="inlineStr"/>
+      <c r="P162" t="inlineStr">
         <is>
           <t>rejuvenation</t>
         </is>
       </c>
-      <c r="P162" t="inlineStr"/>
       <c r="Q162" t="inlineStr"/>
     </row>
     <row r="163">
@@ -8826,12 +8826,12 @@
           <t>IF:is_critical | reduce_token,block,2</t>
         </is>
       </c>
-      <c r="O163" t="inlineStr">
+      <c r="O163" t="inlineStr"/>
+      <c r="P163" t="inlineStr">
         <is>
           <t>slime_throw</t>
         </is>
       </c>
-      <c r="P163" t="inlineStr"/>
       <c r="Q163" t="inlineStr"/>
     </row>
     <row r="164">
@@ -8873,12 +8873,12 @@
           <t>add_token,milk,3 | IF:is_critical | add_token,milk,3</t>
         </is>
       </c>
-      <c r="O164" t="inlineStr">
+      <c r="O164" t="inlineStr"/>
+      <c r="P164" t="inlineStr">
         <is>
           <t>stockpile</t>
         </is>
       </c>
-      <c r="P164" t="inlineStr"/>
       <c r="Q164" t="inlineStr"/>
     </row>
     <row r="165">
@@ -8920,12 +8920,12 @@
           <t>add_token,block,2</t>
         </is>
       </c>
-      <c r="O165" t="inlineStr">
+      <c r="O165" t="inlineStr"/>
+      <c r="P165" t="inlineStr">
         <is>
           <t>block</t>
         </is>
       </c>
-      <c r="P165" t="inlineStr"/>
       <c r="Q165" t="inlineStr"/>
     </row>
     <row r="166">
@@ -8973,12 +8973,12 @@
       </c>
       <c r="O166" t="inlineStr">
         <is>
+          <t>TARGET:has_slot,top,bottom,corset</t>
+        </is>
+      </c>
+      <c r="P166" t="inlineStr">
+        <is>
           <t>fabric_cutter</t>
-        </is>
-      </c>
-      <c r="P166" t="inlineStr">
-        <is>
-          <t>TARGET:has_slot,top,bottom,corset</t>
         </is>
       </c>
       <c r="Q166" t="inlineStr"/>
@@ -9028,12 +9028,12 @@
           <t>charge,5 | add_token,block,2</t>
         </is>
       </c>
-      <c r="O167" t="inlineStr">
+      <c r="O167" t="inlineStr"/>
+      <c r="P167" t="inlineStr">
         <is>
           <t>parry</t>
         </is>
       </c>
-      <c r="P167" t="inlineStr"/>
       <c r="Q167" t="inlineStr"/>
     </row>
     <row r="168">
@@ -9079,12 +9079,12 @@
           <t>charge,10 | add_token,riposte,2</t>
         </is>
       </c>
-      <c r="O168" t="inlineStr">
+      <c r="O168" t="inlineStr"/>
+      <c r="P168" t="inlineStr">
         <is>
           <t>riposte</t>
         </is>
       </c>
-      <c r="P168" t="inlineStr"/>
       <c r="Q168" t="inlineStr"/>
     </row>
     <row r="169">
@@ -9130,12 +9130,12 @@
           <t>add_dot,bleed,1</t>
         </is>
       </c>
-      <c r="O169" t="inlineStr">
+      <c r="O169" t="inlineStr"/>
+      <c r="P169" t="inlineStr">
         <is>
           <t>strike</t>
         </is>
       </c>
-      <c r="P169" t="inlineStr"/>
       <c r="Q169" t="inlineStr"/>
     </row>
     <row r="170">
@@ -9183,12 +9183,12 @@
           <t>charge,5 | IF:is_critical | disrupt</t>
         </is>
       </c>
-      <c r="O170" t="inlineStr">
+      <c r="O170" t="inlineStr"/>
+      <c r="P170" t="inlineStr">
         <is>
           <t>blinding_shot</t>
         </is>
       </c>
-      <c r="P170" t="inlineStr"/>
       <c r="Q170" t="inlineStr"/>
     </row>
     <row r="171">
@@ -9236,12 +9236,12 @@
       </c>
       <c r="O171" t="inlineStr">
         <is>
+          <t>TARGET:has_token,web,3</t>
+        </is>
+      </c>
+      <c r="P171" t="inlineStr">
+        <is>
           <t>extract_web</t>
-        </is>
-      </c>
-      <c r="P171" t="inlineStr">
-        <is>
-          <t>TARGET:has_token,web,3</t>
         </is>
       </c>
       <c r="Q171" t="inlineStr"/>
@@ -9291,12 +9291,12 @@
           <t>charge,15 | add_token,block,2</t>
         </is>
       </c>
-      <c r="O172" t="inlineStr">
+      <c r="O172" t="inlineStr"/>
+      <c r="P172" t="inlineStr">
         <is>
           <t>protective_web</t>
         </is>
       </c>
-      <c r="P172" t="inlineStr"/>
       <c r="Q172" t="inlineStr"/>
     </row>
     <row r="173">
@@ -9342,12 +9342,12 @@
           <t>charge,5 | add_token,weak,2</t>
         </is>
       </c>
-      <c r="O173" t="inlineStr">
+      <c r="O173" t="inlineStr"/>
+      <c r="P173" t="inlineStr">
         <is>
           <t>weakening_shot</t>
         </is>
       </c>
-      <c r="P173" t="inlineStr"/>
       <c r="Q173" t="inlineStr"/>
     </row>
     <row r="174">
@@ -9393,12 +9393,12 @@
           <t>charge,10 | add_token,web,3</t>
         </is>
       </c>
-      <c r="O174" t="inlineStr">
+      <c r="O174" t="inlineStr"/>
+      <c r="P174" t="inlineStr">
         <is>
           <t>webshot</t>
         </is>
       </c>
-      <c r="P174" t="inlineStr"/>
       <c r="Q174" t="inlineStr"/>
     </row>
     <row r="175">
@@ -9446,12 +9446,12 @@
           <t>charge,20 | add_token,web,2</t>
         </is>
       </c>
-      <c r="O175" t="inlineStr">
+      <c r="O175" t="inlineStr"/>
+      <c r="P175" t="inlineStr">
         <is>
           <t>wide_webshot</t>
         </is>
       </c>
-      <c r="P175" t="inlineStr"/>
       <c r="Q175" t="inlineStr"/>
     </row>
     <row r="176">
@@ -9497,12 +9497,12 @@
           <t>add_token,arousal,3</t>
         </is>
       </c>
-      <c r="O176" t="inlineStr">
+      <c r="O176" t="inlineStr"/>
+      <c r="P176" t="inlineStr">
         <is>
           <t>aphrodisiac_bomb</t>
         </is>
       </c>
-      <c r="P176" t="inlineStr"/>
       <c r="Q176" t="inlineStr"/>
     </row>
     <row r="177">
@@ -9548,12 +9548,12 @@
           <t>heal | add_token,drunk,3</t>
         </is>
       </c>
-      <c r="O177" t="inlineStr">
+      <c r="O177" t="inlineStr"/>
+      <c r="P177" t="inlineStr">
         <is>
           <t>hard_liquor</t>
         </is>
       </c>
-      <c r="P177" t="inlineStr"/>
       <c r="Q177" t="inlineStr"/>
     </row>
     <row r="178">
@@ -9599,12 +9599,12 @@
           <t>reduce_token,arousal,3</t>
         </is>
       </c>
-      <c r="O178" t="inlineStr">
+      <c r="O178" t="inlineStr"/>
+      <c r="P178" t="inlineStr">
         <is>
           <t>sedative</t>
         </is>
       </c>
-      <c r="P178" t="inlineStr"/>
       <c r="Q178" t="inlineStr"/>
     </row>
     <row r="179">
@@ -9650,12 +9650,12 @@
           <t>charge,10 | add_token,strength,1</t>
         </is>
       </c>
-      <c r="O179" t="inlineStr">
+      <c r="O179" t="inlineStr"/>
+      <c r="P179" t="inlineStr">
         <is>
           <t>stimulants</t>
         </is>
       </c>
-      <c r="P179" t="inlineStr"/>
       <c r="Q179" t="inlineStr"/>
     </row>
     <row r="180">
@@ -9703,12 +9703,12 @@
       </c>
       <c r="O180" t="inlineStr">
         <is>
+          <t>TARGET:has_token,taunt,1</t>
+        </is>
+      </c>
+      <c r="P180" t="inlineStr">
+        <is>
           <t>sweet_liquor</t>
-        </is>
-      </c>
-      <c r="P180" t="inlineStr">
-        <is>
-          <t>TARGET:has_token,taunt,1</t>
         </is>
       </c>
       <c r="Q180" t="inlineStr"/>
@@ -9758,12 +9758,12 @@
       </c>
       <c r="O181" t="inlineStr">
         <is>
+          <t>TARGET:has_dot,bleed,1</t>
+        </is>
+      </c>
+      <c r="P181" t="inlineStr">
+        <is>
           <t>bandage</t>
-        </is>
-      </c>
-      <c r="P181" t="inlineStr">
-        <is>
-          <t>TARGET:has_dot,bleed,1</t>
         </is>
       </c>
       <c r="Q181" t="inlineStr"/>
@@ -9813,12 +9813,12 @@
           <t>charge,5 | reduce_token,strength,3</t>
         </is>
       </c>
-      <c r="O182" t="inlineStr">
+      <c r="O182" t="inlineStr"/>
+      <c r="P182" t="inlineStr">
         <is>
           <t>cotton_spores</t>
         </is>
       </c>
-      <c r="P182" t="inlineStr"/>
       <c r="Q182" t="inlineStr"/>
     </row>
     <row r="183">
@@ -9862,12 +9862,12 @@
           <t>charge,15 | equip_wearables,wool_blindfold</t>
         </is>
       </c>
-      <c r="O183" t="inlineStr">
+      <c r="O183" t="inlineStr"/>
+      <c r="P183" t="inlineStr">
         <is>
           <t>knit_blindfold</t>
         </is>
       </c>
-      <c r="P183" t="inlineStr"/>
       <c r="Q183" t="inlineStr"/>
     </row>
     <row r="184">
@@ -9911,12 +9911,12 @@
           <t>charge,10 | equip_wearables,mittens_2</t>
         </is>
       </c>
-      <c r="O184" t="inlineStr">
+      <c r="O184" t="inlineStr"/>
+      <c r="P184" t="inlineStr">
         <is>
           <t>knit_mittens</t>
         </is>
       </c>
-      <c r="P184" t="inlineStr"/>
       <c r="Q184" t="inlineStr"/>
     </row>
     <row r="185">
@@ -9960,12 +9960,12 @@
           <t>charge,15 | equip_wearables,wool_sweater</t>
         </is>
       </c>
-      <c r="O185" t="inlineStr">
+      <c r="O185" t="inlineStr"/>
+      <c r="P185" t="inlineStr">
         <is>
           <t>knit_sweater</t>
         </is>
       </c>
-      <c r="P185" t="inlineStr"/>
       <c r="Q185" t="inlineStr"/>
     </row>
     <row r="186">
@@ -10003,12 +10003,12 @@
           <t>heal | unequip_wearable,apple_gag</t>
         </is>
       </c>
-      <c r="O186" t="inlineStr">
+      <c r="O186" t="inlineStr"/>
+      <c r="P186" t="inlineStr">
         <is>
           <t>eat_apple</t>
         </is>
       </c>
-      <c r="P186" t="inlineStr"/>
       <c r="Q186" t="inlineStr"/>
     </row>
     <row r="187">
@@ -10042,12 +10042,12 @@
       <c r="L187" t="inlineStr"/>
       <c r="M187" t="inlineStr"/>
       <c r="N187" t="inlineStr"/>
-      <c r="O187" t="inlineStr">
+      <c r="O187" t="inlineStr"/>
+      <c r="P187" t="inlineStr">
         <is>
           <t>blinded</t>
         </is>
       </c>
-      <c r="P187" t="inlineStr"/>
       <c r="Q187" t="inlineStr"/>
     </row>
     <row r="188">
@@ -10085,12 +10085,12 @@
           <t>add_lust,-20</t>
         </is>
       </c>
-      <c r="O188" t="inlineStr">
+      <c r="O188" t="inlineStr"/>
+      <c r="P188" t="inlineStr">
         <is>
           <t>calm_down</t>
         </is>
       </c>
-      <c r="P188" t="inlineStr"/>
       <c r="Q188" t="inlineStr"/>
     </row>
     <row r="189">
@@ -10126,12 +10126,12 @@
           <t>heal | lust_damage,10</t>
         </is>
       </c>
-      <c r="O189" t="inlineStr">
+      <c r="O189" t="inlineStr"/>
+      <c r="P189" t="inlineStr">
         <is>
           <t>healing_masturbate</t>
         </is>
       </c>
-      <c r="P189" t="inlineStr"/>
       <c r="Q189" t="inlineStr"/>
     </row>
     <row r="190">
@@ -10173,12 +10173,12 @@
           <t>add_lust,5</t>
         </is>
       </c>
-      <c r="O190" t="inlineStr">
+      <c r="O190" t="inlineStr"/>
+      <c r="P190" t="inlineStr">
         <is>
           <t>kitty_slash</t>
         </is>
       </c>
-      <c r="P190" t="inlineStr"/>
       <c r="Q190" t="inlineStr"/>
     </row>
     <row r="191">
@@ -10214,12 +10214,12 @@
           <t>WHEN:move | equip_wearables,latex_gag,latex_muzzle,latex_blindfold,latex_hood,latex_bodysuit,latex_pasties,latex_heels,latex_armbinder | IF:chance,40 | reduce_token,latex_entangle,5 | ENDIF | move_back,1</t>
         </is>
       </c>
-      <c r="O191" t="inlineStr">
+      <c r="O191" t="inlineStr"/>
+      <c r="P191" t="inlineStr">
         <is>
           <t>latex_struggle</t>
         </is>
       </c>
-      <c r="P191" t="inlineStr"/>
       <c r="Q191" t="inlineStr"/>
     </row>
     <row r="192">
@@ -10255,12 +10255,12 @@
           <t>lust_damage,10</t>
         </is>
       </c>
-      <c r="O192" t="inlineStr">
+      <c r="O192" t="inlineStr"/>
+      <c r="P192" t="inlineStr">
         <is>
           <t>masturbate</t>
         </is>
       </c>
-      <c r="P192" t="inlineStr"/>
       <c r="Q192" t="inlineStr"/>
     </row>
     <row r="193">
@@ -10292,12 +10292,12 @@
       <c r="L193" t="inlineStr"/>
       <c r="M193" t="inlineStr"/>
       <c r="N193" t="inlineStr"/>
-      <c r="O193" t="inlineStr">
+      <c r="O193" t="inlineStr"/>
+      <c r="P193" t="inlineStr">
         <is>
           <t>mumble</t>
         </is>
       </c>
-      <c r="P193" t="inlineStr"/>
       <c r="Q193" t="inlineStr"/>
     </row>
     <row r="194">
@@ -10333,12 +10333,12 @@
           <t>add_lust,-80 | add_token,afterglow,5</t>
         </is>
       </c>
-      <c r="O194" t="inlineStr">
+      <c r="O194" t="inlineStr"/>
+      <c r="P194" t="inlineStr">
         <is>
           <t>orgasm</t>
         </is>
       </c>
-      <c r="P194" t="inlineStr"/>
       <c r="Q194" t="inlineStr"/>
     </row>
     <row r="195">
@@ -10374,12 +10374,12 @@
           <t>WHEN:move | move_back,1</t>
         </is>
       </c>
-      <c r="O195" t="inlineStr">
+      <c r="O195" t="inlineStr"/>
+      <c r="P195" t="inlineStr">
         <is>
           <t>struggle</t>
         </is>
       </c>
-      <c r="P195" t="inlineStr"/>
       <c r="Q195" t="inlineStr"/>
     </row>
     <row r="196">
@@ -10411,12 +10411,12 @@
       <c r="L196" t="inlineStr"/>
       <c r="M196" t="inlineStr"/>
       <c r="N196" t="inlineStr"/>
-      <c r="O196" t="inlineStr">
+      <c r="O196" t="inlineStr"/>
+      <c r="P196" t="inlineStr">
         <is>
           <t>stumble</t>
         </is>
       </c>
-      <c r="P196" t="inlineStr"/>
       <c r="Q196" t="inlineStr"/>
     </row>
     <row r="197">
@@ -10454,12 +10454,12 @@
           <t>heal</t>
         </is>
       </c>
-      <c r="O197" t="inlineStr">
+      <c r="O197" t="inlineStr"/>
+      <c r="P197" t="inlineStr">
         <is>
           <t>consume_food</t>
         </is>
       </c>
-      <c r="P197" t="inlineStr"/>
       <c r="Q197" t="inlineStr"/>
     </row>
     <row r="198">
@@ -10491,12 +10491,12 @@
       <c r="L198" t="inlineStr"/>
       <c r="M198" t="inlineStr"/>
       <c r="N198" t="inlineStr"/>
-      <c r="O198" t="inlineStr">
+      <c r="O198" t="inlineStr"/>
+      <c r="P198" t="inlineStr">
         <is>
           <t>disobey</t>
         </is>
       </c>
-      <c r="P198" t="inlineStr"/>
       <c r="Q198" t="inlineStr"/>
     </row>
     <row r="199">
@@ -10528,12 +10528,12 @@
       <c r="L199" t="inlineStr"/>
       <c r="M199" t="inlineStr"/>
       <c r="N199" t="inlineStr"/>
-      <c r="O199" t="inlineStr">
+      <c r="O199" t="inlineStr"/>
+      <c r="P199" t="inlineStr">
         <is>
           <t>grovel</t>
         </is>
       </c>
-      <c r="P199" t="inlineStr"/>
       <c r="Q199" t="inlineStr"/>
     </row>
     <row r="200">
@@ -10571,12 +10571,12 @@
           <t>move_back,1</t>
         </is>
       </c>
-      <c r="O200" t="inlineStr">
+      <c r="O200" t="inlineStr"/>
+      <c r="P200" t="inlineStr">
         <is>
           <t>move_back</t>
         </is>
       </c>
-      <c r="P200" t="inlineStr"/>
       <c r="Q200" t="inlineStr"/>
     </row>
     <row r="201">
@@ -10614,12 +10614,12 @@
           <t>move_front,1</t>
         </is>
       </c>
-      <c r="O201" t="inlineStr">
+      <c r="O201" t="inlineStr"/>
+      <c r="P201" t="inlineStr">
         <is>
           <t>move_front</t>
         </is>
       </c>
-      <c r="P201" t="inlineStr"/>
       <c r="Q201" t="inlineStr"/>
     </row>
     <row r="202">
@@ -10659,12 +10659,12 @@
           <t>base_catch_chance,75 | try_capture | remove_rations,leash</t>
         </is>
       </c>
-      <c r="O202" t="inlineStr">
+      <c r="O202" t="inlineStr"/>
+      <c r="P202" t="inlineStr">
         <is>
           <t>ration_leash</t>
         </is>
       </c>
-      <c r="P202" t="inlineStr"/>
       <c r="Q202" t="inlineStr"/>
     </row>
     <row r="203">
@@ -10704,12 +10704,12 @@
           <t>base_catch_chance,75 | try_capture | equip_wearables,yoke | remove_rations,applying_leash</t>
         </is>
       </c>
-      <c r="O203" t="inlineStr">
+      <c r="O203" t="inlineStr"/>
+      <c r="P203" t="inlineStr">
         <is>
           <t>ration_leash_collar</t>
         </is>
       </c>
-      <c r="P203" t="inlineStr"/>
       <c r="Q203" t="inlineStr"/>
     </row>
     <row r="204">
@@ -10749,12 +10749,12 @@
           <t>try_attach_wearable,!error</t>
         </is>
       </c>
-      <c r="O204" t="inlineStr">
+      <c r="O204" t="inlineStr"/>
+      <c r="P204" t="inlineStr">
         <is>
           <t>throw_gear</t>
         </is>
       </c>
-      <c r="P204" t="inlineStr"/>
       <c r="Q204" t="inlineStr"/>
     </row>
     <row r="205">
@@ -10786,12 +10786,12 @@
       <c r="L205" t="inlineStr"/>
       <c r="M205" t="inlineStr"/>
       <c r="N205" t="inlineStr"/>
-      <c r="O205" t="inlineStr">
+      <c r="O205" t="inlineStr"/>
+      <c r="P205" t="inlineStr">
         <is>
           <t>wait_move</t>
         </is>
       </c>
-      <c r="P205" t="inlineStr"/>
       <c r="Q205" t="inlineStr"/>
     </row>
     <row r="206">
@@ -10837,12 +10837,12 @@
       </c>
       <c r="O206" t="inlineStr">
         <is>
+          <t>has_token,stealth,1</t>
+        </is>
+      </c>
+      <c r="P206" t="inlineStr">
+        <is>
           <t>eyesontheprize</t>
-        </is>
-      </c>
-      <c r="P206" t="inlineStr">
-        <is>
-          <t>has_token,stealth,1</t>
         </is>
       </c>
       <c r="Q206" t="n">
@@ -10894,12 +10894,12 @@
       </c>
       <c r="O207" t="inlineStr">
         <is>
+          <t>has_token,stealth,1</t>
+        </is>
+      </c>
+      <c r="P207" t="inlineStr">
+        <is>
           <t>fromtheshadows</t>
-        </is>
-      </c>
-      <c r="P207" t="inlineStr">
-        <is>
-          <t>has_token,stealth,1</t>
         </is>
       </c>
       <c r="Q207" t="n">
@@ -10953,12 +10953,12 @@
           <t>add_token,vuln,2</t>
         </is>
       </c>
-      <c r="O208" t="inlineStr">
+      <c r="O208" t="inlineStr"/>
+      <c r="P208" t="inlineStr">
         <is>
           <t>hailmary</t>
         </is>
       </c>
-      <c r="P208" t="inlineStr"/>
       <c r="Q208" t="n">
         <v>1</v>
       </c>
@@ -11002,12 +11002,12 @@
       <c r="L209" t="inlineStr"/>
       <c r="M209" t="inlineStr"/>
       <c r="N209" t="inlineStr"/>
-      <c r="O209" t="inlineStr">
+      <c r="O209" t="inlineStr"/>
+      <c r="P209" t="inlineStr">
         <is>
           <t>inthefray</t>
         </is>
       </c>
-      <c r="P209" t="inlineStr"/>
       <c r="Q209" t="n">
         <v>1</v>
       </c>
@@ -11057,12 +11057,12 @@
       </c>
       <c r="O210" t="inlineStr">
         <is>
+          <t>NOT:has_token,stealth,1</t>
+        </is>
+      </c>
+      <c r="P210" t="inlineStr">
+        <is>
           <t>slinkaway</t>
-        </is>
-      </c>
-      <c r="P210" t="inlineStr">
-        <is>
-          <t>NOT:has_token,stealth,1</t>
         </is>
       </c>
       <c r="Q210" t="n">
@@ -11118,12 +11118,12 @@
       </c>
       <c r="O211" t="inlineStr">
         <is>
+          <t>no_slot,panties,bottom | above_stat,lust,40</t>
+        </is>
+      </c>
+      <c r="P211" t="inlineStr">
+        <is>
           <t>displayvigor</t>
-        </is>
-      </c>
-      <c r="P211" t="inlineStr">
-        <is>
-          <t>no_slot,panties,bottom | above_stat,lust,40</t>
         </is>
       </c>
       <c r="Q211" t="n">
@@ -11173,12 +11173,12 @@
       </c>
       <c r="O212" t="inlineStr">
         <is>
+          <t>above_stat,lust,80</t>
+        </is>
+      </c>
+      <c r="P212" t="inlineStr">
+        <is>
           <t>jump</t>
-        </is>
-      </c>
-      <c r="P212" t="inlineStr">
-        <is>
-          <t>above_stat,lust,80</t>
         </is>
       </c>
       <c r="Q212" t="n">
@@ -11230,12 +11230,12 @@
       </c>
       <c r="O213" t="inlineStr">
         <is>
+          <t>TARGET:no_slot,top,bra | OR: | TARGET:no_slot,panties,bottom</t>
+        </is>
+      </c>
+      <c r="P213" t="inlineStr">
+        <is>
           <t>leer</t>
-        </is>
-      </c>
-      <c r="P213" t="inlineStr">
-        <is>
-          <t>TARGET:no_slot,top,bra | OR: | TARGET:no_slot,panties,bottom</t>
         </is>
       </c>
       <c r="Q213" t="n">
@@ -11291,12 +11291,12 @@
       </c>
       <c r="O214" t="inlineStr">
         <is>
+          <t>no_slot,panties,bottom</t>
+        </is>
+      </c>
+      <c r="P214" t="inlineStr">
+        <is>
           <t>prep</t>
-        </is>
-      </c>
-      <c r="P214" t="inlineStr">
-        <is>
-          <t>no_slot,panties,bottom</t>
         </is>
       </c>
       <c r="Q214" t="n">
@@ -11350,12 +11350,12 @@
       </c>
       <c r="O215" t="inlineStr">
         <is>
+          <t>TARGET:above_stat,lust,20</t>
+        </is>
+      </c>
+      <c r="P215" t="inlineStr">
+        <is>
           <t>satisfy</t>
-        </is>
-      </c>
-      <c r="P215" t="inlineStr">
-        <is>
-          <t>TARGET:above_stat,lust,20</t>
         </is>
       </c>
       <c r="Q215" t="n">
@@ -11403,12 +11403,12 @@
           <t>add_token,guard,1 | IF:is_critical | add_token,guard,2</t>
         </is>
       </c>
-      <c r="O216" t="inlineStr">
+      <c r="O216" t="inlineStr"/>
+      <c r="P216" t="inlineStr">
         <is>
           <t>bulwark</t>
         </is>
       </c>
-      <c r="P216" t="inlineStr"/>
       <c r="Q216" t="n">
         <v>1</v>
       </c>
@@ -11460,12 +11460,12 @@
           <t>charge,8 | reduce_token,block,3</t>
         </is>
       </c>
-      <c r="O217" t="inlineStr">
+      <c r="O217" t="inlineStr"/>
+      <c r="P217" t="inlineStr">
         <is>
           <t>heavycleave</t>
         </is>
       </c>
-      <c r="P217" t="inlineStr"/>
       <c r="Q217" t="n">
         <v>1</v>
       </c>
@@ -11513,12 +11513,12 @@
           <t>disrupt</t>
         </is>
       </c>
-      <c r="O218" t="inlineStr">
+      <c r="O218" t="inlineStr"/>
+      <c r="P218" t="inlineStr">
         <is>
           <t>ironpunch</t>
         </is>
       </c>
-      <c r="P218" t="inlineStr"/>
       <c r="Q218" t="n">
         <v>1</v>
       </c>
@@ -11566,12 +11566,12 @@
           <t>charge,10 | FOR:token,block | damage_bonus,1 | move_back,2 | IF:is_critical | reduce_token,block,4</t>
         </is>
       </c>
-      <c r="O219" t="inlineStr">
+      <c r="O219" t="inlineStr"/>
+      <c r="P219" t="inlineStr">
         <is>
           <t>shieldcharge</t>
         </is>
       </c>
-      <c r="P219" t="inlineStr"/>
       <c r="Q219" t="n">
         <v>1</v>
       </c>
@@ -11619,12 +11619,12 @@
           <t>add_token,block,2 | ENDWHEN | IF:is_critical | add_token,block,2</t>
         </is>
       </c>
-      <c r="O220" t="inlineStr">
+      <c r="O220" t="inlineStr"/>
+      <c r="P220" t="inlineStr">
         <is>
           <t>stalwart</t>
         </is>
       </c>
-      <c r="P220" t="inlineStr"/>
       <c r="Q220" t="n">
         <v>1</v>
       </c>
@@ -11676,12 +11676,12 @@
           <t>add_dot,fire,2</t>
         </is>
       </c>
-      <c r="O221" t="inlineStr">
+      <c r="O221" t="inlineStr"/>
+      <c r="P221" t="inlineStr">
         <is>
           <t>chembomb</t>
         </is>
       </c>
-      <c r="P221" t="inlineStr"/>
       <c r="Q221" t="n">
         <v>1</v>
       </c>
@@ -11729,12 +11729,12 @@
           <t>add_token,confusion,2 | disrupt</t>
         </is>
       </c>
-      <c r="O222" t="inlineStr">
+      <c r="O222" t="inlineStr"/>
+      <c r="P222" t="inlineStr">
         <is>
           <t>junk</t>
         </is>
       </c>
-      <c r="P222" t="inlineStr"/>
       <c r="Q222" t="n">
         <v>1</v>
       </c>
@@ -11786,12 +11786,12 @@
           <t>add_token,confusion,2 | disrupt | MOVE_USER | perform_move,junk</t>
         </is>
       </c>
-      <c r="O223" t="inlineStr">
+      <c r="O223" t="inlineStr"/>
+      <c r="P223" t="inlineStr">
         <is>
           <t>junkshot</t>
         </is>
       </c>
-      <c r="P223" t="inlineStr"/>
       <c r="Q223" t="n">
         <v>1</v>
       </c>
@@ -11833,12 +11833,12 @@
           <t>recoil,8</t>
         </is>
       </c>
-      <c r="O224" t="inlineStr">
+      <c r="O224" t="inlineStr"/>
+      <c r="P224" t="inlineStr">
         <is>
           <t>opps</t>
         </is>
       </c>
-      <c r="P224" t="inlineStr"/>
       <c r="Q224" t="n">
         <v>1</v>
       </c>
@@ -11884,12 +11884,12 @@
           <t>disrupt</t>
         </is>
       </c>
-      <c r="O225" t="inlineStr">
+      <c r="O225" t="inlineStr"/>
+      <c r="P225" t="inlineStr">
         <is>
           <t>rockshot</t>
         </is>
       </c>
-      <c r="P225" t="inlineStr"/>
       <c r="Q225" t="n">
         <v>1</v>
       </c>
@@ -11933,12 +11933,12 @@
           <t>add_dot,bleed,1 | IF:is_critical | add_dot,bleed,2</t>
         </is>
       </c>
-      <c r="O226" t="inlineStr">
+      <c r="O226" t="inlineStr"/>
+      <c r="P226" t="inlineStr">
         <is>
           <t>shrapnel</t>
         </is>
       </c>
-      <c r="P226" t="inlineStr"/>
       <c r="Q226" t="n">
         <v>1</v>
       </c>
@@ -11986,12 +11986,12 @@
           <t>add_dot,bleed,1 | add_token,weak,2 | IF:is_critical | add_dot,bleed,2 | ENDIF | MOVE_USER | perform_move,shrapnel</t>
         </is>
       </c>
-      <c r="O227" t="inlineStr">
+      <c r="O227" t="inlineStr"/>
+      <c r="P227" t="inlineStr">
         <is>
           <t>shrapnelarrow</t>
         </is>
       </c>
-      <c r="P227" t="inlineStr"/>
       <c r="Q227" t="n">
         <v>1</v>
       </c>
@@ -12043,12 +12043,12 @@
       </c>
       <c r="O228" t="inlineStr">
         <is>
+          <t>TARGET:NOT:has_token,shield,1</t>
+        </is>
+      </c>
+      <c r="P228" t="inlineStr">
+        <is>
           <t>bladedance</t>
-        </is>
-      </c>
-      <c r="P228" t="inlineStr">
-        <is>
-          <t>TARGET:NOT:has_token,shield,1</t>
         </is>
       </c>
       <c r="Q228" t="n">
@@ -12102,12 +12102,12 @@
           <t>charge,5 | add_dot,bleed,1 | IF:is_critical | add_dot,bleed,2</t>
         </is>
       </c>
-      <c r="O229" t="inlineStr">
+      <c r="O229" t="inlineStr"/>
+      <c r="P229" t="inlineStr">
         <is>
           <t>leafblades</t>
         </is>
       </c>
-      <c r="P229" t="inlineStr"/>
       <c r="Q229" t="n">
         <v>1</v>
       </c>
@@ -12157,12 +12157,12 @@
           <t>ignore_tokens,block</t>
         </is>
       </c>
-      <c r="O230" t="inlineStr">
+      <c r="O230" t="inlineStr"/>
+      <c r="P230" t="inlineStr">
         <is>
           <t>likethewind</t>
         </is>
       </c>
-      <c r="P230" t="inlineStr"/>
       <c r="Q230" t="n">
         <v>1</v>
       </c>
@@ -12214,12 +12214,12 @@
           <t>charge,7 | add_token,entangled,1 | add_token,confusion,2 | add_token,vuln,2</t>
         </is>
       </c>
-      <c r="O231" t="inlineStr">
+      <c r="O231" t="inlineStr"/>
+      <c r="P231" t="inlineStr">
         <is>
           <t>naturesgrasp</t>
         </is>
       </c>
-      <c r="P231" t="inlineStr"/>
       <c r="Q231" t="n">
         <v>1</v>
       </c>
@@ -12271,12 +12271,12 @@
           <t>charge,5 | add_token,blind,2 | add_token,confusion,2</t>
         </is>
       </c>
-      <c r="O232" t="inlineStr">
+      <c r="O232" t="inlineStr"/>
+      <c r="P232" t="inlineStr">
         <is>
           <t>petalstorm</t>
         </is>
       </c>
-      <c r="P232" t="inlineStr"/>
       <c r="Q232" t="n">
         <v>1</v>
       </c>
@@ -12322,12 +12322,12 @@
           <t>add_token,riposte,1</t>
         </is>
       </c>
-      <c r="O233" t="inlineStr">
+      <c r="O233" t="inlineStr"/>
+      <c r="P233" t="inlineStr">
         <is>
           <t>counter_stance</t>
         </is>
       </c>
-      <c r="P233" t="inlineStr"/>
       <c r="Q233" t="n">
         <v>1</v>
       </c>
@@ -12371,12 +12371,12 @@
       <c r="L234" t="inlineStr"/>
       <c r="M234" t="inlineStr"/>
       <c r="N234" t="inlineStr"/>
-      <c r="O234" t="inlineStr">
+      <c r="O234" t="inlineStr"/>
+      <c r="P234" t="inlineStr">
         <is>
           <t>finish_off</t>
         </is>
       </c>
-      <c r="P234" t="inlineStr"/>
       <c r="Q234" t="n">
         <v>1</v>
       </c>
@@ -12422,12 +12422,12 @@
           <t>disrupt</t>
         </is>
       </c>
-      <c r="O235" t="inlineStr">
+      <c r="O235" t="inlineStr"/>
+      <c r="P235" t="inlineStr">
         <is>
           <t>rock_throw</t>
         </is>
       </c>
-      <c r="P235" t="inlineStr"/>
       <c r="Q235" t="n">
         <v>1</v>
       </c>
@@ -12475,12 +12475,12 @@
       </c>
       <c r="O236" t="inlineStr">
         <is>
+          <t>TARGET:no_slot,hood,blindfold</t>
+        </is>
+      </c>
+      <c r="P236" t="inlineStr">
+        <is>
           <t>sand_attack</t>
-        </is>
-      </c>
-      <c r="P236" t="inlineStr">
-        <is>
-          <t>TARGET:no_slot,hood,blindfold</t>
         </is>
       </c>
       <c r="Q236" t="n">
@@ -12532,12 +12532,12 @@
       </c>
       <c r="O237" t="inlineStr">
         <is>
+          <t>TARGET:is_charging</t>
+        </is>
+      </c>
+      <c r="P237" t="inlineStr">
+        <is>
           <t>sucker_punch</t>
-        </is>
-      </c>
-      <c r="P237" t="inlineStr">
-        <is>
-          <t>TARGET:is_charging</t>
         </is>
       </c>
       <c r="Q237" t="n">
@@ -12591,12 +12591,12 @@
           <t>charge,6 | add_dot,regen,2 | ENDWHEN | IF:is_critical | heal</t>
         </is>
       </c>
-      <c r="O238" t="inlineStr">
+      <c r="O238" t="inlineStr"/>
+      <c r="P238" t="inlineStr">
         <is>
           <t>cantbebothered</t>
         </is>
       </c>
-      <c r="P238" t="inlineStr"/>
       <c r="Q238" t="n">
         <v>1</v>
       </c>
@@ -12648,12 +12648,12 @@
           <t>add_token,strength,2 | IF:is_critical | add_token,strength,2</t>
         </is>
       </c>
-      <c r="O239" t="inlineStr">
+      <c r="O239" t="inlineStr"/>
+      <c r="P239" t="inlineStr">
         <is>
           <t>cheeron</t>
         </is>
       </c>
-      <c r="P239" t="inlineStr"/>
       <c r="Q239" t="n">
         <v>1</v>
       </c>
@@ -12701,12 +12701,12 @@
           <t>charge,5 | heal</t>
         </is>
       </c>
-      <c r="O240" t="inlineStr">
+      <c r="O240" t="inlineStr"/>
+      <c r="P240" t="inlineStr">
         <is>
           <t>devoteedheal</t>
         </is>
       </c>
-      <c r="P240" t="inlineStr"/>
       <c r="Q240" t="n">
         <v>1</v>
       </c>
@@ -12750,12 +12750,12 @@
       <c r="L241" t="inlineStr"/>
       <c r="M241" t="inlineStr"/>
       <c r="N241" t="inlineStr"/>
-      <c r="O241" t="inlineStr">
+      <c r="O241" t="inlineStr"/>
+      <c r="P241" t="inlineStr">
         <is>
           <t>lastresort</t>
         </is>
       </c>
-      <c r="P241" t="inlineStr"/>
       <c r="Q241" t="n">
         <v>1</v>
       </c>
@@ -12805,12 +12805,12 @@
           <t>charge,5 | add_token,shield,2 | IF:is_critical | add_token,shield,2</t>
         </is>
       </c>
-      <c r="O242" t="inlineStr">
+      <c r="O242" t="inlineStr"/>
+      <c r="P242" t="inlineStr">
         <is>
           <t>obsessiveprotection</t>
         </is>
       </c>
-      <c r="P242" t="inlineStr"/>
       <c r="Q242" t="n">
         <v>1</v>
       </c>
@@ -12860,12 +12860,12 @@
       </c>
       <c r="O243" t="inlineStr">
         <is>
+          <t>TARGET:has_slot,boots</t>
+        </is>
+      </c>
+      <c r="P243" t="inlineStr">
+        <is>
           <t>annoying_pebble</t>
-        </is>
-      </c>
-      <c r="P243" t="inlineStr">
-        <is>
-          <t>TARGET:has_slot,boots</t>
         </is>
       </c>
       <c r="Q243" t="n">
@@ -12917,12 +12917,12 @@
       </c>
       <c r="O244" t="inlineStr">
         <is>
+          <t>TARGET:no_slot,bottom</t>
+        </is>
+      </c>
+      <c r="P244" t="inlineStr">
+        <is>
           <t>kind_of_a_prick</t>
-        </is>
-      </c>
-      <c r="P244" t="inlineStr">
-        <is>
-          <t>TARGET:no_slot,bottom</t>
         </is>
       </c>
       <c r="Q244" t="n">
@@ -12974,12 +12974,12 @@
           <t>charge,10 | add_token,drunk,1</t>
         </is>
       </c>
-      <c r="O245" t="inlineStr">
+      <c r="O245" t="inlineStr"/>
+      <c r="P245" t="inlineStr">
         <is>
           <t>spirits_shroud</t>
         </is>
       </c>
-      <c r="P245" t="inlineStr"/>
       <c r="Q245" t="n">
         <v>1</v>
       </c>
@@ -13031,12 +13031,12 @@
           <t>charge,10 | shuffle</t>
         </is>
       </c>
-      <c r="O246" t="inlineStr">
+      <c r="O246" t="inlineStr"/>
+      <c r="P246" t="inlineStr">
         <is>
           <t>whisper_in_the_woods</t>
         </is>
       </c>
-      <c r="P246" t="inlineStr"/>
       <c r="Q246" t="n">
         <v>1</v>
       </c>
@@ -13088,12 +13088,12 @@
           <t>charge,10</t>
         </is>
       </c>
-      <c r="O247" t="inlineStr">
+      <c r="O247" t="inlineStr"/>
+      <c r="P247" t="inlineStr">
         <is>
           <t>wind_blades</t>
         </is>
       </c>
-      <c r="P247" t="inlineStr"/>
       <c r="Q247" t="n">
         <v>1</v>
       </c>
@@ -13139,12 +13139,12 @@
           <t>add_token,drunk,1</t>
         </is>
       </c>
-      <c r="O248" t="inlineStr">
+      <c r="O248" t="inlineStr"/>
+      <c r="P248" t="inlineStr">
         <is>
           <t>drink_off</t>
         </is>
       </c>
-      <c r="P248" t="inlineStr"/>
       <c r="Q248" t="n">
         <v>1</v>
       </c>
@@ -13194,12 +13194,12 @@
       </c>
       <c r="O249" t="inlineStr">
         <is>
+          <t>SELF:has_slot,panties</t>
+        </is>
+      </c>
+      <c r="P249" t="inlineStr">
+        <is>
           <t>panty_slap</t>
-        </is>
-      </c>
-      <c r="P249" t="inlineStr">
-        <is>
-          <t>SELF:has_slot,panties</t>
         </is>
       </c>
       <c r="Q249" t="n">
@@ -13249,12 +13249,12 @@
           <t>add_lust,5 | IF:above_stat,lust,35 | disrupt | ENDIF | add_token,confusion,1</t>
         </is>
       </c>
-      <c r="O250" t="inlineStr">
+      <c r="O250" t="inlineStr"/>
+      <c r="P250" t="inlineStr">
         <is>
           <t>pixy_dust</t>
         </is>
       </c>
-      <c r="P250" t="inlineStr"/>
       <c r="Q250" t="n">
         <v>1</v>
       </c>
@@ -13298,12 +13298,12 @@
       <c r="L251" t="inlineStr"/>
       <c r="M251" t="inlineStr"/>
       <c r="N251" t="inlineStr"/>
-      <c r="O251" t="inlineStr">
+      <c r="O251" t="inlineStr"/>
+      <c r="P251" t="inlineStr">
         <is>
           <t>shin_kick</t>
         </is>
       </c>
-      <c r="P251" t="inlineStr"/>
       <c r="Q251" t="n">
         <v>1</v>
       </c>
@@ -13355,12 +13355,12 @@
       </c>
       <c r="O252" t="inlineStr">
         <is>
+          <t>has_token,taunt,1</t>
+        </is>
+      </c>
+      <c r="P252" t="inlineStr">
+        <is>
           <t>blame</t>
-        </is>
-      </c>
-      <c r="P252" t="inlineStr">
-        <is>
-          <t>has_token,taunt,1</t>
         </is>
       </c>
       <c r="Q252" t="n">
@@ -13412,12 +13412,12 @@
           <t>add_token,arousal,2 | add_lust,10 | IF:above_stat,lust,30 | disrupt | ENDIF | IF:is_critical | add_token,arousal,3</t>
         </is>
       </c>
-      <c r="O253" t="inlineStr">
+      <c r="O253" t="inlineStr"/>
+      <c r="P253" t="inlineStr">
         <is>
           <t>molest</t>
         </is>
       </c>
-      <c r="P253" t="inlineStr"/>
       <c r="Q253" t="n">
         <v>1</v>
       </c>
@@ -13461,12 +13461,12 @@
       <c r="L254" t="inlineStr"/>
       <c r="M254" t="inlineStr"/>
       <c r="N254" t="inlineStr"/>
-      <c r="O254" t="inlineStr">
+      <c r="O254" t="inlineStr"/>
+      <c r="P254" t="inlineStr">
         <is>
           <t>slice</t>
         </is>
       </c>
-      <c r="P254" t="inlineStr"/>
       <c r="Q254" t="n">
         <v>1</v>
       </c>
@@ -13518,12 +13518,12 @@
       </c>
       <c r="O255" t="inlineStr">
         <is>
+          <t>TARGET:no_slot,top</t>
+        </is>
+      </c>
+      <c r="P255" t="inlineStr">
+        <is>
           <t>sticky_fingers</t>
-        </is>
-      </c>
-      <c r="P255" t="inlineStr">
-        <is>
-          <t>TARGET:no_slot,top</t>
         </is>
       </c>
       <c r="Q255" t="n">
@@ -13573,12 +13573,12 @@
           <t>add_token,weak,1</t>
         </is>
       </c>
-      <c r="O256" t="inlineStr">
+      <c r="O256" t="inlineStr"/>
+      <c r="P256" t="inlineStr">
         <is>
           <t>wrist_slash</t>
         </is>
       </c>
-      <c r="P256" t="inlineStr"/>
       <c r="Q256" t="n">
         <v>1</v>
       </c>
@@ -13628,12 +13628,12 @@
       </c>
       <c r="O257" t="inlineStr">
         <is>
+          <t>NOT:has_slot,top,bottom,bra,panties</t>
+        </is>
+      </c>
+      <c r="P257" t="inlineStr">
+        <is>
           <t>costoffailure</t>
-        </is>
-      </c>
-      <c r="P257" t="inlineStr">
-        <is>
-          <t>NOT:has_slot,top,bottom,bra,panties</t>
         </is>
       </c>
       <c r="Q257" t="n">
@@ -13683,12 +13683,12 @@
       </c>
       <c r="O258" t="inlineStr">
         <is>
+          <t>has_slot,top | OR: | has_slot,bottom | OR: | has_slot,bra | OR: | has_slot,panties</t>
+        </is>
+      </c>
+      <c r="P258" t="inlineStr">
+        <is>
           <t>cursedtobenude</t>
-        </is>
-      </c>
-      <c r="P258" t="inlineStr">
-        <is>
-          <t>has_slot,top | OR: | has_slot,bottom | OR: | has_slot,bra | OR: | has_slot,panties</t>
         </is>
       </c>
       <c r="Q258" t="n">
@@ -13740,12 +13740,12 @@
       </c>
       <c r="O259" t="inlineStr">
         <is>
+          <t>SELF:has_token,frost,5 | NOT:has_slot,top,bottom,bra,panties</t>
+        </is>
+      </c>
+      <c r="P259" t="inlineStr">
+        <is>
           <t>pitiful</t>
-        </is>
-      </c>
-      <c r="P259" t="inlineStr">
-        <is>
-          <t>SELF:has_token,frost,5 | NOT:has_slot,top,bottom,bra,panties</t>
         </is>
       </c>
       <c r="Q259" t="n">
@@ -13799,12 +13799,12 @@
       </c>
       <c r="O260" t="inlineStr">
         <is>
+          <t>NOT:has_slot,top,bottom,bra,panties | TARGET:can_stack_token,frost,3</t>
+        </is>
+      </c>
+      <c r="P260" t="inlineStr">
+        <is>
           <t>pleadingglance</t>
-        </is>
-      </c>
-      <c r="P260" t="inlineStr">
-        <is>
-          <t>NOT:has_slot,top,bottom,bra,panties | TARGET:can_stack_token,frost,3</t>
         </is>
       </c>
       <c r="Q260" t="n">
@@ -13854,12 +13854,12 @@
       </c>
       <c r="O261" t="inlineStr">
         <is>
+          <t>NOT:has_slot,top,bottom,bra,panties</t>
+        </is>
+      </c>
+      <c r="P261" t="inlineStr">
+        <is>
           <t>shiver</t>
-        </is>
-      </c>
-      <c r="P261" t="inlineStr">
-        <is>
-          <t>NOT:has_slot,top,bottom,bra,panties</t>
         </is>
       </c>
       <c r="Q261" t="n">
@@ -13909,12 +13909,12 @@
           <t>disrupt</t>
         </is>
       </c>
-      <c r="O262" t="inlineStr">
+      <c r="O262" t="inlineStr"/>
+      <c r="P262" t="inlineStr">
         <is>
           <t>hearty_slap</t>
         </is>
       </c>
-      <c r="P262" t="inlineStr"/>
       <c r="Q262" t="n">
         <v>1</v>
       </c>
@@ -13964,12 +13964,12 @@
       </c>
       <c r="O263" t="inlineStr">
         <is>
+          <t>TARGET:has_token,block,1</t>
+        </is>
+      </c>
+      <c r="P263" t="inlineStr">
+        <is>
           <t>heavy_spike</t>
-        </is>
-      </c>
-      <c r="P263" t="inlineStr">
-        <is>
-          <t>TARGET:has_token,block,1</t>
         </is>
       </c>
       <c r="Q263" t="n">
@@ -14021,12 +14021,12 @@
       </c>
       <c r="O264" t="inlineStr">
         <is>
+          <t>TARGET:has_slot,top</t>
+        </is>
+      </c>
+      <c r="P264" t="inlineStr">
+        <is>
           <t>iron_maiden</t>
-        </is>
-      </c>
-      <c r="P264" t="inlineStr">
-        <is>
-          <t>TARGET:has_slot,top</t>
         </is>
       </c>
       <c r="Q264" t="n">
@@ -14078,12 +14078,12 @@
           <t>add_token,strength,2</t>
         </is>
       </c>
-      <c r="O265" t="inlineStr">
+      <c r="O265" t="inlineStr"/>
+      <c r="P265" t="inlineStr">
         <is>
           <t>whetstone</t>
         </is>
       </c>
-      <c r="P265" t="inlineStr"/>
       <c r="Q265" t="n">
         <v>1</v>
       </c>
@@ -14131,12 +14131,12 @@
           <t>move_front,3 | unequip_wearable_in_slot,panties | move_back,1 | disrupt</t>
         </is>
       </c>
-      <c r="O266" t="inlineStr">
+      <c r="O266" t="inlineStr"/>
+      <c r="P266" t="inlineStr">
         <is>
           <t>you_called_me_short</t>
         </is>
       </c>
-      <c r="P266" t="inlineStr"/>
       <c r="Q266" t="n">
         <v>1</v>
       </c>
@@ -14186,12 +14186,12 @@
       </c>
       <c r="O267" t="inlineStr">
         <is>
+          <t>BACK:above_hp_ratio,10</t>
+        </is>
+      </c>
+      <c r="P267" t="inlineStr">
+        <is>
           <t>curbstomp</t>
-        </is>
-      </c>
-      <c r="P267" t="inlineStr">
-        <is>
-          <t>BACK:above_hp_ratio,10</t>
         </is>
       </c>
       <c r="Q267" t="n">
@@ -14245,12 +14245,12 @@
           <t>add_token,strength,2</t>
         </is>
       </c>
-      <c r="O268" t="inlineStr">
+      <c r="O268" t="inlineStr"/>
+      <c r="P268" t="inlineStr">
         <is>
           <t>extraweapon</t>
         </is>
       </c>
-      <c r="P268" t="inlineStr"/>
       <c r="Q268" t="n">
         <v>1</v>
       </c>
@@ -14298,12 +14298,12 @@
           <t>add_token,guard,1</t>
         </is>
       </c>
-      <c r="O269" t="inlineStr">
+      <c r="O269" t="inlineStr"/>
+      <c r="P269" t="inlineStr">
         <is>
           <t>pawn</t>
         </is>
       </c>
-      <c r="P269" t="inlineStr"/>
       <c r="Q269" t="n">
         <v>1</v>
       </c>
@@ -14359,12 +14359,12 @@
       </c>
       <c r="O270" t="inlineStr">
         <is>
+          <t>TARGETS | has_token,confusion,1 | OR: | has_token,drunk,1 | OR: | has_token,weak,1 | OR: | has_token,vuln,1</t>
+        </is>
+      </c>
+      <c r="P270" t="inlineStr">
+        <is>
           <t>pickup</t>
-        </is>
-      </c>
-      <c r="P270" t="inlineStr">
-        <is>
-          <t>TARGETS | has_token,confusion,1 | OR: | has_token,drunk,1 | OR: | has_token,weak,1 | OR: | has_token,vuln,1</t>
         </is>
       </c>
       <c r="Q270" t="n">
@@ -14418,12 +14418,12 @@
           <t>charge,3 | add_dot,regen,2</t>
         </is>
       </c>
-      <c r="O271" t="inlineStr">
+      <c r="O271" t="inlineStr"/>
+      <c r="P271" t="inlineStr">
         <is>
           <t>potionsupport</t>
         </is>
       </c>
-      <c r="P271" t="inlineStr"/>
       <c r="Q271" t="n">
         <v>1</v>
       </c>
